--- a/tests/test7/ММП 0.0.xlsx
+++ b/tests/test7/ММП 0.0.xlsx
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004964499999971395</v>
+        <v>0.00416360000002669</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002247399999987465</v>
+        <v>0.002320699999984299</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003665300000022853</v>
+        <v>0.002166600000009566</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002867699999967499</v>
+        <v>0.003064600000016071</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.003274499999974978</v>
+        <v>0.003356399999972837</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002748800000006213</v>
+        <v>0.00245830000000069</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002859499999999571</v>
+        <v>0.003123600000037641</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002726199999983692</v>
+        <v>0.002639799999997194</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.00213339999999107</v>
+        <v>0.003373399999986759</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002823400000011134</v>
+        <v>0.002941899999996167</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.001832100000001446</v>
+        <v>0.001967600000000402</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.00185989999999947</v>
+        <v>0.001883999999961361</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002314699999999448</v>
+        <v>0.00246110000000499</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002568699999983437</v>
+        <v>0.002662100000009104</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003007099999990714</v>
+        <v>0.003299599999991187</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.001800199999991037</v>
+        <v>0.00201470000001791</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002648500000020704</v>
+        <v>0.002896499999962998</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002617200000031517</v>
+        <v>0.003177199999981895</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.003189200000008441</v>
+        <v>0.004900399999996807</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001851799999997183</v>
+        <v>0.002042499999959091</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002752299999997376</v>
+        <v>0.002686899999957859</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002642900000012105</v>
+        <v>0.003089399999964826</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.004200400000001991</v>
+        <v>0.002616999999986547</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002341600000022481</v>
+        <v>0.002776299999993626</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003406299999994644</v>
+        <v>0.005319199999973989</v>
       </c>
       <c r="Y26" t="n">
         <v>14</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002596600000003946</v>
+        <v>0.002854200000001583</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.003190300000028401</v>
+        <v>0.003184799999985444</v>
       </c>
       <c r="Y28" t="n">
         <v>13</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002965500000016164</v>
+        <v>0.004322900000033769</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002432699999985743</v>
+        <v>0.002541900000039732</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.001910100000031889</v>
+        <v>0.002145400000017617</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002710500000034699</v>
+        <v>0.00391959999996061</v>
       </c>
       <c r="Y32" t="n">
         <v>12</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002091899999982161</v>
+        <v>0.002313800000024457</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002784800000029009</v>
+        <v>0.003779699999995501</v>
       </c>
       <c r="Y34" t="n">
         <v>12</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002547999999990225</v>
+        <v>0.002640299999995932</v>
       </c>
       <c r="Y35" t="n">
         <v>11</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002064000000018495</v>
+        <v>0.002311799999972663</v>
       </c>
       <c r="Y36" t="n">
         <v>9</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002543199999990975</v>
+        <v>0.003274299999986852</v>
       </c>
       <c r="Y37" t="n">
         <v>10</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.00318609999999353</v>
+        <v>0.003223599999955695</v>
       </c>
       <c r="Y38" t="n">
         <v>13</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.003016299999956118</v>
+        <v>0.004371999999989384</v>
       </c>
       <c r="Y39" t="n">
         <v>10</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003340500000035718</v>
+        <v>0.004601100000002134</v>
       </c>
       <c r="Y40" t="n">
         <v>13</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.003187000000025364</v>
+        <v>0.003074300000037056</v>
       </c>
       <c r="Y41" t="n">
         <v>13</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002136899999982234</v>
+        <v>0.001993599999991602</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.001958900000033736</v>
+        <v>0.001916600000015478</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002433000000053198</v>
+        <v>0.002356399999996484</v>
       </c>
       <c r="Y44" t="n">
         <v>9</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002775900000017373</v>
+        <v>0.003750099999990653</v>
       </c>
       <c r="Y45" t="n">
         <v>9</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002506100000005063</v>
+        <v>0.002280799999994088</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002655099999969934</v>
+        <v>0.002764899999988302</v>
       </c>
       <c r="Y47" t="n">
         <v>11</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.003160900000011679</v>
+        <v>0.002593499999989035</v>
       </c>
       <c r="Y48" t="n">
         <v>11</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002158599999972921</v>
+        <v>0.002223899999989953</v>
       </c>
       <c r="Y49" t="n">
         <v>9</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002620600000000195</v>
+        <v>0.002090999999950327</v>
       </c>
       <c r="Y50" t="n">
         <v>9</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002704800000003615</v>
+        <v>0.002865700000029392</v>
       </c>
       <c r="Y51" t="n">
         <v>12</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002076199999976325</v>
+        <v>0.003498700000022836</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.001775299999962954</v>
+        <v>0.001910599999973783</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.001880500000027041</v>
+        <v>0.001978399999984504</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002684900000019752</v>
+        <v>0.002716299999974581</v>
       </c>
       <c r="Y55" t="n">
         <v>12</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002340000000003783</v>
+        <v>0.002446800000029725</v>
       </c>
       <c r="Y56" t="n">
         <v>10</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001779100000021572</v>
+        <v>0.002214900000012676</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002791000000001986</v>
+        <v>0.002831899999989673</v>
       </c>
       <c r="Y58" t="n">
         <v>12</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002375400000005357</v>
+        <v>0.003260900000043421</v>
       </c>
       <c r="Y59" t="n">
         <v>10</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.003176100000018778</v>
+        <v>0.00279339999997319</v>
       </c>
       <c r="Y60" t="n">
         <v>12</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002207400000031612</v>
+        <v>0.002435800000000654</v>
       </c>
       <c r="Y61" t="n">
         <v>10</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.001703500000019176</v>
+        <v>0.001645600000017566</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002396699999962948</v>
+        <v>0.002811300000018946</v>
       </c>
       <c r="Y63" t="n">
         <v>11</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.00345870000001014</v>
+        <v>0.004098300000009658</v>
       </c>
       <c r="Y64" t="n">
         <v>13</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.001833299999987048</v>
+        <v>0.002164399999969646</v>
       </c>
       <c r="Y65" t="n">
         <v>8</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003142199999956574</v>
+        <v>0.002862900000025093</v>
       </c>
       <c r="Y66" t="n">
         <v>12</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001880100000050788</v>
+        <v>0.001879700000017692</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.00257019999997965</v>
+        <v>0.002136500000005981</v>
       </c>
       <c r="Y68" t="n">
         <v>9</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002611000000001695</v>
+        <v>0.004285799999991013</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.001977599999975155</v>
+        <v>0.001880700000015167</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002224200000000565</v>
+        <v>0.002211400000021513</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002397799999982908</v>
+        <v>0.002478800000005776</v>
       </c>
       <c r="Y72" t="n">
         <v>10</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.003146700000002056</v>
+        <v>0.003061000000002423</v>
       </c>
       <c r="Y73" t="n">
         <v>12</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.003220399999975143</v>
+        <v>0.00428599999997914</v>
       </c>
       <c r="Y74" t="n">
         <v>12</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002847699999961151</v>
+        <v>0.002774600000009286</v>
       </c>
       <c r="Y75" t="n">
         <v>12</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.003011099999980615</v>
+        <v>0.003077499999960764</v>
       </c>
       <c r="Y76" t="n">
         <v>13</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002215000000035161</v>
+        <v>0.001867000000004282</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.00219809999998688</v>
+        <v>0.00228140000001531</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003694499999994605</v>
+        <v>0.004521599999975479</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.003458899999998266</v>
+        <v>0.003013199999998051</v>
       </c>
       <c r="Y80" t="n">
         <v>13</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.00302169999997659</v>
+        <v>0.002925199999992856</v>
       </c>
       <c r="Y81" t="n">
         <v>12</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002643100000000231</v>
+        <v>0.002310899999997673</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002907199999981458</v>
+        <v>0.002958799999987605</v>
       </c>
       <c r="Y83" t="n">
         <v>12</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002979200000027049</v>
+        <v>0.004148600000007718</v>
       </c>
       <c r="Y84" t="n">
         <v>12</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002897500000017317</v>
+        <v>0.002968800000019201</v>
       </c>
       <c r="Y85" t="n">
         <v>13</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002467099999989841</v>
+        <v>0.002649000000019441</v>
       </c>
       <c r="Y86" t="n">
         <v>10</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002505999999982578</v>
+        <v>0.002680899999973008</v>
       </c>
       <c r="Y87" t="n">
         <v>11</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002277999999989788</v>
+        <v>0.002202000000011139</v>
       </c>
       <c r="Y88" t="n">
         <v>9</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002215000000035161</v>
+        <v>0.004412099999967722</v>
       </c>
       <c r="Y89" t="n">
         <v>10</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00289620000000923</v>
+        <v>0.002863900000022568</v>
       </c>
       <c r="Y90" t="n">
         <v>12</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002116199999989021</v>
+        <v>0.002225100000032398</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002586400000041067</v>
+        <v>0.002351499999974749</v>
       </c>
       <c r="Y92" t="n">
         <v>10</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002411100000017541</v>
+        <v>0.002405899999985195</v>
       </c>
       <c r="Y93" t="n">
         <v>10</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002651200000002518</v>
+        <v>0.003610900000012407</v>
       </c>
       <c r="Y94" t="n">
         <v>11</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003080000000011296</v>
+        <v>0.0025721999999746</v>
       </c>
       <c r="Y95" t="n">
         <v>11</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002888499999983196</v>
+        <v>0.0032942999999932</v>
       </c>
       <c r="Y96" t="n">
         <v>13</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.00268429999999853</v>
+        <v>0.002557400000000598</v>
       </c>
       <c r="Y97" t="n">
         <v>11</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002281399999958467</v>
+        <v>0.002554200000020046</v>
       </c>
       <c r="Y98" t="n">
         <v>10</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002285500000027696</v>
+        <v>0.001942499999984193</v>
       </c>
       <c r="Y99" t="n">
         <v>8</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002493900000047233</v>
+        <v>0.002813500000002023</v>
       </c>
       <c r="Y100" t="n">
         <v>11</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003193299999963983</v>
+        <v>0.003305099999977301</v>
       </c>
       <c r="Y101" t="n">
         <v>13</v>
@@ -8838,7 +8838,7 @@
         </is>
       </c>
       <c r="X102" t="n">
-        <v>0.002277100000014798</v>
+        <v>0.002354099999990922</v>
       </c>
       <c r="Y102" t="n">
         <v>10</v>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="X103" t="n">
-        <v>0.00210739999999987</v>
+        <v>0.002363199999990684</v>
       </c>
       <c r="Y103" t="n">
         <v>9</v>
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="X104" t="n">
-        <v>0.002522399999975278</v>
+        <v>0.003616499999964162</v>
       </c>
       <c r="Y104" t="n">
         <v>11</v>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="X105" t="n">
-        <v>0.002331900000001497</v>
+        <v>0.002394000000037977</v>
       </c>
       <c r="Y105" t="n">
         <v>9</v>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="X106" t="n">
-        <v>0.002688900000009653</v>
+        <v>0.002703499999995529</v>
       </c>
       <c r="Y106" t="n">
         <v>11</v>
@@ -9248,7 +9248,7 @@
         </is>
       </c>
       <c r="X107" t="n">
-        <v>0.002779499999974178</v>
+        <v>0.002737999999965268</v>
       </c>
       <c r="Y107" t="n">
         <v>12</v>
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="X108" t="n">
-        <v>0.002038299999981064</v>
+        <v>0.002193900000008853</v>
       </c>
       <c r="Y108" t="n">
         <v>9</v>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="X109" t="n">
-        <v>0.002756000000033509</v>
+        <v>0.004124699999977111</v>
       </c>
       <c r="Y109" t="n">
         <v>12</v>
@@ -9494,7 +9494,7 @@
         </is>
       </c>
       <c r="X110" t="n">
-        <v>0.001863899999989371</v>
+        <v>0.002000599999973929</v>
       </c>
       <c r="Y110" t="n">
         <v>8</v>
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="X111" t="n">
-        <v>0.003081500000007509</v>
+        <v>0.003853600000013557</v>
       </c>
       <c r="Y111" t="n">
         <v>13</v>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="X112" t="n">
-        <v>0.002471799999966606</v>
+        <v>0.00266879999998082</v>
       </c>
       <c r="Y112" t="n">
         <v>11</v>
@@ -9740,7 +9740,7 @@
         </is>
       </c>
       <c r="X113" t="n">
-        <v>0.00211980000000267</v>
+        <v>0.002192100000002029</v>
       </c>
       <c r="Y113" t="n">
         <v>9</v>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="X114" t="n">
-        <v>0.00339990000003354</v>
+        <v>0.004498599999976705</v>
       </c>
       <c r="Y114" t="n">
         <v>14</v>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="X115" t="n">
-        <v>0.001755300000013449</v>
+        <v>0.001769599999988714</v>
       </c>
       <c r="Y115" t="n">
         <v>7</v>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="X116" t="n">
-        <v>0.002669500000024527</v>
+        <v>0.002871599999991759</v>
       </c>
       <c r="Y116" t="n">
         <v>12</v>
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="X117" t="n">
-        <v>0.002888200000029428</v>
+        <v>0.002623200000016368</v>
       </c>
       <c r="Y117" t="n">
         <v>11</v>
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="X118" t="n">
-        <v>0.003139300000043477</v>
+        <v>0.002923100000032264</v>
       </c>
       <c r="Y118" t="n">
         <v>12</v>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="X119" t="n">
-        <v>0.003139700000019729</v>
+        <v>0.003992800000048646</v>
       </c>
       <c r="Y119" t="n">
         <v>10</v>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="X120" t="n">
-        <v>0.002280400000017835</v>
+        <v>0.002207399999974768</v>
       </c>
       <c r="Y120" t="n">
         <v>8</v>
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="X121" t="n">
-        <v>0.00233539999999266</v>
+        <v>0.002458799999999428</v>
       </c>
       <c r="Y121" t="n">
         <v>10</v>
@@ -10478,7 +10478,7 @@
         </is>
       </c>
       <c r="X122" t="n">
-        <v>0.003314699999975801</v>
+        <v>0.002830899999992198</v>
       </c>
       <c r="Y122" t="n">
         <v>12</v>
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="X123" t="n">
-        <v>0.002120800000000145</v>
+        <v>0.002595499999983986</v>
       </c>
       <c r="Y123" t="n">
         <v>9</v>
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="X124" t="n">
-        <v>0.003067900000019108</v>
+        <v>0.003494899999964218</v>
       </c>
       <c r="Y124" t="n">
         <v>10</v>
@@ -10724,7 +10724,7 @@
         </is>
       </c>
       <c r="X125" t="n">
-        <v>0.002214800000047035</v>
+        <v>0.002113600000029692</v>
       </c>
       <c r="Y125" t="n">
         <v>9</v>
@@ -10806,7 +10806,7 @@
         </is>
       </c>
       <c r="X126" t="n">
-        <v>0.002836399999978312</v>
+        <v>0.003355499999997846</v>
       </c>
       <c r="Y126" t="n">
         <v>12</v>
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="X127" t="n">
-        <v>0.001818200000002435</v>
+        <v>0.001891199999988658</v>
       </c>
       <c r="Y127" t="n">
         <v>8</v>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="X128" t="n">
-        <v>0.001927800000032676</v>
+        <v>0.002048200000047018</v>
       </c>
       <c r="Y128" t="n">
         <v>8</v>
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="X129" t="n">
-        <v>0.001915100000019265</v>
+        <v>0.002096700000038254</v>
       </c>
       <c r="Y129" t="n">
         <v>8</v>
@@ -11134,7 +11134,7 @@
         </is>
       </c>
       <c r="X130" t="n">
-        <v>0.001724700000011126</v>
+        <v>0.001825099999962276</v>
       </c>
       <c r="Y130" t="n">
         <v>7</v>
@@ -11216,7 +11216,7 @@
         </is>
       </c>
       <c r="X131" t="n">
-        <v>0.002615400000024692</v>
+        <v>0.004532100000005812</v>
       </c>
       <c r="Y131" t="n">
         <v>11</v>
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="X132" t="n">
-        <v>0.002675099999976283</v>
+        <v>0.002584699999999884</v>
       </c>
       <c r="Y132" t="n">
         <v>11</v>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="X133" t="n">
-        <v>0.001904800000033902</v>
+        <v>0.002036699999962366</v>
       </c>
       <c r="Y133" t="n">
         <v>8</v>
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="X134" t="n">
-        <v>0.002775799999994888</v>
+        <v>0.002748300000007475</v>
       </c>
       <c r="Y134" t="n">
         <v>12</v>
@@ -11544,7 +11544,7 @@
         </is>
       </c>
       <c r="X135" t="n">
-        <v>0.002542699999992237</v>
+        <v>0.001882899999998244</v>
       </c>
       <c r="Y135" t="n">
         <v>8</v>
@@ -11626,7 +11626,7 @@
         </is>
       </c>
       <c r="X136" t="n">
-        <v>0.002801900000008573</v>
+        <v>0.00283910000001697</v>
       </c>
       <c r="Y136" t="n">
         <v>12</v>
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="X137" t="n">
-        <v>0.002466499999968619</v>
+        <v>0.002345199999979286</v>
       </c>
       <c r="Y137" t="n">
         <v>10</v>
@@ -11790,7 +11790,7 @@
         </is>
       </c>
       <c r="X138" t="n">
-        <v>0.002328700000020945</v>
+        <v>0.003936699999997018</v>
       </c>
       <c r="Y138" t="n">
         <v>9</v>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="X139" t="n">
-        <v>0.00214189999996961</v>
+        <v>0.001699700000017401</v>
       </c>
       <c r="Y139" t="n">
         <v>7</v>
@@ -11954,7 +11954,7 @@
         </is>
       </c>
       <c r="X140" t="n">
-        <v>0.002763800000025185</v>
+        <v>0.003084099999966838</v>
       </c>
       <c r="Y140" t="n">
         <v>11</v>
@@ -12036,7 +12036,7 @@
         </is>
       </c>
       <c r="X141" t="n">
-        <v>0.003392300000029991</v>
+        <v>0.00296570000000429</v>
       </c>
       <c r="Y141" t="n">
         <v>13</v>
@@ -12118,7 +12118,7 @@
         </is>
       </c>
       <c r="X142" t="n">
-        <v>0.001950000000022101</v>
+        <v>0.00193619999998873</v>
       </c>
       <c r="Y142" t="n">
         <v>8</v>
@@ -12200,7 +12200,7 @@
         </is>
       </c>
       <c r="X143" t="n">
-        <v>0.001945999999975356</v>
+        <v>0.002597699999967062</v>
       </c>
       <c r="Y143" t="n">
         <v>8</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="X144" t="n">
-        <v>0.003065499999991061</v>
+        <v>0.003267699999980778</v>
       </c>
       <c r="Y144" t="n">
         <v>13</v>
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="X145" t="n">
-        <v>0.002621299999987059</v>
+        <v>0.002786500000013348</v>
       </c>
       <c r="Y145" t="n">
         <v>11</v>
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="X146" t="n">
-        <v>0.002941399999997429</v>
+        <v>0.002359200000000783</v>
       </c>
       <c r="Y146" t="n">
         <v>10</v>
@@ -12528,7 +12528,7 @@
         </is>
       </c>
       <c r="X147" t="n">
-        <v>0.001944500000035987</v>
+        <v>0.001982699999985016</v>
       </c>
       <c r="Y147" t="n">
         <v>8</v>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="X148" t="n">
-        <v>0.003033899999991263</v>
+        <v>0.002579800000034993</v>
       </c>
       <c r="Y148" t="n">
         <v>11</v>
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="X149" t="n">
-        <v>0.002054299999997511</v>
+        <v>0.002220000000022537</v>
       </c>
       <c r="Y149" t="n">
         <v>9</v>
@@ -12774,7 +12774,7 @@
         </is>
       </c>
       <c r="X150" t="n">
-        <v>0.001957800000013776</v>
+        <v>0.003299799999979314</v>
       </c>
       <c r="Y150" t="n">
         <v>8</v>
@@ -12856,7 +12856,7 @@
         </is>
       </c>
       <c r="X151" t="n">
-        <v>0.001821100000029219</v>
+        <v>0.001938900000027388</v>
       </c>
       <c r="Y151" t="n">
         <v>8</v>
@@ -12938,7 +12938,7 @@
         </is>
       </c>
       <c r="X152" t="n">
-        <v>0.002989800000023024</v>
+        <v>0.003002900000012687</v>
       </c>
       <c r="Y152" t="n">
         <v>12</v>
@@ -13020,7 +13020,7 @@
         </is>
       </c>
       <c r="X153" t="n">
-        <v>0.001821000000006734</v>
+        <v>0.001878699999963374</v>
       </c>
       <c r="Y153" t="n">
         <v>8</v>
@@ -13102,7 +13102,7 @@
         </is>
       </c>
       <c r="X154" t="n">
-        <v>0.00216309999996156</v>
+        <v>0.002313399999991361</v>
       </c>
       <c r="Y154" t="n">
         <v>9</v>
@@ -13184,7 +13184,7 @@
         </is>
       </c>
       <c r="X155" t="n">
-        <v>0.002961800000036874</v>
+        <v>0.002707099999952334</v>
       </c>
       <c r="Y155" t="n">
         <v>12</v>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="X156" t="n">
-        <v>0.003167399999995268</v>
+        <v>0.003093900000010308</v>
       </c>
       <c r="Y156" t="n">
         <v>13</v>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="X157" t="n">
-        <v>0.002004400000032547</v>
+        <v>0.002967500000011114</v>
       </c>
       <c r="Y157" t="n">
         <v>8</v>
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="X158" t="n">
-        <v>0.003338799999994535</v>
+        <v>0.002578400000004422</v>
       </c>
       <c r="Y158" t="n">
         <v>11</v>
@@ -13512,7 +13512,7 @@
         </is>
       </c>
       <c r="X159" t="n">
-        <v>0.005078000000025895</v>
+        <v>0.003067299999997886</v>
       </c>
       <c r="Y159" t="n">
         <v>11</v>
@@ -13594,7 +13594,7 @@
         </is>
       </c>
       <c r="X160" t="n">
-        <v>0.002273199999990538</v>
+        <v>0.002303100000005998</v>
       </c>
       <c r="Y160" t="n">
         <v>9</v>
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="X161" t="n">
-        <v>0.002447700000004716</v>
+        <v>0.002020100000038383</v>
       </c>
       <c r="Y161" t="n">
         <v>8</v>
@@ -13758,7 +13758,7 @@
         </is>
       </c>
       <c r="X162" t="n">
-        <v>0.005819499999972777</v>
+        <v>0.003927000000032876</v>
       </c>
       <c r="Y162" t="n">
         <v>11</v>
@@ -13840,7 +13840,7 @@
         </is>
       </c>
       <c r="X163" t="n">
-        <v>0.002603399999998146</v>
+        <v>0.002699699999993754</v>
       </c>
       <c r="Y163" t="n">
         <v>11</v>
@@ -13922,7 +13922,7 @@
         </is>
       </c>
       <c r="X164" t="n">
-        <v>0.003405400000019654</v>
+        <v>0.003220199999987017</v>
       </c>
       <c r="Y164" t="n">
         <v>13</v>
@@ -14004,7 +14004,7 @@
         </is>
       </c>
       <c r="X165" t="n">
-        <v>0.002789800000016385</v>
+        <v>0.002876600000035978</v>
       </c>
       <c r="Y165" t="n">
         <v>12</v>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="X166" t="n">
-        <v>0.002682800000002317</v>
+        <v>0.002442900000005466</v>
       </c>
       <c r="Y166" t="n">
         <v>10</v>
@@ -14168,7 +14168,7 @@
         </is>
       </c>
       <c r="X167" t="n">
-        <v>0.003420799999958035</v>
+        <v>0.003768400000012662</v>
       </c>
       <c r="Y167" t="n">
         <v>13</v>
@@ -14250,7 +14250,7 @@
         </is>
       </c>
       <c r="X168" t="n">
-        <v>0.003213599999980943</v>
+        <v>0.002830299999970975</v>
       </c>
       <c r="Y168" t="n">
         <v>12</v>
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="X169" t="n">
-        <v>0.003739800000005289</v>
+        <v>0.001987100000008013</v>
       </c>
       <c r="Y169" t="n">
         <v>8</v>
@@ -14414,7 +14414,7 @@
         </is>
       </c>
       <c r="X170" t="n">
-        <v>0.003157100000009905</v>
+        <v>0.00266310000000658</v>
       </c>
       <c r="Y170" t="n">
         <v>11</v>
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="X171" t="n">
-        <v>0.00254050000000916</v>
+        <v>0.002831899999989673</v>
       </c>
       <c r="Y171" t="n">
         <v>10</v>
@@ -14578,7 +14578,7 @@
         </is>
       </c>
       <c r="X172" t="n">
-        <v>0.002286000000026434</v>
+        <v>0.002301399999964815</v>
       </c>
       <c r="Y172" t="n">
         <v>8</v>
@@ -14660,7 +14660,7 @@
         </is>
       </c>
       <c r="X173" t="n">
-        <v>0.001904200000012679</v>
+        <v>0.002091199999995297</v>
       </c>
       <c r="Y173" t="n">
         <v>8</v>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="X174" t="n">
-        <v>0.002502600000013899</v>
+        <v>0.002295699999990575</v>
       </c>
       <c r="Y174" t="n">
         <v>9</v>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="X175" t="n">
-        <v>0.00365220000003319</v>
+        <v>0.002965799999969931</v>
       </c>
       <c r="Y175" t="n">
         <v>12</v>
@@ -14906,7 +14906,7 @@
         </is>
       </c>
       <c r="X176" t="n">
-        <v>0.002382499999953325</v>
+        <v>0.002231899999969755</v>
       </c>
       <c r="Y176" t="n">
         <v>9</v>
@@ -14988,7 +14988,7 @@
         </is>
       </c>
       <c r="X177" t="n">
-        <v>0.002856900000040241</v>
+        <v>0.004324199999985012</v>
       </c>
       <c r="Y177" t="n">
         <v>11</v>
@@ -15070,7 +15070,7 @@
         </is>
       </c>
       <c r="X178" t="n">
-        <v>0.002095700000040779</v>
+        <v>0.002254600000014761</v>
       </c>
       <c r="Y178" t="n">
         <v>9</v>
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="X179" t="n">
-        <v>0.002617900000018381</v>
+        <v>0.002862600000014481</v>
       </c>
       <c r="Y179" t="n">
         <v>11</v>
@@ -15234,7 +15234,7 @@
         </is>
       </c>
       <c r="X180" t="n">
-        <v>0.001868800000011106</v>
+        <v>0.001884600000039427</v>
       </c>
       <c r="Y180" t="n">
         <v>8</v>
@@ -15316,7 +15316,7 @@
         </is>
       </c>
       <c r="X181" t="n">
-        <v>0.002831200000002809</v>
+        <v>0.002922800000021653</v>
       </c>
       <c r="Y181" t="n">
         <v>12</v>
@@ -15398,7 +15398,7 @@
         </is>
       </c>
       <c r="X182" t="n">
-        <v>0.002493499999957294</v>
+        <v>0.002727300000003652</v>
       </c>
       <c r="Y182" t="n">
         <v>7</v>
@@ -15480,7 +15480,7 @@
         </is>
       </c>
       <c r="X183" t="n">
-        <v>0.001842199999998684</v>
+        <v>0.001711100000022725</v>
       </c>
       <c r="Y183" t="n">
         <v>7</v>
@@ -15562,7 +15562,7 @@
         </is>
       </c>
       <c r="X184" t="n">
-        <v>0.002290700000003199</v>
+        <v>0.002893700000015542</v>
       </c>
       <c r="Y184" t="n">
         <v>8</v>
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="X185" t="n">
-        <v>0.00265719999998737</v>
+        <v>0.002623799999980747</v>
       </c>
       <c r="Y185" t="n">
         <v>11</v>
@@ -15726,7 +15726,7 @@
         </is>
       </c>
       <c r="X186" t="n">
-        <v>0.003144599999984621</v>
+        <v>0.003573800000026495</v>
       </c>
       <c r="Y186" t="n">
         <v>13</v>
@@ -15808,7 +15808,7 @@
         </is>
       </c>
       <c r="X187" t="n">
-        <v>0.002715200000011464</v>
+        <v>0.002694399999995767</v>
       </c>
       <c r="Y187" t="n">
         <v>11</v>
@@ -15890,7 +15890,7 @@
         </is>
       </c>
       <c r="X188" t="n">
-        <v>0.003274299999986852</v>
+        <v>0.002885100000014518</v>
       </c>
       <c r="Y188" t="n">
         <v>12</v>
@@ -15972,7 +15972,7 @@
         </is>
       </c>
       <c r="X189" t="n">
-        <v>0.00177459999997609</v>
+        <v>0.003030100000046332</v>
       </c>
       <c r="Y189" t="n">
         <v>7</v>
@@ -16054,7 +16054,7 @@
         </is>
       </c>
       <c r="X190" t="n">
-        <v>0.00259160000001657</v>
+        <v>0.002497500000004038</v>
       </c>
       <c r="Y190" t="n">
         <v>11</v>
@@ -16136,7 +16136,7 @@
         </is>
       </c>
       <c r="X191" t="n">
-        <v>0.002763500000014574</v>
+        <v>0.003238100000032773</v>
       </c>
       <c r="Y191" t="n">
         <v>12</v>
@@ -16218,7 +16218,7 @@
         </is>
       </c>
       <c r="X192" t="n">
-        <v>0.003134299999999257</v>
+        <v>0.003165700000010929</v>
       </c>
       <c r="Y192" t="n">
         <v>13</v>
@@ -16300,7 +16300,7 @@
         </is>
       </c>
       <c r="X193" t="n">
-        <v>0.002332099999989623</v>
+        <v>0.001945199999966007</v>
       </c>
       <c r="Y193" t="n">
         <v>8</v>
@@ -16382,7 +16382,7 @@
         </is>
       </c>
       <c r="X194" t="n">
-        <v>0.00268060000001924</v>
+        <v>0.003555699999992612</v>
       </c>
       <c r="Y194" t="n">
         <v>11</v>
@@ -16464,7 +16464,7 @@
         </is>
       </c>
       <c r="X195" t="n">
-        <v>0.002650399999993169</v>
+        <v>0.002749199999982466</v>
       </c>
       <c r="Y195" t="n">
         <v>11</v>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="X196" t="n">
-        <v>0.002780500000028496</v>
+        <v>0.002946199999996679</v>
       </c>
       <c r="Y196" t="n">
         <v>12</v>
@@ -16628,7 +16628,7 @@
         </is>
       </c>
       <c r="X197" t="n">
-        <v>0.001971000000025924</v>
+        <v>0.001893800000004831</v>
       </c>
       <c r="Y197" t="n">
         <v>8</v>
@@ -16710,7 +16710,7 @@
         </is>
       </c>
       <c r="X198" t="n">
-        <v>0.00199720000000525</v>
+        <v>0.001991999999972904</v>
       </c>
       <c r="Y198" t="n">
         <v>8</v>
@@ -16792,7 +16792,7 @@
         </is>
       </c>
       <c r="X199" t="n">
-        <v>0.003051900000002661</v>
+        <v>0.002952300000004016</v>
       </c>
       <c r="Y199" t="n">
         <v>13</v>
@@ -16874,7 +16874,7 @@
         </is>
       </c>
       <c r="X200" t="n">
-        <v>0.002113699999995333</v>
+        <v>0.002129799999977422</v>
       </c>
       <c r="Y200" t="n">
         <v>8</v>
@@ -16956,7 +16956,7 @@
         </is>
       </c>
       <c r="X201" t="n">
-        <v>0.001686800000015864</v>
+        <v>0.002759800000035284</v>
       </c>
       <c r="Y201" t="n">
         <v>7</v>
@@ -17038,7 +17038,7 @@
         </is>
       </c>
       <c r="X202" t="n">
-        <v>0.002826099999992948</v>
+        <v>0.002661799999998493</v>
       </c>
       <c r="Y202" t="n">
         <v>11</v>
@@ -17120,7 +17120,7 @@
         </is>
       </c>
       <c r="X203" t="n">
-        <v>0.002828200000010384</v>
+        <v>0.002906099999961498</v>
       </c>
       <c r="Y203" t="n">
         <v>12</v>
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="X204" t="n">
-        <v>0.003502500000024611</v>
+        <v>0.002713200000016514</v>
       </c>
       <c r="Y204" t="n">
         <v>12</v>
@@ -17284,7 +17284,7 @@
         </is>
       </c>
       <c r="X205" t="n">
-        <v>0.002507799999989402</v>
+        <v>0.002451199999995879</v>
       </c>
       <c r="Y205" t="n">
         <v>10</v>
@@ -17366,7 +17366,7 @@
         </is>
       </c>
       <c r="X206" t="n">
-        <v>0.003018900000029134</v>
+        <v>0.004001099999982216</v>
       </c>
       <c r="Y206" t="n">
         <v>12</v>
@@ -17448,7 +17448,7 @@
         </is>
       </c>
       <c r="X207" t="n">
-        <v>0.002969199999995453</v>
+        <v>0.003172000000006392</v>
       </c>
       <c r="Y207" t="n">
         <v>13</v>
@@ -17530,7 +17530,7 @@
         </is>
       </c>
       <c r="X208" t="n">
-        <v>0.002181399999983569</v>
+        <v>0.002078699999970013</v>
       </c>
       <c r="Y208" t="n">
         <v>8</v>
@@ -17612,7 +17612,7 @@
         </is>
       </c>
       <c r="X209" t="n">
-        <v>0.002532299999984389</v>
+        <v>0.002493399999991652</v>
       </c>
       <c r="Y209" t="n">
         <v>11</v>
@@ -17694,7 +17694,7 @@
         </is>
       </c>
       <c r="X210" t="n">
-        <v>0.002264599999989514</v>
+        <v>0.002247600000032435</v>
       </c>
       <c r="Y210" t="n">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="X211" t="n">
-        <v>0.002757200000019111</v>
+        <v>0.004006300000014562</v>
       </c>
       <c r="Y211" t="n">
         <v>12</v>
@@ -17858,7 +17858,7 @@
         </is>
       </c>
       <c r="X212" t="n">
-        <v>0.002843399999960639</v>
+        <v>0.002832900000043992</v>
       </c>
       <c r="Y212" t="n">
         <v>12</v>
@@ -17940,7 +17940,7 @@
         </is>
       </c>
       <c r="X213" t="n">
-        <v>0.003378199999986009</v>
+        <v>0.003673300000002655</v>
       </c>
       <c r="Y213" t="n">
         <v>14</v>
@@ -18022,7 +18022,7 @@
         </is>
       </c>
       <c r="X214" t="n">
-        <v>0.002014000000031047</v>
+        <v>0.001848499999994146</v>
       </c>
       <c r="Y214" t="n">
         <v>8</v>
@@ -18104,7 +18104,7 @@
         </is>
       </c>
       <c r="X215" t="n">
-        <v>0.002452399999981481</v>
+        <v>0.002207300000009127</v>
       </c>
       <c r="Y215" t="n">
         <v>9</v>
@@ -18186,7 +18186,7 @@
         </is>
       </c>
       <c r="X216" t="n">
-        <v>0.002733900000009726</v>
+        <v>0.004447400000003654</v>
       </c>
       <c r="Y216" t="n">
         <v>12</v>
@@ -18268,7 +18268,7 @@
         </is>
       </c>
       <c r="X217" t="n">
-        <v>0.002520600000025297</v>
+        <v>0.002397599999994782</v>
       </c>
       <c r="Y217" t="n">
         <v>10</v>
@@ -18350,7 +18350,7 @@
         </is>
       </c>
       <c r="X218" t="n">
-        <v>0.002921800000024177</v>
+        <v>0.00286230000000387</v>
       </c>
       <c r="Y218" t="n">
         <v>12</v>
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="X219" t="n">
-        <v>0.002262300000040796</v>
+        <v>0.002147899999954461</v>
       </c>
       <c r="Y219" t="n">
         <v>9</v>
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="X220" t="n">
-        <v>0.002336300000024494</v>
+        <v>0.002141800000003968</v>
       </c>
       <c r="Y220" t="n">
         <v>9</v>
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="X221" t="n">
-        <v>0.002006700000038109</v>
+        <v>0.003024100000004637</v>
       </c>
       <c r="Y221" t="n">
         <v>8</v>
@@ -18678,7 +18678,7 @@
         </is>
       </c>
       <c r="X222" t="n">
-        <v>0.003181799999993018</v>
+        <v>0.002791800000011335</v>
       </c>
       <c r="Y222" t="n">
         <v>12</v>
@@ -18760,7 +18760,7 @@
         </is>
       </c>
       <c r="X223" t="n">
-        <v>0.002005300000007537</v>
+        <v>0.002163800000005267</v>
       </c>
       <c r="Y223" t="n">
         <v>8</v>
@@ -18842,7 +18842,7 @@
         </is>
       </c>
       <c r="X224" t="n">
-        <v>0.003604300000006333</v>
+        <v>0.003129800000010619</v>
       </c>
       <c r="Y224" t="n">
         <v>13</v>
@@ -18924,7 +18924,7 @@
         </is>
       </c>
       <c r="X225" t="n">
-        <v>0.003204299999993054</v>
+        <v>0.003232200000013563</v>
       </c>
       <c r="Y225" t="n">
         <v>13</v>
@@ -19006,7 +19006,7 @@
         </is>
       </c>
       <c r="X226" t="n">
-        <v>0.002365800000006857</v>
+        <v>0.002638100000012855</v>
       </c>
       <c r="Y226" t="n">
         <v>9</v>
@@ -19088,7 +19088,7 @@
         </is>
       </c>
       <c r="X227" t="n">
-        <v>0.002325199999972938</v>
+        <v>0.002469899999994141</v>
       </c>
       <c r="Y227" t="n">
         <v>10</v>
@@ -19170,7 +19170,7 @@
         </is>
       </c>
       <c r="X228" t="n">
-        <v>0.002900800000020354</v>
+        <v>0.00288940000001503</v>
       </c>
       <c r="Y228" t="n">
         <v>12</v>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="X229" t="n">
-        <v>0.002989599999978054</v>
+        <v>0.004459300000007715</v>
       </c>
       <c r="Y229" t="n">
         <v>13</v>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="X230" t="n">
-        <v>0.003264100000023973</v>
+        <v>0.003078000000016345</v>
       </c>
       <c r="Y230" t="n">
         <v>13</v>
@@ -19416,7 +19416,7 @@
         </is>
       </c>
       <c r="X231" t="n">
-        <v>0.003118700000015906</v>
+        <v>0.002986499999963144</v>
       </c>
       <c r="Y231" t="n">
         <v>12</v>
@@ -19498,7 +19498,7 @@
         </is>
       </c>
       <c r="X232" t="n">
-        <v>0.002449200000000928</v>
+        <v>0.002062599999987924</v>
       </c>
       <c r="Y232" t="n">
         <v>9</v>
@@ -19580,7 +19580,7 @@
         </is>
       </c>
       <c r="X233" t="n">
-        <v>0.002903800000012779</v>
+        <v>0.002828700000009121</v>
       </c>
       <c r="Y233" t="n">
         <v>12</v>
@@ -19662,7 +19662,7 @@
         </is>
       </c>
       <c r="X234" t="n">
-        <v>0.002236300000049596</v>
+        <v>0.003445600000020477</v>
       </c>
       <c r="Y234" t="n">
         <v>9</v>
@@ -19744,7 +19744,7 @@
         </is>
       </c>
       <c r="X235" t="n">
-        <v>0.002473899999984042</v>
+        <v>0.002358299999968949</v>
       </c>
       <c r="Y235" t="n">
         <v>10</v>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="X236" t="n">
-        <v>0.003227199999969343</v>
+        <v>0.003217400000039561</v>
       </c>
       <c r="Y236" t="n">
         <v>12</v>
@@ -19908,7 +19908,7 @@
         </is>
       </c>
       <c r="X237" t="n">
-        <v>0.002062200000011671</v>
+        <v>0.00210540000000492</v>
       </c>
       <c r="Y237" t="n">
         <v>9</v>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="X238" t="n">
-        <v>0.002329400000007809</v>
+        <v>0.002245799999968767</v>
       </c>
       <c r="Y238" t="n">
         <v>9</v>
@@ -20072,7 +20072,7 @@
         </is>
       </c>
       <c r="X239" t="n">
-        <v>0.001837000000023181</v>
+        <v>0.001935100000025614</v>
       </c>
       <c r="Y239" t="n">
         <v>8</v>
@@ -20154,7 +20154,7 @@
         </is>
       </c>
       <c r="X240" t="n">
-        <v>0.002469899999994141</v>
+        <v>0.002727800000002389</v>
       </c>
       <c r="Y240" t="n">
         <v>11</v>
@@ -20236,7 +20236,7 @@
         </is>
       </c>
       <c r="X241" t="n">
-        <v>0.002100499999983185</v>
+        <v>0.003033399999992525</v>
       </c>
       <c r="Y241" t="n">
         <v>9</v>
@@ -20318,7 +20318,7 @@
         </is>
       </c>
       <c r="X242" t="n">
-        <v>0.003165200000012192</v>
+        <v>0.003295500000035645</v>
       </c>
       <c r="Y242" t="n">
         <v>13</v>
@@ -20400,7 +20400,7 @@
         </is>
       </c>
       <c r="X243" t="n">
-        <v>0.00226020000002336</v>
+        <v>0.002445600000044124</v>
       </c>
       <c r="Y243" t="n">
         <v>10</v>
@@ -20482,7 +20482,7 @@
         </is>
       </c>
       <c r="X244" t="n">
-        <v>0.001806900000019596</v>
+        <v>0.001867799999956787</v>
       </c>
       <c r="Y244" t="n">
         <v>8</v>
@@ -20564,7 +20564,7 @@
         </is>
       </c>
       <c r="X245" t="n">
-        <v>0.002785600000038357</v>
+        <v>0.0030112000000031</v>
       </c>
       <c r="Y245" t="n">
         <v>12</v>
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="X246" t="n">
-        <v>0.001819800000021132</v>
+        <v>0.001865300000019943</v>
       </c>
       <c r="Y246" t="n">
         <v>8</v>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="X247" t="n">
-        <v>0.002013099999999213</v>
+        <v>0.002057400000012422</v>
       </c>
       <c r="Y247" t="n">
         <v>8</v>
@@ -20810,7 +20810,7 @@
         </is>
       </c>
       <c r="X248" t="n">
-        <v>0.002346900000020469</v>
+        <v>0.002884900000026391</v>
       </c>
       <c r="Y248" t="n">
         <v>10</v>
@@ -20892,7 +20892,7 @@
         </is>
       </c>
       <c r="X249" t="n">
-        <v>0.002331299999980274</v>
+        <v>0.002781799999979739</v>
       </c>
       <c r="Y249" t="n">
         <v>10</v>
@@ -20974,7 +20974,7 @@
         </is>
       </c>
       <c r="X250" t="n">
-        <v>0.001859599999988859</v>
+        <v>0.002060599999992974</v>
       </c>
       <c r="Y250" t="n">
         <v>8</v>
@@ -21056,7 +21056,7 @@
         </is>
       </c>
       <c r="X251" t="n">
-        <v>0.002948900000035337</v>
+        <v>0.002996499999994739</v>
       </c>
       <c r="Y251" t="n">
         <v>13</v>
@@ -21138,7 +21138,7 @@
         </is>
       </c>
       <c r="X252" t="n">
-        <v>0.0022167000000195</v>
+        <v>0.002455300000008265</v>
       </c>
       <c r="Y252" t="n">
         <v>10</v>
@@ -21220,7 +21220,7 @@
         </is>
       </c>
       <c r="X253" t="n">
-        <v>0.001891700000044239</v>
+        <v>0.002184300000010353</v>
       </c>
       <c r="Y253" t="n">
         <v>8</v>
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="X254" t="n">
-        <v>0.002475800000013351</v>
+        <v>0.002365599999961887</v>
       </c>
       <c r="Y254" t="n">
         <v>10</v>
@@ -21384,7 +21384,7 @@
         </is>
       </c>
       <c r="X255" t="n">
-        <v>0.002722900000037498</v>
+        <v>0.003983199999993303</v>
       </c>
       <c r="Y255" t="n">
         <v>12</v>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="X256" t="n">
-        <v>0.00261960000000272</v>
+        <v>0.002320599999961814</v>
       </c>
       <c r="Y256" t="n">
         <v>10</v>
@@ -21548,7 +21548,7 @@
         </is>
       </c>
       <c r="X257" t="n">
-        <v>0.002118800000005194</v>
+        <v>0.002265599999986989</v>
       </c>
       <c r="Y257" t="n">
         <v>9</v>
@@ -21630,7 +21630,7 @@
         </is>
       </c>
       <c r="X258" t="n">
-        <v>0.00258769999999231</v>
+        <v>0.002352599999994709</v>
       </c>
       <c r="Y258" t="n">
         <v>10</v>
@@ -21712,7 +21712,7 @@
         </is>
       </c>
       <c r="X259" t="n">
-        <v>0.002944700000000466</v>
+        <v>0.002858699999990222</v>
       </c>
       <c r="Y259" t="n">
         <v>12</v>
@@ -21794,7 +21794,7 @@
         </is>
       </c>
       <c r="X260" t="n">
-        <v>0.002606600000035542</v>
+        <v>0.003203500000040549</v>
       </c>
       <c r="Y260" t="n">
         <v>11</v>
@@ -21876,7 +21876,7 @@
         </is>
       </c>
       <c r="X261" t="n">
-        <v>0.001833400000009533</v>
+        <v>0.001923400000009678</v>
       </c>
       <c r="Y261" t="n">
         <v>8</v>
@@ -21958,7 +21958,7 @@
         </is>
       </c>
       <c r="X262" t="n">
-        <v>0.002078600000004371</v>
+        <v>0.003409999999973934</v>
       </c>
       <c r="Y262" t="n">
         <v>8</v>
@@ -22040,7 +22040,7 @@
         </is>
       </c>
       <c r="X263" t="n">
-        <v>0.002962400000001253</v>
+        <v>0.003358399999967787</v>
       </c>
       <c r="Y263" t="n">
         <v>13</v>
@@ -22122,7 +22122,7 @@
         </is>
       </c>
       <c r="X264" t="n">
-        <v>0.002945300000021689</v>
+        <v>0.002844600000003084</v>
       </c>
       <c r="Y264" t="n">
         <v>12</v>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="X265" t="n">
-        <v>0.002897200000006706</v>
+        <v>0.002688900000009653</v>
       </c>
       <c r="Y265" t="n">
         <v>12</v>
@@ -22286,7 +22286,7 @@
         </is>
       </c>
       <c r="X266" t="n">
-        <v>0.002636900000027254</v>
+        <v>0.002671500000019478</v>
       </c>
       <c r="Y266" t="n">
         <v>11</v>
@@ -22368,7 +22368,7 @@
         </is>
       </c>
       <c r="X267" t="n">
-        <v>0.001965199999972356</v>
+        <v>0.003883400000006532</v>
       </c>
       <c r="Y267" t="n">
         <v>8</v>
@@ -22450,7 +22450,7 @@
         </is>
       </c>
       <c r="X268" t="n">
-        <v>0.002172699999960059</v>
+        <v>0.001966799999991053</v>
       </c>
       <c r="Y268" t="n">
         <v>8</v>
@@ -22532,7 +22532,7 @@
         </is>
       </c>
       <c r="X269" t="n">
-        <v>0.003140000000030341</v>
+        <v>0.003066799999999148</v>
       </c>
       <c r="Y269" t="n">
         <v>13</v>
@@ -22614,7 +22614,7 @@
         </is>
       </c>
       <c r="X270" t="n">
-        <v>0.003448800000001029</v>
+        <v>0.003230799999982992</v>
       </c>
       <c r="Y270" t="n">
         <v>14</v>
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="X271" t="n">
-        <v>0.002294800000015584</v>
+        <v>0.001921100000004117</v>
       </c>
       <c r="Y271" t="n">
         <v>8</v>
@@ -22778,7 +22778,7 @@
         </is>
       </c>
       <c r="X272" t="n">
-        <v>0.002069100000028357</v>
+        <v>0.003144700000007106</v>
       </c>
       <c r="Y272" t="n">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="X273" t="n">
-        <v>0.002099199999975099</v>
+        <v>0.002015200000016648</v>
       </c>
       <c r="Y273" t="n">
         <v>8</v>
@@ -22942,7 +22942,7 @@
         </is>
       </c>
       <c r="X274" t="n">
-        <v>0.002992799999958606</v>
+        <v>0.003452600000002803</v>
       </c>
       <c r="Y274" t="n">
         <v>12</v>
@@ -23024,7 +23024,7 @@
         </is>
       </c>
       <c r="X275" t="n">
-        <v>0.002406199999995806</v>
+        <v>0.001915399999973033</v>
       </c>
       <c r="Y275" t="n">
         <v>8</v>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="X276" t="n">
-        <v>0.002342900000030568</v>
+        <v>0.002432200000043849</v>
       </c>
       <c r="Y276" t="n">
         <v>10</v>
@@ -23188,7 +23188,7 @@
         </is>
       </c>
       <c r="X277" t="n">
-        <v>0.003782399999977315</v>
+        <v>0.004080999999985124</v>
       </c>
       <c r="Y277" t="n">
         <v>14</v>
@@ -23270,7 +23270,7 @@
         </is>
       </c>
       <c r="X278" t="n">
-        <v>0.001830900000015845</v>
+        <v>0.001884000000018204</v>
       </c>
       <c r="Y278" t="n">
         <v>8</v>
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="X279" t="n">
-        <v>0.002207400000031612</v>
+        <v>0.002137500000003456</v>
       </c>
       <c r="Y279" t="n">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         </is>
       </c>
       <c r="X280" t="n">
-        <v>0.002245500000014999</v>
+        <v>0.003149599999971997</v>
       </c>
       <c r="Y280" t="n">
         <v>10</v>
@@ -23516,7 +23516,7 @@
         </is>
       </c>
       <c r="X281" t="n">
-        <v>0.00359800000001087</v>
+        <v>0.003057599999976901</v>
       </c>
       <c r="Y281" t="n">
         <v>13</v>
@@ -23598,7 +23598,7 @@
         </is>
       </c>
       <c r="X282" t="n">
-        <v>0.002233399999965968</v>
+        <v>0.002514700000006087</v>
       </c>
       <c r="Y282" t="n">
         <v>10</v>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="X283" t="n">
-        <v>0.002091299999960938</v>
+        <v>0.001906799999972009</v>
       </c>
       <c r="Y283" t="n">
         <v>8</v>
@@ -23762,7 +23762,7 @@
         </is>
       </c>
       <c r="X284" t="n">
-        <v>0.002037499999971715</v>
+        <v>0.002196599999990667</v>
       </c>
       <c r="Y284" t="n">
         <v>9</v>
@@ -23844,7 +23844,7 @@
         </is>
       </c>
       <c r="X285" t="n">
-        <v>0.003160600000001068</v>
+        <v>0.002752700000030472</v>
       </c>
       <c r="Y285" t="n">
         <v>12</v>
@@ -23926,7 +23926,7 @@
         </is>
       </c>
       <c r="X286" t="n">
-        <v>0.001836000000025706</v>
+        <v>0.002028800000005049</v>
       </c>
       <c r="Y286" t="n">
         <v>8</v>
@@ -24008,7 +24008,7 @@
         </is>
       </c>
       <c r="X287" t="n">
-        <v>0.002358700000002045</v>
+        <v>0.002799600000003011</v>
       </c>
       <c r="Y287" t="n">
         <v>8</v>
@@ -24090,7 +24090,7 @@
         </is>
       </c>
       <c r="X288" t="n">
-        <v>0.00229580000001306</v>
+        <v>0.002411999999992531</v>
       </c>
       <c r="Y288" t="n">
         <v>10</v>
@@ -24172,7 +24172,7 @@
         </is>
       </c>
       <c r="X289" t="n">
-        <v>0.003403100000014092</v>
+        <v>0.003276300000038646</v>
       </c>
       <c r="Y289" t="n">
         <v>13</v>
@@ -24254,7 +24254,7 @@
         </is>
       </c>
       <c r="X290" t="n">
-        <v>0.00288460000001578</v>
+        <v>0.003026299999987714</v>
       </c>
       <c r="Y290" t="n">
         <v>13</v>
@@ -24336,7 +24336,7 @@
         </is>
       </c>
       <c r="X291" t="n">
-        <v>0.00241390000002184</v>
+        <v>0.002539500000011685</v>
       </c>
       <c r="Y291" t="n">
         <v>10</v>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="X292" t="n">
-        <v>0.002658800000006067</v>
+        <v>0.00331770000002507</v>
       </c>
       <c r="Y292" t="n">
         <v>11</v>
@@ -24500,7 +24500,7 @@
         </is>
       </c>
       <c r="X293" t="n">
-        <v>0.003107700000043678</v>
+        <v>0.002930900000023939</v>
       </c>
       <c r="Y293" t="n">
         <v>13</v>
@@ -24582,7 +24582,7 @@
         </is>
       </c>
       <c r="X294" t="n">
-        <v>0.002855300000021543</v>
+        <v>0.002914799999985007</v>
       </c>
       <c r="Y294" t="n">
         <v>12</v>
@@ -24664,7 +24664,7 @@
         </is>
       </c>
       <c r="X295" t="n">
-        <v>0.002861699999982648</v>
+        <v>0.004333499999972901</v>
       </c>
       <c r="Y295" t="n">
         <v>12</v>
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="X296" t="n">
-        <v>0.002375999999969736</v>
+        <v>0.002166999999985819</v>
       </c>
       <c r="Y296" t="n">
         <v>9</v>
@@ -24828,7 +24828,7 @@
         </is>
       </c>
       <c r="X297" t="n">
-        <v>0.002856999999949039</v>
+        <v>0.00298889999999119</v>
       </c>
       <c r="Y297" t="n">
         <v>12</v>
@@ -24910,7 +24910,7 @@
         </is>
       </c>
       <c r="X298" t="n">
-        <v>0.003382399999964036</v>
+        <v>0.002922299999966071</v>
       </c>
       <c r="Y298" t="n">
         <v>13</v>
@@ -24992,7 +24992,7 @@
         </is>
       </c>
       <c r="X299" t="n">
-        <v>0.002071800000010171</v>
+        <v>0.001921100000004117</v>
       </c>
       <c r="Y299" t="n">
         <v>8</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="X300" t="n">
-        <v>0.003071400000010271</v>
+        <v>0.004321500000003198</v>
       </c>
       <c r="Y300" t="n">
         <v>13</v>
@@ -25156,7 +25156,7 @@
         </is>
       </c>
       <c r="X301" t="n">
-        <v>0.002831700000001547</v>
+        <v>0.002712599999995291</v>
       </c>
       <c r="Y301" t="n">
         <v>12</v>
@@ -25238,7 +25238,7 @@
         </is>
       </c>
       <c r="X302" t="n">
-        <v>0.002302999999983513</v>
+        <v>0.002500300000008338</v>
       </c>
       <c r="Y302" t="n">
         <v>10</v>
@@ -25320,7 +25320,7 @@
         </is>
       </c>
       <c r="X303" t="n">
-        <v>0.002903100000025916</v>
+        <v>0.002949899999975969</v>
       </c>
       <c r="Y303" t="n">
         <v>13</v>
@@ -25402,7 +25402,7 @@
         </is>
       </c>
       <c r="X304" t="n">
-        <v>0.001949099999990267</v>
+        <v>0.001980899999978192</v>
       </c>
       <c r="Y304" t="n">
         <v>8</v>
@@ -25484,7 +25484,7 @@
         </is>
       </c>
       <c r="X305" t="n">
-        <v>0.002610300000014831</v>
+        <v>0.004305100000010498</v>
       </c>
       <c r="Y305" t="n">
         <v>11</v>
@@ -25566,7 +25566,7 @@
         </is>
       </c>
       <c r="X306" t="n">
-        <v>0.003155300000003081</v>
+        <v>0.002952699999980268</v>
       </c>
       <c r="Y306" t="n">
         <v>13</v>
@@ -25648,7 +25648,7 @@
         </is>
       </c>
       <c r="X307" t="n">
-        <v>0.002453400000035799</v>
+        <v>0.002517799999964154</v>
       </c>
       <c r="Y307" t="n">
         <v>10</v>
@@ -25730,7 +25730,7 @@
         </is>
       </c>
       <c r="X308" t="n">
-        <v>0.001977300000021387</v>
+        <v>0.00186949999999797</v>
       </c>
       <c r="Y308" t="n">
         <v>8</v>
@@ -25812,7 +25812,7 @@
         </is>
       </c>
       <c r="X309" t="n">
-        <v>0.002620000000035816</v>
+        <v>0.002635600000019167</v>
       </c>
       <c r="Y309" t="n">
         <v>11</v>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="X310" t="n">
-        <v>0.002234100000009676</v>
+        <v>0.002126400000008744</v>
       </c>
       <c r="Y310" t="n">
         <v>9</v>
@@ -25976,7 +25976,7 @@
         </is>
       </c>
       <c r="X311" t="n">
-        <v>0.002892699999961224</v>
+        <v>0.002799899999956779</v>
       </c>
       <c r="Y311" t="n">
         <v>12</v>
@@ -26058,7 +26058,7 @@
         </is>
       </c>
       <c r="X312" t="n">
-        <v>0.003247200000032535</v>
+        <v>0.003402100000016617</v>
       </c>
       <c r="Y312" t="n">
         <v>14</v>
@@ -26140,7 +26140,7 @@
         </is>
       </c>
       <c r="X313" t="n">
-        <v>0.003073700000015833</v>
+        <v>0.002702700000043023</v>
       </c>
       <c r="Y313" t="n">
         <v>12</v>
@@ -26222,7 +26222,7 @@
         </is>
       </c>
       <c r="X314" t="n">
-        <v>0.002594500000043354</v>
+        <v>0.002591999999992822</v>
       </c>
       <c r="Y314" t="n">
         <v>11</v>
@@ -26304,7 +26304,7 @@
         </is>
       </c>
       <c r="X315" t="n">
-        <v>0.003219500000000153</v>
+        <v>0.004795999999998912</v>
       </c>
       <c r="Y315" t="n">
         <v>13</v>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="X316" t="n">
-        <v>0.002718399999992016</v>
+        <v>0.002676199999996243</v>
       </c>
       <c r="Y316" t="n">
         <v>11</v>
@@ -26468,7 +26468,7 @@
         </is>
       </c>
       <c r="X317" t="n">
-        <v>0.002000500000008287</v>
+        <v>0.002137500000003456</v>
       </c>
       <c r="Y317" t="n">
         <v>8</v>
@@ -26550,7 +26550,7 @@
         </is>
       </c>
       <c r="X318" t="n">
-        <v>0.002821799999992436</v>
+        <v>0.002770100000020648</v>
       </c>
       <c r="Y318" t="n">
         <v>12</v>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="X319" t="n">
-        <v>0.003424100000017916</v>
+        <v>0.003451499999982843</v>
       </c>
       <c r="Y319" t="n">
         <v>14</v>
@@ -26714,7 +26714,7 @@
         </is>
       </c>
       <c r="X320" t="n">
-        <v>0.003014399999983652</v>
+        <v>0.004205099999978756</v>
       </c>
       <c r="Y320" t="n">
         <v>10</v>
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="X321" t="n">
-        <v>0.001994599999989077</v>
+        <v>0.001899600000001556</v>
       </c>
       <c r="Y321" t="n">
         <v>8</v>
@@ -26878,7 +26878,7 @@
         </is>
       </c>
       <c r="X322" t="n">
-        <v>0.003313199999979588</v>
+        <v>0.003091499999982261</v>
       </c>
       <c r="Y322" t="n">
         <v>12</v>
@@ -26960,7 +26960,7 @@
         </is>
       </c>
       <c r="X323" t="n">
-        <v>0.001915699999983644</v>
+        <v>0.001871300000004794</v>
       </c>
       <c r="Y323" t="n">
         <v>8</v>
@@ -27042,7 +27042,7 @@
         </is>
       </c>
       <c r="X324" t="n">
-        <v>0.002595500000040829</v>
+        <v>0.002179399999988618</v>
       </c>
       <c r="Y324" t="n">
         <v>9</v>
@@ -27124,7 +27124,7 @@
         </is>
       </c>
       <c r="X325" t="n">
-        <v>0.002096399999970799</v>
+        <v>0.002197899999998754</v>
       </c>
       <c r="Y325" t="n">
         <v>9</v>
@@ -27206,7 +27206,7 @@
         </is>
       </c>
       <c r="X326" t="n">
-        <v>0.00237299999997731</v>
+        <v>0.002248199999996814</v>
       </c>
       <c r="Y326" t="n">
         <v>9</v>
@@ -27288,7 +27288,7 @@
         </is>
       </c>
       <c r="X327" t="n">
-        <v>0.002011799999991126</v>
+        <v>0.002820900000017446</v>
       </c>
       <c r="Y327" t="n">
         <v>8</v>
@@ -27370,7 +27370,7 @@
         </is>
       </c>
       <c r="X328" t="n">
-        <v>0.002945799999963583</v>
+        <v>0.002380599999980859</v>
       </c>
       <c r="Y328" t="n">
         <v>10</v>
@@ -27452,7 +27452,7 @@
         </is>
       </c>
       <c r="X329" t="n">
-        <v>0.002271000000007461</v>
+        <v>0.002489699999955519</v>
       </c>
       <c r="Y329" t="n">
         <v>10</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="X330" t="n">
-        <v>0.002242400000000089</v>
+        <v>0.002151200000014342</v>
       </c>
       <c r="Y330" t="n">
         <v>9</v>
@@ -27616,7 +27616,7 @@
         </is>
       </c>
       <c r="X331" t="n">
-        <v>0.001632200000017292</v>
+        <v>0.001714600000013888</v>
       </c>
       <c r="Y331" t="n">
         <v>7</v>
@@ -27698,7 +27698,7 @@
         </is>
       </c>
       <c r="X332" t="n">
-        <v>0.003049499999974614</v>
+        <v>0.003987900000026912</v>
       </c>
       <c r="Y332" t="n">
         <v>11</v>
@@ -27780,7 +27780,7 @@
         </is>
       </c>
       <c r="X333" t="n">
-        <v>0.002136100000029728</v>
+        <v>0.002243200000009438</v>
       </c>
       <c r="Y333" t="n">
         <v>9</v>
@@ -27862,7 +27862,7 @@
         </is>
       </c>
       <c r="X334" t="n">
-        <v>0.002667499999972733</v>
+        <v>0.002765000000010787</v>
       </c>
       <c r="Y334" t="n">
         <v>10</v>
@@ -27944,7 +27944,7 @@
         </is>
       </c>
       <c r="X335" t="n">
-        <v>0.002188199999977769</v>
+        <v>0.002112799999963499</v>
       </c>
       <c r="Y335" t="n">
         <v>9</v>
@@ -28026,7 +28026,7 @@
         </is>
       </c>
       <c r="X336" t="n">
-        <v>0.002059199999962402</v>
+        <v>0.002034100000003036</v>
       </c>
       <c r="Y336" t="n">
         <v>8</v>
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="X337" t="n">
-        <v>0.001939100000015515</v>
+        <v>0.002015200000016648</v>
       </c>
       <c r="Y337" t="n">
         <v>8</v>
@@ -28190,7 +28190,7 @@
         </is>
       </c>
       <c r="X338" t="n">
-        <v>0.002537000000017997</v>
+        <v>0.002512899999999263</v>
       </c>
       <c r="Y338" t="n">
         <v>10</v>
@@ -28272,7 +28272,7 @@
         </is>
       </c>
       <c r="X339" t="n">
-        <v>0.002111000000013519</v>
+        <v>0.002085399999998572</v>
       </c>
       <c r="Y339" t="n">
         <v>9</v>
@@ -28354,7 +28354,7 @@
         </is>
       </c>
       <c r="X340" t="n">
-        <v>0.003238899999985279</v>
+        <v>0.002806799999973464</v>
       </c>
       <c r="Y340" t="n">
         <v>12</v>
@@ -28436,7 +28436,7 @@
         </is>
       </c>
       <c r="X341" t="n">
-        <v>0.001880099999993945</v>
+        <v>0.002296999999998661</v>
       </c>
       <c r="Y341" t="n">
         <v>8</v>
@@ -28518,7 +28518,7 @@
         </is>
       </c>
       <c r="X342" t="n">
-        <v>0.002226899999982379</v>
+        <v>0.001986799999997402</v>
       </c>
       <c r="Y342" t="n">
         <v>8</v>
@@ -28600,7 +28600,7 @@
         </is>
       </c>
       <c r="X343" t="n">
-        <v>0.002358099999980823</v>
+        <v>0.002642199999968398</v>
       </c>
       <c r="Y343" t="n">
         <v>10</v>
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="X344" t="n">
-        <v>0.00218760000001339</v>
+        <v>0.002094400000032692</v>
       </c>
       <c r="Y344" t="n">
         <v>9</v>
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="X345" t="n">
-        <v>0.003171699999995781</v>
+        <v>0.003081600000029994</v>
       </c>
       <c r="Y345" t="n">
         <v>13</v>
@@ -28846,7 +28846,7 @@
         </is>
       </c>
       <c r="X346" t="n">
-        <v>0.002921900000046662</v>
+        <v>0.003016099999967992</v>
       </c>
       <c r="Y346" t="n">
         <v>10</v>
@@ -28928,7 +28928,7 @@
         </is>
       </c>
       <c r="X347" t="n">
-        <v>0.002692299999978331</v>
+        <v>0.002795300000002499</v>
       </c>
       <c r="Y347" t="n">
         <v>12</v>
@@ -29010,7 +29010,7 @@
         </is>
       </c>
       <c r="X348" t="n">
-        <v>0.002040899999997237</v>
+        <v>0.003588100000001759</v>
       </c>
       <c r="Y348" t="n">
         <v>8</v>
@@ -29092,7 +29092,7 @@
         </is>
       </c>
       <c r="X349" t="n">
-        <v>0.002739300000030198</v>
+        <v>0.002855799999963438</v>
       </c>
       <c r="Y349" t="n">
         <v>12</v>
@@ -29174,7 +29174,7 @@
         </is>
       </c>
       <c r="X350" t="n">
-        <v>0.002865499999984422</v>
+        <v>0.002845400000012432</v>
       </c>
       <c r="Y350" t="n">
         <v>11</v>
@@ -29256,7 +29256,7 @@
         </is>
       </c>
       <c r="X351" t="n">
-        <v>0.001965400000017326</v>
+        <v>0.0018460999999661</v>
       </c>
       <c r="Y351" t="n">
         <v>8</v>
@@ -29338,7 +29338,7 @@
         </is>
       </c>
       <c r="X352" t="n">
-        <v>0.003235399999994115</v>
+        <v>0.003081199999996898</v>
       </c>
       <c r="Y352" t="n">
         <v>13</v>
@@ -29420,7 +29420,7 @@
         </is>
       </c>
       <c r="X353" t="n">
-        <v>0.002060200000016721</v>
+        <v>0.003205399999956171</v>
       </c>
       <c r="Y353" t="n">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         </is>
       </c>
       <c r="X354" t="n">
-        <v>0.00260409999998501</v>
+        <v>0.002561599999978625</v>
       </c>
       <c r="Y354" t="n">
         <v>11</v>
@@ -29584,7 +29584,7 @@
         </is>
       </c>
       <c r="X355" t="n">
-        <v>0.002832699999999022</v>
+        <v>0.002883100000019567</v>
       </c>
       <c r="Y355" t="n">
         <v>12</v>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="X356" t="n">
-        <v>0.003082000000006246</v>
+        <v>0.002956899999958296</v>
       </c>
       <c r="Y356" t="n">
         <v>13</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="X357" t="n">
-        <v>0.002992399999982354</v>
+        <v>0.003080899999986286</v>
       </c>
       <c r="Y357" t="n">
         <v>13</v>
@@ -29830,7 +29830,7 @@
         </is>
       </c>
       <c r="X358" t="n">
-        <v>0.002609599999971124</v>
+        <v>0.003812499999980901</v>
       </c>
       <c r="Y358" t="n">
         <v>11</v>
@@ -29912,7 +29912,7 @@
         </is>
       </c>
       <c r="X359" t="n">
-        <v>0.002738399999998364</v>
+        <v>0.002803999999969164</v>
       </c>
       <c r="Y359" t="n">
         <v>12</v>
@@ -29994,7 +29994,7 @@
         </is>
       </c>
       <c r="X360" t="n">
-        <v>0.002289700000005723</v>
+        <v>0.002411799999947561</v>
       </c>
       <c r="Y360" t="n">
         <v>10</v>
@@ -30076,7 +30076,7 @@
         </is>
       </c>
       <c r="X361" t="n">
-        <v>0.002568399999972826</v>
+        <v>0.002521100000024035</v>
       </c>
       <c r="Y361" t="n">
         <v>11</v>
@@ -30158,7 +30158,7 @@
         </is>
       </c>
       <c r="X362" t="n">
-        <v>0.002149099999996906</v>
+        <v>0.002206100000023525</v>
       </c>
       <c r="Y362" t="n">
         <v>9</v>
@@ -30240,7 +30240,7 @@
         </is>
       </c>
       <c r="X363" t="n">
-        <v>0.003654999999980646</v>
+        <v>0.004360700000006545</v>
       </c>
       <c r="Y363" t="n">
         <v>13</v>
@@ -30322,7 +30322,7 @@
         </is>
       </c>
       <c r="X364" t="n">
-        <v>0.0031355999999505</v>
+        <v>0.003020300000002862</v>
       </c>
       <c r="Y364" t="n">
         <v>13</v>
@@ -30404,7 +30404,7 @@
         </is>
       </c>
       <c r="X365" t="n">
-        <v>0.003300599999988663</v>
+        <v>0.002853899999990972</v>
       </c>
       <c r="Y365" t="n">
         <v>12</v>
@@ -30486,7 +30486,7 @@
         </is>
       </c>
       <c r="X366" t="n">
-        <v>0.001984999999990578</v>
+        <v>0.001825800000005984</v>
       </c>
       <c r="Y366" t="n">
         <v>8</v>
@@ -30568,7 +30568,7 @@
         </is>
       </c>
       <c r="X367" t="n">
-        <v>0.003585600000008071</v>
+        <v>0.003151899999977559</v>
       </c>
       <c r="Y367" t="n">
         <v>13</v>
@@ -30650,7 +30650,7 @@
         </is>
       </c>
       <c r="X368" t="n">
-        <v>0.002887799999996332</v>
+        <v>0.003943999999989956</v>
       </c>
       <c r="Y368" t="n">
         <v>12</v>
@@ -30732,7 +30732,7 @@
         </is>
       </c>
       <c r="X369" t="n">
-        <v>0.001977000000010776</v>
+        <v>0.002018300000031559</v>
       </c>
       <c r="Y369" t="n">
         <v>8</v>
@@ -30814,7 +30814,7 @@
         </is>
       </c>
       <c r="X370" t="n">
-        <v>0.001910399999985657</v>
+        <v>0.002149700000018129</v>
       </c>
       <c r="Y370" t="n">
         <v>8</v>
@@ -30896,7 +30896,7 @@
         </is>
       </c>
       <c r="X371" t="n">
-        <v>0.002600500000028205</v>
+        <v>0.002573499999982687</v>
       </c>
       <c r="Y371" t="n">
         <v>11</v>
@@ -30978,7 +30978,7 @@
         </is>
       </c>
       <c r="X372" t="n">
-        <v>0.002792600000020684</v>
+        <v>0.002897000000018579</v>
       </c>
       <c r="Y372" t="n">
         <v>12</v>
@@ -31060,7 +31060,7 @@
         </is>
       </c>
       <c r="X373" t="n">
-        <v>0.002602000000024418</v>
+        <v>0.003539399999965553</v>
       </c>
       <c r="Y373" t="n">
         <v>11</v>
@@ -31142,7 +31142,7 @@
         </is>
       </c>
       <c r="X374" t="n">
-        <v>0.002082400000006146</v>
+        <v>0.002117699999985234</v>
       </c>
       <c r="Y374" t="n">
         <v>9</v>
@@ -31224,7 +31224,7 @@
         </is>
       </c>
       <c r="X375" t="n">
-        <v>0.003107600000021193</v>
+        <v>0.00514170000002423</v>
       </c>
       <c r="Y375" t="n">
         <v>13</v>
@@ -31306,7 +31306,7 @@
         </is>
       </c>
       <c r="X376" t="n">
-        <v>0.002278799999999137</v>
+        <v>0.002443699999957971</v>
       </c>
       <c r="Y376" t="n">
         <v>10</v>
@@ -31388,7 +31388,7 @@
         </is>
       </c>
       <c r="X377" t="n">
-        <v>0.002472199999999702</v>
+        <v>0.002118899999970836</v>
       </c>
       <c r="Y377" t="n">
         <v>8</v>
@@ -31470,7 +31470,7 @@
         </is>
       </c>
       <c r="X378" t="n">
-        <v>0.003128300000014406</v>
+        <v>0.004141899999979159</v>
       </c>
       <c r="Y378" t="n">
         <v>13</v>
@@ -31552,7 +31552,7 @@
         </is>
       </c>
       <c r="X379" t="n">
-        <v>0.002780299999983527</v>
+        <v>0.002835399999980837</v>
       </c>
       <c r="Y379" t="n">
         <v>12</v>
@@ -31634,7 +31634,7 @@
         </is>
       </c>
       <c r="X380" t="n">
-        <v>0.002153099999986807</v>
+        <v>0.001963999999986754</v>
       </c>
       <c r="Y380" t="n">
         <v>8</v>
@@ -31716,7 +31716,7 @@
         </is>
       </c>
       <c r="X381" t="n">
-        <v>0.002379399999995258</v>
+        <v>0.002499999999997726</v>
       </c>
       <c r="Y381" t="n">
         <v>10</v>
@@ -31798,7 +31798,7 @@
         </is>
       </c>
       <c r="X382" t="n">
-        <v>0.00320840000000544</v>
+        <v>0.003366299999981948</v>
       </c>
       <c r="Y382" t="n">
         <v>13</v>
@@ -31880,7 +31880,7 @@
         </is>
       </c>
       <c r="X383" t="n">
-        <v>0.002485599999999977</v>
+        <v>0.004251399999986916</v>
       </c>
       <c r="Y383" t="n">
         <v>11</v>
@@ -31962,7 +31962,7 @@
         </is>
       </c>
       <c r="X384" t="n">
-        <v>0.002739100000042072</v>
+        <v>0.002413500000045588</v>
       </c>
       <c r="Y384" t="n">
         <v>10</v>
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="X385" t="n">
-        <v>0.002101400000015019</v>
+        <v>0.002238500000032673</v>
       </c>
       <c r="Y385" t="n">
         <v>9</v>
@@ -32126,7 +32126,7 @@
         </is>
       </c>
       <c r="X386" t="n">
-        <v>0.003098800000032043</v>
+        <v>0.002595299999995859</v>
       </c>
       <c r="Y386" t="n">
         <v>11</v>
@@ -32208,7 +32208,7 @@
         </is>
       </c>
       <c r="X387" t="n">
-        <v>0.002116499999999633</v>
+        <v>0.002213900000015201</v>
       </c>
       <c r="Y387" t="n">
         <v>9</v>
@@ -32290,7 +32290,7 @@
         </is>
       </c>
       <c r="X388" t="n">
-        <v>0.003430600000001505</v>
+        <v>0.004705699999988155</v>
       </c>
       <c r="Y388" t="n">
         <v>13</v>
@@ -32372,7 +32372,7 @@
         </is>
       </c>
       <c r="X389" t="n">
-        <v>0.00185679999998456</v>
+        <v>0.001921900000013466</v>
       </c>
       <c r="Y389" t="n">
         <v>8</v>
@@ -32454,7 +32454,7 @@
         </is>
       </c>
       <c r="X390" t="n">
-        <v>0.003406799999993382</v>
+        <v>0.002934100000004491</v>
       </c>
       <c r="Y390" t="n">
         <v>12</v>
@@ -32536,7 +32536,7 @@
         </is>
       </c>
       <c r="X391" t="n">
-        <v>0.002175899999997455</v>
+        <v>0.001985700000034285</v>
       </c>
       <c r="Y391" t="n">
         <v>8</v>
@@ -32618,7 +32618,7 @@
         </is>
       </c>
       <c r="X392" t="n">
-        <v>0.003231200000016088</v>
+        <v>0.003135499999984859</v>
       </c>
       <c r="Y392" t="n">
         <v>13</v>
@@ -32700,7 +32700,7 @@
         </is>
       </c>
       <c r="X393" t="n">
-        <v>0.002162800000007792</v>
+        <v>0.003086699999983011</v>
       </c>
       <c r="Y393" t="n">
         <v>9</v>
@@ -32782,7 +32782,7 @@
         </is>
       </c>
       <c r="X394" t="n">
-        <v>0.002055799999993724</v>
+        <v>0.002045899999984613</v>
       </c>
       <c r="Y394" t="n">
         <v>8</v>
@@ -32864,7 +32864,7 @@
         </is>
       </c>
       <c r="X395" t="n">
-        <v>0.002441700000019864</v>
+        <v>0.002670200000011391</v>
       </c>
       <c r="Y395" t="n">
         <v>10</v>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="X396" t="n">
-        <v>0.002322800000001735</v>
+        <v>0.002220599999986916</v>
       </c>
       <c r="Y396" t="n">
         <v>9</v>
@@ -33028,7 +33028,7 @@
         </is>
       </c>
       <c r="X397" t="n">
-        <v>0.002257600000007187</v>
+        <v>0.002238299999987703</v>
       </c>
       <c r="Y397" t="n">
         <v>9</v>
@@ -33110,7 +33110,7 @@
         </is>
       </c>
       <c r="X398" t="n">
-        <v>0.003049800000042069</v>
+        <v>0.002929399999970883</v>
       </c>
       <c r="Y398" t="n">
         <v>12</v>
@@ -33192,7 +33192,7 @@
         </is>
       </c>
       <c r="X399" t="n">
-        <v>0.002378799999974035</v>
+        <v>0.002281299999992825</v>
       </c>
       <c r="Y399" t="n">
         <v>9</v>
@@ -33274,7 +33274,7 @@
         </is>
       </c>
       <c r="X400" t="n">
-        <v>0.001958899999976893</v>
+        <v>0.002948999999944135</v>
       </c>
       <c r="Y400" t="n">
         <v>8</v>
@@ -33356,7 +33356,7 @@
         </is>
       </c>
       <c r="X401" t="n">
-        <v>0.00239550000003419</v>
+        <v>0.002184799999952247</v>
       </c>
       <c r="Y401" t="n">
         <v>9</v>
@@ -33438,7 +33438,7 @@
         </is>
       </c>
       <c r="X402" t="n">
-        <v>0.002756200000021636</v>
+        <v>0.003070499999978438</v>
       </c>
       <c r="Y402" t="n">
         <v>11</v>
@@ -33520,7 +33520,7 @@
         </is>
       </c>
       <c r="X403" t="n">
-        <v>0.003043600000012248</v>
+        <v>0.002695599999981368</v>
       </c>
       <c r="Y403" t="n">
         <v>11</v>
@@ -33602,7 +33602,7 @@
         </is>
       </c>
       <c r="X404" t="n">
-        <v>0.002739799999972092</v>
+        <v>0.002608800000018618</v>
       </c>
       <c r="Y404" t="n">
         <v>11</v>
@@ -33684,7 +33684,7 @@
         </is>
       </c>
       <c r="X405" t="n">
-        <v>0.002912400000013804</v>
+        <v>0.004004299999962768</v>
       </c>
       <c r="Y405" t="n">
         <v>12</v>
@@ -33766,7 +33766,7 @@
         </is>
       </c>
       <c r="X406" t="n">
-        <v>0.003677400000015041</v>
+        <v>0.002873599999986709</v>
       </c>
       <c r="Y406" t="n">
         <v>12</v>
@@ -33848,7 +33848,7 @@
         </is>
       </c>
       <c r="X407" t="n">
-        <v>0.002540399999986676</v>
+        <v>0.002414100000009967</v>
       </c>
       <c r="Y407" t="n">
         <v>9</v>
@@ -33930,7 +33930,7 @@
         </is>
       </c>
       <c r="X408" t="n">
-        <v>0.002978900000016438</v>
+        <v>0.002565999999944779</v>
       </c>
       <c r="Y408" t="n">
         <v>11</v>
@@ -34012,7 +34012,7 @@
         </is>
       </c>
       <c r="X409" t="n">
-        <v>0.002542300000015985</v>
+        <v>0.002517100000034134</v>
       </c>
       <c r="Y409" t="n">
         <v>10</v>
@@ -34094,7 +34094,7 @@
         </is>
       </c>
       <c r="X410" t="n">
-        <v>0.003268999999988864</v>
+        <v>0.003436700000008841</v>
       </c>
       <c r="Y410" t="n">
         <v>13</v>
@@ -34176,7 +34176,7 @@
         </is>
       </c>
       <c r="X411" t="n">
-        <v>0.001970800000037798</v>
+        <v>0.002021399999989626</v>
       </c>
       <c r="Y411" t="n">
         <v>8</v>
@@ -34258,7 +34258,7 @@
         </is>
       </c>
       <c r="X412" t="n">
-        <v>0.003849500000001171</v>
+        <v>0.004621000000042841</v>
       </c>
       <c r="Y412" t="n">
         <v>13</v>
@@ -34340,7 +34340,7 @@
         </is>
       </c>
       <c r="X413" t="n">
-        <v>0.003299700000013672</v>
+        <v>0.002594199999975899</v>
       </c>
       <c r="Y413" t="n">
         <v>11</v>
@@ -34422,7 +34422,7 @@
         </is>
       </c>
       <c r="X414" t="n">
-        <v>0.001988500000038584</v>
+        <v>0.002259399999957168</v>
       </c>
       <c r="Y414" t="n">
         <v>8</v>
@@ -34504,7 +34504,7 @@
         </is>
       </c>
       <c r="X415" t="n">
-        <v>0.002396999999973559</v>
+        <v>0.00190620000000763</v>
       </c>
       <c r="Y415" t="n">
         <v>8</v>
@@ -34586,7 +34586,7 @@
         </is>
       </c>
       <c r="X416" t="n">
-        <v>0.0030112000000031</v>
+        <v>0.002993000000003576</v>
       </c>
       <c r="Y416" t="n">
         <v>13</v>
@@ -34668,7 +34668,7 @@
         </is>
       </c>
       <c r="X417" t="n">
-        <v>0.002553100000000086</v>
+        <v>0.003483699999947021</v>
       </c>
       <c r="Y417" t="n">
         <v>9</v>
@@ -34750,7 +34750,7 @@
         </is>
       </c>
       <c r="X418" t="n">
-        <v>0.002119399999969573</v>
+        <v>0.002199599999983093</v>
       </c>
       <c r="Y418" t="n">
         <v>9</v>
@@ -34832,7 +34832,7 @@
         </is>
       </c>
       <c r="X419" t="n">
-        <v>0.001932499999952597</v>
+        <v>0.002130500000021129</v>
       </c>
       <c r="Y419" t="n">
         <v>8</v>
@@ -34914,7 +34914,7 @@
         </is>
       </c>
       <c r="X420" t="n">
-        <v>0.002630500000009306</v>
+        <v>0.004261699999972279</v>
       </c>
       <c r="Y420" t="n">
         <v>11</v>
@@ -34996,7 +34996,7 @@
         </is>
       </c>
       <c r="X421" t="n">
-        <v>0.00232099999999491</v>
+        <v>0.002350000000035379</v>
       </c>
       <c r="Y421" t="n">
         <v>9</v>
@@ -35078,7 +35078,7 @@
         </is>
       </c>
       <c r="X422" t="n">
-        <v>0.002557699999954366</v>
+        <v>0.002690700000016477</v>
       </c>
       <c r="Y422" t="n">
         <v>11</v>
@@ -35160,7 +35160,7 @@
         </is>
       </c>
       <c r="X423" t="n">
-        <v>0.002284900000006473</v>
+        <v>0.003478699999959645</v>
       </c>
       <c r="Y423" t="n">
         <v>9</v>
@@ -35242,7 +35242,7 @@
         </is>
       </c>
       <c r="X424" t="n">
-        <v>0.002479300000004514</v>
+        <v>0.002679800000009891</v>
       </c>
       <c r="Y424" t="n">
         <v>10</v>
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="X425" t="n">
-        <v>0.003165400000000318</v>
+        <v>0.003552700000000186</v>
       </c>
       <c r="Y425" t="n">
         <v>13</v>
@@ -35406,7 +35406,7 @@
         </is>
       </c>
       <c r="X426" t="n">
-        <v>0.00300640000000385</v>
+        <v>0.003445199999987381</v>
       </c>
       <c r="Y426" t="n">
         <v>11</v>
@@ -35488,7 +35488,7 @@
         </is>
       </c>
       <c r="X427" t="n">
-        <v>0.00283540000003768</v>
+        <v>0.002903100000025916</v>
       </c>
       <c r="Y427" t="n">
         <v>12</v>
@@ -35570,7 +35570,7 @@
         </is>
       </c>
       <c r="X428" t="n">
-        <v>0.003297700000018722</v>
+        <v>0.003223399999967569</v>
       </c>
       <c r="Y428" t="n">
         <v>12</v>
@@ -35652,7 +35652,7 @@
         </is>
       </c>
       <c r="X429" t="n">
-        <v>0.002540699999997287</v>
+        <v>0.002516999999954805</v>
       </c>
       <c r="Y429" t="n">
         <v>10</v>
@@ -35734,7 +35734,7 @@
         </is>
       </c>
       <c r="X430" t="n">
-        <v>0.002366600000016206</v>
+        <v>0.002181100000029801</v>
       </c>
       <c r="Y430" t="n">
         <v>9</v>
@@ -35816,7 +35816,7 @@
         </is>
       </c>
       <c r="X431" t="n">
-        <v>0.002996499999994739</v>
+        <v>0.003995400000007976</v>
       </c>
       <c r="Y431" t="n">
         <v>12</v>
@@ -35898,7 +35898,7 @@
         </is>
       </c>
       <c r="X432" t="n">
-        <v>0.003362799999990784</v>
+        <v>0.003454700000020239</v>
       </c>
       <c r="Y432" t="n">
         <v>14</v>
@@ -35980,7 +35980,7 @@
         </is>
       </c>
       <c r="X433" t="n">
-        <v>0.003926700000022265</v>
+        <v>0.003222100000016326</v>
       </c>
       <c r="Y433" t="n">
         <v>13</v>
@@ -36062,7 +36062,7 @@
         </is>
       </c>
       <c r="X434" t="n">
-        <v>0.002585299999964263</v>
+        <v>0.003902900000014142</v>
       </c>
       <c r="Y434" t="n">
         <v>9</v>
@@ -36144,7 +36144,7 @@
         </is>
       </c>
       <c r="X435" t="n">
-        <v>0.002069199999993998</v>
+        <v>0.002039999999965403</v>
       </c>
       <c r="Y435" t="n">
         <v>8</v>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="X436" t="n">
-        <v>0.002583000000015545</v>
+        <v>0.002707799999996041</v>
       </c>
       <c r="Y436" t="n">
         <v>11</v>
@@ -36308,7 +36308,7 @@
         </is>
       </c>
       <c r="X437" t="n">
-        <v>0.002261799999985215</v>
+        <v>0.002130200000010518</v>
       </c>
       <c r="Y437" t="n">
         <v>9</v>
@@ -36390,7 +36390,7 @@
         </is>
       </c>
       <c r="X438" t="n">
-        <v>0.002337899999986348</v>
+        <v>0.002425800000025902</v>
       </c>
       <c r="Y438" t="n">
         <v>10</v>
@@ -36472,7 +36472,7 @@
         </is>
       </c>
       <c r="X439" t="n">
-        <v>0.003091599999947903</v>
+        <v>0.004548200000044744</v>
       </c>
       <c r="Y439" t="n">
         <v>13</v>
@@ -36554,7 +36554,7 @@
         </is>
       </c>
       <c r="X440" t="n">
-        <v>0.002015099999994163</v>
+        <v>0.001913199999989956</v>
       </c>
       <c r="Y440" t="n">
         <v>8</v>
@@ -36636,7 +36636,7 @@
         </is>
       </c>
       <c r="X441" t="n">
-        <v>0.002148399999953199</v>
+        <v>0.002439100000003691</v>
       </c>
       <c r="Y441" t="n">
         <v>9</v>
@@ -36718,7 +36718,7 @@
         </is>
       </c>
       <c r="X442" t="n">
-        <v>0.002315699999996923</v>
+        <v>0.002335700000003271</v>
       </c>
       <c r="Y442" t="n">
         <v>10</v>
@@ -36800,7 +36800,7 @@
         </is>
       </c>
       <c r="X443" t="n">
-        <v>0.002173799999980019</v>
+        <v>0.0019884000000161</v>
       </c>
       <c r="Y443" t="n">
         <v>8</v>
@@ -36882,7 +36882,7 @@
         </is>
       </c>
       <c r="X444" t="n">
-        <v>0.001907700000003842</v>
+        <v>0.001830900000015845</v>
       </c>
       <c r="Y444" t="n">
         <v>8</v>
@@ -36964,7 +36964,7 @@
         </is>
       </c>
       <c r="X445" t="n">
-        <v>0.002122199999973873</v>
+        <v>0.001932100000033188</v>
       </c>
       <c r="Y445" t="n">
         <v>8</v>
@@ -37046,7 +37046,7 @@
         </is>
       </c>
       <c r="X446" t="n">
-        <v>0.002618200000028992</v>
+        <v>0.00256280000002107</v>
       </c>
       <c r="Y446" t="n">
         <v>11</v>
@@ -37128,7 +37128,7 @@
         </is>
       </c>
       <c r="X447" t="n">
-        <v>0.003304700000001048</v>
+        <v>0.00192459999999528</v>
       </c>
       <c r="Y447" t="n">
         <v>8</v>
@@ -37210,7 +37210,7 @@
         </is>
       </c>
       <c r="X448" t="n">
-        <v>0.003654600000004393</v>
+        <v>0.004136200000004919</v>
       </c>
       <c r="Y448" t="n">
         <v>13</v>
@@ -37292,7 +37292,7 @@
         </is>
       </c>
       <c r="X449" t="n">
-        <v>0.003068699999971614</v>
+        <v>0.003431699999964621</v>
       </c>
       <c r="Y449" t="n">
         <v>13</v>
@@ -37374,7 +37374,7 @@
         </is>
       </c>
       <c r="X450" t="n">
-        <v>0.003662099999985458</v>
+        <v>0.003072400000007747</v>
       </c>
       <c r="Y450" t="n">
         <v>13</v>
@@ -37456,7 +37456,7 @@
         </is>
       </c>
       <c r="X451" t="n">
-        <v>0.003029199999957655</v>
+        <v>0.003825699999993049</v>
       </c>
       <c r="Y451" t="n">
         <v>13</v>
@@ -37538,7 +37538,7 @@
         </is>
       </c>
       <c r="X452" t="n">
-        <v>0.003126600000030066</v>
+        <v>0.003141000000027816</v>
       </c>
       <c r="Y452" t="n">
         <v>13</v>
@@ -37620,7 +37620,7 @@
         </is>
       </c>
       <c r="X453" t="n">
-        <v>0.003627799999947001</v>
+        <v>0.00297249999999849</v>
       </c>
       <c r="Y453" t="n">
         <v>12</v>
@@ -37702,7 +37702,7 @@
         </is>
       </c>
       <c r="X454" t="n">
-        <v>0.003155800000001818</v>
+        <v>0.002954400000021451</v>
       </c>
       <c r="Y454" t="n">
         <v>13</v>
@@ -37784,7 +37784,7 @@
         </is>
       </c>
       <c r="X455" t="n">
-        <v>0.003566100000000461</v>
+        <v>0.003127000000006319</v>
       </c>
       <c r="Y455" t="n">
         <v>13</v>
@@ -37866,7 +37866,7 @@
         </is>
       </c>
       <c r="X456" t="n">
-        <v>0.003208399999948597</v>
+        <v>0.004528800000002775</v>
       </c>
       <c r="Y456" t="n">
         <v>13</v>
@@ -37948,7 +37948,7 @@
         </is>
       </c>
       <c r="X457" t="n">
-        <v>0.002749600000015562</v>
+        <v>0.002538200000003599</v>
       </c>
       <c r="Y457" t="n">
         <v>11</v>
@@ -38030,7 +38030,7 @@
         </is>
       </c>
       <c r="X458" t="n">
-        <v>0.0028060999999866</v>
+        <v>0.002469399999995403</v>
       </c>
       <c r="Y458" t="n">
         <v>10</v>
@@ -38112,7 +38112,7 @@
         </is>
       </c>
       <c r="X459" t="n">
-        <v>0.001842900000042391</v>
+        <v>0.001877299999989646</v>
       </c>
       <c r="Y459" t="n">
         <v>8</v>
@@ -38194,7 +38194,7 @@
         </is>
       </c>
       <c r="X460" t="n">
-        <v>0.002282699999966553</v>
+        <v>0.002031799999997475</v>
       </c>
       <c r="Y460" t="n">
         <v>8</v>
@@ -38276,7 +38276,7 @@
         </is>
       </c>
       <c r="X461" t="n">
-        <v>0.00300550000002886</v>
+        <v>0.002864799999997558</v>
       </c>
       <c r="Y461" t="n">
         <v>13</v>
@@ -38358,7 +38358,7 @@
         </is>
       </c>
       <c r="X462" t="n">
-        <v>0.001985999999988053</v>
+        <v>0.001959300000009989</v>
       </c>
       <c r="Y462" t="n">
         <v>8</v>
@@ -38440,7 +38440,7 @@
         </is>
       </c>
       <c r="X463" t="n">
-        <v>0.001671100000010028</v>
+        <v>0.003156500000045526</v>
       </c>
       <c r="Y463" t="n">
         <v>7</v>
@@ -38522,7 +38522,7 @@
         </is>
       </c>
       <c r="X464" t="n">
-        <v>0.002297600000019884</v>
+        <v>0.00210560000004989</v>
       </c>
       <c r="Y464" t="n">
         <v>9</v>
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="X465" t="n">
-        <v>0.002375799999981609</v>
+        <v>0.002444200000013552</v>
       </c>
       <c r="Y465" t="n">
         <v>9</v>
@@ -38686,7 +38686,7 @@
         </is>
       </c>
       <c r="X466" t="n">
-        <v>0.003241800000012063</v>
+        <v>0.002829099999985374</v>
       </c>
       <c r="Y466" t="n">
         <v>12</v>
@@ -38768,7 +38768,7 @@
         </is>
       </c>
       <c r="X467" t="n">
-        <v>0.002979699999968943</v>
+        <v>0.003141199999959099</v>
       </c>
       <c r="Y467" t="n">
         <v>13</v>
@@ -38850,7 +38850,7 @@
         </is>
       </c>
       <c r="X468" t="n">
-        <v>0.002836900000033893</v>
+        <v>0.003892199999995682</v>
       </c>
       <c r="Y468" t="n">
         <v>12</v>
@@ -38932,7 +38932,7 @@
         </is>
       </c>
       <c r="X469" t="n">
-        <v>0.001901999999972759</v>
+        <v>0.002016700000012861</v>
       </c>
       <c r="Y469" t="n">
         <v>8</v>
@@ -39014,7 +39014,7 @@
         </is>
       </c>
       <c r="X470" t="n">
-        <v>0.003061400000035519</v>
+        <v>0.003443399999980556</v>
       </c>
       <c r="Y470" t="n">
         <v>13</v>
@@ -39096,7 +39096,7 @@
         </is>
       </c>
       <c r="X471" t="n">
-        <v>0.001874600000007831</v>
+        <v>0.001964700000030462</v>
       </c>
       <c r="Y471" t="n">
         <v>8</v>
@@ -39178,7 +39178,7 @@
         </is>
       </c>
       <c r="X472" t="n">
-        <v>0.003005199999961405</v>
+        <v>0.00288370000004079</v>
       </c>
       <c r="Y472" t="n">
         <v>12</v>
@@ -39260,7 +39260,7 @@
         </is>
       </c>
       <c r="X473" t="n">
-        <v>0.002462700000023688</v>
+        <v>0.003048699999965265</v>
       </c>
       <c r="Y473" t="n">
         <v>10</v>
@@ -39342,7 +39342,7 @@
         </is>
       </c>
       <c r="X474" t="n">
-        <v>0.002532900000005611</v>
+        <v>0.002413700000033714</v>
       </c>
       <c r="Y474" t="n">
         <v>10</v>
@@ -39424,7 +39424,7 @@
         </is>
       </c>
       <c r="X475" t="n">
-        <v>0.003127799999958825</v>
+        <v>0.002927199999987806</v>
       </c>
       <c r="Y475" t="n">
         <v>12</v>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="X476" t="n">
-        <v>0.002690800000038962</v>
+        <v>0.002335700000003271</v>
       </c>
       <c r="Y476" t="n">
         <v>10</v>
@@ -39588,7 +39588,7 @@
         </is>
       </c>
       <c r="X477" t="n">
-        <v>0.002922899999987294</v>
+        <v>0.002504899999962618</v>
       </c>
       <c r="Y477" t="n">
         <v>10</v>
@@ -39670,7 +39670,7 @@
         </is>
       </c>
       <c r="X478" t="n">
-        <v>0.002317300000015621</v>
+        <v>0.002593999999987773</v>
       </c>
       <c r="Y478" t="n">
         <v>9</v>
@@ -39752,7 +39752,7 @@
         </is>
       </c>
       <c r="X479" t="n">
-        <v>0.003165099999989707</v>
+        <v>0.00279539999996814</v>
       </c>
       <c r="Y479" t="n">
         <v>12</v>
@@ -39834,7 +39834,7 @@
         </is>
       </c>
       <c r="X480" t="n">
-        <v>0.0023986000000491</v>
+        <v>0.002441599999997379</v>
       </c>
       <c r="Y480" t="n">
         <v>10</v>
@@ -39916,7 +39916,7 @@
         </is>
       </c>
       <c r="X481" t="n">
-        <v>0.003186699999957909</v>
+        <v>0.004353499999979249</v>
       </c>
       <c r="Y481" t="n">
         <v>13</v>
@@ -39998,7 +39998,7 @@
         </is>
       </c>
       <c r="X482" t="n">
-        <v>0.002313200000003235</v>
+        <v>0.0023274999999785</v>
       </c>
       <c r="Y482" t="n">
         <v>10</v>
@@ -40080,7 +40080,7 @@
         </is>
       </c>
       <c r="X483" t="n">
-        <v>0.003514100000018061</v>
+        <v>0.003823500000009972</v>
       </c>
       <c r="Y483" t="n">
         <v>14</v>
@@ -40162,7 +40162,7 @@
         </is>
       </c>
       <c r="X484" t="n">
-        <v>0.002298600000017359</v>
+        <v>0.00222999999999729</v>
       </c>
       <c r="Y484" t="n">
         <v>9</v>
@@ -40244,7 +40244,7 @@
         </is>
       </c>
       <c r="X485" t="n">
-        <v>0.00335619999998471</v>
+        <v>0.003062399999976151</v>
       </c>
       <c r="Y485" t="n">
         <v>13</v>
@@ -40326,7 +40326,7 @@
         </is>
       </c>
       <c r="X486" t="n">
-        <v>0.002719200000001365</v>
+        <v>0.004039000000034321</v>
       </c>
       <c r="Y486" t="n">
         <v>11</v>
@@ -40408,7 +40408,7 @@
         </is>
       </c>
       <c r="X487" t="n">
-        <v>0.004960399999959009</v>
+        <v>0.002423599999985981</v>
       </c>
       <c r="Y487" t="n">
         <v>10</v>
@@ -40490,7 +40490,7 @@
         </is>
       </c>
       <c r="X488" t="n">
-        <v>0.002053600000010647</v>
+        <v>0.002072999999995773</v>
       </c>
       <c r="Y488" t="n">
         <v>8</v>
@@ -40572,7 +40572,7 @@
         </is>
       </c>
       <c r="X489" t="n">
-        <v>0.002682700000036675</v>
+        <v>0.002614300000004732</v>
       </c>
       <c r="Y489" t="n">
         <v>11</v>
@@ -40654,7 +40654,7 @@
         </is>
       </c>
       <c r="X490" t="n">
-        <v>0.002546199999983401</v>
+        <v>0.002408699999989494</v>
       </c>
       <c r="Y490" t="n">
         <v>10</v>
@@ -40736,7 +40736,7 @@
         </is>
       </c>
       <c r="X491" t="n">
-        <v>0.001978500000006989</v>
+        <v>0.001958100000024388</v>
       </c>
       <c r="Y491" t="n">
         <v>8</v>
@@ -40818,7 +40818,7 @@
         </is>
       </c>
       <c r="X492" t="n">
-        <v>0.002308999999968364</v>
+        <v>0.001999899999987065</v>
       </c>
       <c r="Y492" t="n">
         <v>8</v>
@@ -40900,7 +40900,7 @@
         </is>
       </c>
       <c r="X493" t="n">
-        <v>0.001919299999997293</v>
+        <v>0.003325599999982387</v>
       </c>
       <c r="Y493" t="n">
         <v>8</v>
@@ -40982,7 +40982,7 @@
         </is>
       </c>
       <c r="X494" t="n">
-        <v>0.003097299999978986</v>
+        <v>0.002940000000023701</v>
       </c>
       <c r="Y494" t="n">
         <v>12</v>
@@ -41064,7 +41064,7 @@
         </is>
       </c>
       <c r="X495" t="n">
-        <v>0.002085500000021057</v>
+        <v>0.002314500000011321</v>
       </c>
       <c r="Y495" t="n">
         <v>9</v>
@@ -41146,7 +41146,7 @@
         </is>
       </c>
       <c r="X496" t="n">
-        <v>0.002105999999969299</v>
+        <v>0.001829999999984011</v>
       </c>
       <c r="Y496" t="n">
         <v>8</v>
@@ -41228,7 +41228,7 @@
         </is>
       </c>
       <c r="X497" t="n">
-        <v>0.00192850000001954</v>
+        <v>0.001987900000017362</v>
       </c>
       <c r="Y497" t="n">
         <v>8</v>
@@ -41310,7 +41310,7 @@
         </is>
       </c>
       <c r="X498" t="n">
-        <v>0.003368200000011257</v>
+        <v>0.004282799999998588</v>
       </c>
       <c r="Y498" t="n">
         <v>13</v>
@@ -41392,7 +41392,7 @@
         </is>
       </c>
       <c r="X499" t="n">
-        <v>0.00231899999999996</v>
+        <v>0.002397499999972297</v>
       </c>
       <c r="Y499" t="n">
         <v>10</v>
@@ -41474,7 +41474,7 @@
         </is>
       </c>
       <c r="X500" t="n">
-        <v>0.001948900000002141</v>
+        <v>0.002261000000032709</v>
       </c>
       <c r="Y500" t="n">
         <v>8</v>
@@ -41556,7 +41556,7 @@
         </is>
       </c>
       <c r="X501" t="n">
-        <v>0.00253850000001421</v>
+        <v>0.002561000000014246</v>
       </c>
       <c r="Y501" t="n">
         <v>11</v>
@@ -41638,7 +41638,7 @@
         </is>
       </c>
       <c r="X502" t="n">
-        <v>0.002226100000029874</v>
+        <v>0.002009100000009312</v>
       </c>
       <c r="Y502" t="n">
         <v>8</v>
@@ -41720,7 +41720,7 @@
         </is>
       </c>
       <c r="X503" t="n">
-        <v>0.002359699999999521</v>
+        <v>0.002456600000016351</v>
       </c>
       <c r="Y503" t="n">
         <v>9</v>
@@ -41802,7 +41802,7 @@
         </is>
       </c>
       <c r="X504" t="n">
-        <v>0.003845100000035018</v>
+        <v>0.003098899999997684</v>
       </c>
       <c r="Y504" t="n">
         <v>13</v>
@@ -41884,7 +41884,7 @@
         </is>
       </c>
       <c r="X505" t="n">
-        <v>0.003875399999969886</v>
+        <v>0.004226000000016938</v>
       </c>
       <c r="Y505" t="n">
         <v>12</v>
@@ -41966,7 +41966,7 @@
         </is>
       </c>
       <c r="X506" t="n">
-        <v>0.002332700000010846</v>
+        <v>0.002436999999986256</v>
       </c>
       <c r="Y506" t="n">
         <v>10</v>
@@ -42048,7 +42048,7 @@
         </is>
       </c>
       <c r="X507" t="n">
-        <v>0.002676100000030601</v>
+        <v>0.002459600000008777</v>
       </c>
       <c r="Y507" t="n">
         <v>10</v>
@@ -42130,7 +42130,7 @@
         </is>
       </c>
       <c r="X508" t="n">
-        <v>0.001943799999992279</v>
+        <v>0.001958000000001903</v>
       </c>
       <c r="Y508" t="n">
         <v>8</v>
@@ -42212,7 +42212,7 @@
         </is>
       </c>
       <c r="X509" t="n">
-        <v>0.002540199999998549</v>
+        <v>0.002011100000004262</v>
       </c>
       <c r="Y509" t="n">
         <v>8</v>
@@ -42294,7 +42294,7 @@
         </is>
       </c>
       <c r="X510" t="n">
-        <v>0.002124900000012531</v>
+        <v>0.002134800000021642</v>
       </c>
       <c r="Y510" t="n">
         <v>9</v>
@@ -42376,7 +42376,7 @@
         </is>
       </c>
       <c r="X511" t="n">
-        <v>0.002623600000049464</v>
+        <v>0.002691200000015215</v>
       </c>
       <c r="Y511" t="n">
         <v>11</v>
@@ -42458,7 +42458,7 @@
         </is>
       </c>
       <c r="X512" t="n">
-        <v>0.001939399999969282</v>
+        <v>0.002958100000000741</v>
       </c>
       <c r="Y512" t="n">
         <v>8</v>
@@ -42540,7 +42540,7 @@
         </is>
       </c>
       <c r="X513" t="n">
-        <v>0.002212600000007114</v>
+        <v>0.002211100000010902</v>
       </c>
       <c r="Y513" t="n">
         <v>9</v>
@@ -42622,7 +42622,7 @@
         </is>
       </c>
       <c r="X514" t="n">
-        <v>0.00232400000004418</v>
+        <v>0.002212299999996503</v>
       </c>
       <c r="Y514" t="n">
         <v>9</v>
@@ -42704,7 +42704,7 @@
         </is>
       </c>
       <c r="X515" t="n">
-        <v>0.00204919999998765</v>
+        <v>0.001935399999979381</v>
       </c>
       <c r="Y515" t="n">
         <v>8</v>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="X516" t="n">
-        <v>0.001723999999967418</v>
+        <v>0.001767899999947531</v>
       </c>
       <c r="Y516" t="n">
         <v>7</v>
@@ -42868,7 +42868,7 @@
         </is>
       </c>
       <c r="X517" t="n">
-        <v>0.004000200000007226</v>
+        <v>0.002907600000014554</v>
       </c>
       <c r="Y517" t="n">
         <v>13</v>
@@ -42950,7 +42950,7 @@
         </is>
       </c>
       <c r="X518" t="n">
-        <v>0.002359699999999521</v>
+        <v>0.002044200000000274</v>
       </c>
       <c r="Y518" t="n">
         <v>8</v>
@@ -43032,7 +43032,7 @@
         </is>
       </c>
       <c r="X519" t="n">
-        <v>0.001890100000025541</v>
+        <v>0.003064400000027945</v>
       </c>
       <c r="Y519" t="n">
         <v>8</v>
@@ -43114,7 +43114,7 @@
         </is>
       </c>
       <c r="X520" t="n">
-        <v>0.002974800000004052</v>
+        <v>0.002665799999988394</v>
       </c>
       <c r="Y520" t="n">
         <v>11</v>
@@ -43196,7 +43196,7 @@
         </is>
       </c>
       <c r="X521" t="n">
-        <v>0.002194099999996979</v>
+        <v>0.002354900000000271</v>
       </c>
       <c r="Y521" t="n">
         <v>9</v>
@@ -43278,7 +43278,7 @@
         </is>
       </c>
       <c r="X522" t="n">
-        <v>0.002256799999997838</v>
+        <v>0.00188589999999067</v>
       </c>
       <c r="Y522" t="n">
         <v>8</v>
@@ -43360,7 +43360,7 @@
         </is>
       </c>
       <c r="X523" t="n">
-        <v>0.002945099999976719</v>
+        <v>0.003145000000017717</v>
       </c>
       <c r="Y523" t="n">
         <v>13</v>
@@ -43442,7 +43442,7 @@
         </is>
       </c>
       <c r="X524" t="n">
-        <v>0.002308800000037081</v>
+        <v>0.003461399999991954</v>
       </c>
       <c r="Y524" t="n">
         <v>9</v>
@@ -43524,7 +43524,7 @@
         </is>
       </c>
       <c r="X525" t="n">
-        <v>0.002021300000023984</v>
+        <v>0.001936499999999342</v>
       </c>
       <c r="Y525" t="n">
         <v>8</v>
@@ -43606,7 +43606,7 @@
         </is>
       </c>
       <c r="X526" t="n">
-        <v>0.0026885000000334</v>
+        <v>0.003341900000009446</v>
       </c>
       <c r="Y526" t="n">
         <v>10</v>
@@ -43688,7 +43688,7 @@
         </is>
       </c>
       <c r="X527" t="n">
-        <v>0.002999699999975292</v>
+        <v>0.002857699999992747</v>
       </c>
       <c r="Y527" t="n">
         <v>12</v>
@@ -43770,7 +43770,7 @@
         </is>
       </c>
       <c r="X528" t="n">
-        <v>0.002323500000045442</v>
+        <v>0.002599400000008245</v>
       </c>
       <c r="Y528" t="n">
         <v>9</v>
@@ -43852,7 +43852,7 @@
         </is>
       </c>
       <c r="X529" t="n">
-        <v>0.003163400000005367</v>
+        <v>0.003788799999995263</v>
       </c>
       <c r="Y529" t="n">
         <v>11</v>
@@ -43934,7 +43934,7 @@
         </is>
       </c>
       <c r="X530" t="n">
-        <v>0.002455600000018876</v>
+        <v>0.002368899999964924</v>
       </c>
       <c r="Y530" t="n">
         <v>10</v>
@@ -44016,7 +44016,7 @@
         </is>
       </c>
       <c r="X531" t="n">
-        <v>0.003600099999971462</v>
+        <v>0.003134100000011131</v>
       </c>
       <c r="Y531" t="n">
         <v>13</v>
@@ -44098,7 +44098,7 @@
         </is>
       </c>
       <c r="X532" t="n">
-        <v>0.002730600000006689</v>
+        <v>0.003003199999966455</v>
       </c>
       <c r="Y532" t="n">
         <v>11</v>
@@ -44180,7 +44180,7 @@
         </is>
       </c>
       <c r="X533" t="n">
-        <v>0.003476999999975305</v>
+        <v>0.003133300000001782</v>
       </c>
       <c r="Y533" t="n">
         <v>13</v>
@@ -44262,7 +44262,7 @@
         </is>
       </c>
       <c r="X534" t="n">
-        <v>0.003164099999992231</v>
+        <v>0.002856799999960913</v>
       </c>
       <c r="Y534" t="n">
         <v>12</v>
@@ -44344,7 +44344,7 @@
         </is>
       </c>
       <c r="X535" t="n">
-        <v>0.002846200000021781</v>
+        <v>0.002994399999977304</v>
       </c>
       <c r="Y535" t="n">
         <v>12</v>
@@ -44426,7 +44426,7 @@
         </is>
       </c>
       <c r="X536" t="n">
-        <v>0.002289799999971365</v>
+        <v>0.002136000000007243</v>
       </c>
       <c r="Y536" t="n">
         <v>8</v>
@@ -44508,7 +44508,7 @@
         </is>
       </c>
       <c r="X537" t="n">
-        <v>0.002219400000001315</v>
+        <v>0.003043600000012248</v>
       </c>
       <c r="Y537" t="n">
         <v>9</v>
@@ -44590,7 +44590,7 @@
         </is>
       </c>
       <c r="X538" t="n">
-        <v>0.003189900000052148</v>
+        <v>0.002833699999996497</v>
       </c>
       <c r="Y538" t="n">
         <v>11</v>
@@ -44672,7 +44672,7 @@
         </is>
       </c>
       <c r="X539" t="n">
-        <v>0.003225899999961257</v>
+        <v>0.003188000000022839</v>
       </c>
       <c r="Y539" t="n">
         <v>13</v>
@@ -44754,7 +44754,7 @@
         </is>
       </c>
       <c r="X540" t="n">
-        <v>0.00316970000000083</v>
+        <v>0.002529700000025059</v>
       </c>
       <c r="Y540" t="n">
         <v>11</v>
@@ -44836,7 +44836,7 @@
         </is>
       </c>
       <c r="X541" t="n">
-        <v>0.002183800000011615</v>
+        <v>0.002187499999990905</v>
       </c>
       <c r="Y541" t="n">
         <v>9</v>
@@ -44918,7 +44918,7 @@
         </is>
       </c>
       <c r="X542" t="n">
-        <v>0.00255010000000766</v>
+        <v>0.00310869999998431</v>
       </c>
       <c r="Y542" t="n">
         <v>10</v>
@@ -45000,7 +45000,7 @@
         </is>
       </c>
       <c r="X543" t="n">
-        <v>0.001999399999988327</v>
+        <v>0.002163300000006529</v>
       </c>
       <c r="Y543" t="n">
         <v>8</v>
@@ -45082,7 +45082,7 @@
         </is>
       </c>
       <c r="X544" t="n">
-        <v>0.02747890000000552</v>
+        <v>0.003493100000014238</v>
       </c>
       <c r="Y544" t="n">
         <v>12</v>
@@ -45164,7 +45164,7 @@
         </is>
       </c>
       <c r="X545" t="n">
-        <v>0.01006960000000845</v>
+        <v>0.001926000000025851</v>
       </c>
       <c r="Y545" t="n">
         <v>8</v>
@@ -45246,7 +45246,7 @@
         </is>
       </c>
       <c r="X546" t="n">
-        <v>0.002308700000014596</v>
+        <v>0.00206869999999526</v>
       </c>
       <c r="Y546" t="n">
         <v>8</v>
@@ -45328,7 +45328,7 @@
         </is>
       </c>
       <c r="X547" t="n">
-        <v>0.01926900000000842</v>
+        <v>0.001851400000020931</v>
       </c>
       <c r="Y547" t="n">
         <v>8</v>
@@ -45410,7 +45410,7 @@
         </is>
       </c>
       <c r="X548" t="n">
-        <v>0.004447799999979907</v>
+        <v>0.002504900000019461</v>
       </c>
       <c r="Y548" t="n">
         <v>10</v>
@@ -45492,7 +45492,7 @@
         </is>
       </c>
       <c r="X549" t="n">
-        <v>0.003568199999961053</v>
+        <v>0.003880299999991621</v>
       </c>
       <c r="Y549" t="n">
         <v>12</v>
@@ -45574,7 +45574,7 @@
         </is>
       </c>
       <c r="X550" t="n">
-        <v>0.006547499999953743</v>
+        <v>0.002573999999981424</v>
       </c>
       <c r="Y550" t="n">
         <v>11</v>
@@ -45656,7 +45656,7 @@
         </is>
       </c>
       <c r="X551" t="n">
-        <v>0.003647000000000844</v>
+        <v>0.003001999999980853</v>
       </c>
       <c r="Y551" t="n">
         <v>12</v>
@@ -45738,7 +45738,7 @@
         </is>
       </c>
       <c r="X552" t="n">
-        <v>0.002619999999978972</v>
+        <v>0.002147300000046926</v>
       </c>
       <c r="Y552" t="n">
         <v>9</v>
@@ -45820,7 +45820,7 @@
         </is>
       </c>
       <c r="X553" t="n">
-        <v>0.0019760000000133</v>
+        <v>0.00199609999998529</v>
       </c>
       <c r="Y553" t="n">
         <v>8</v>
@@ -45902,7 +45902,7 @@
         </is>
       </c>
       <c r="X554" t="n">
-        <v>0.002679599999964921</v>
+        <v>0.003735700000049746</v>
       </c>
       <c r="Y554" t="n">
         <v>11</v>
@@ -45984,7 +45984,7 @@
         </is>
       </c>
       <c r="X555" t="n">
-        <v>0.002573600000005172</v>
+        <v>0.002570999999988999</v>
       </c>
       <c r="Y555" t="n">
         <v>11</v>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="X556" t="n">
-        <v>0.002159699999992881</v>
+        <v>0.002422499999966021</v>
       </c>
       <c r="Y556" t="n">
         <v>9</v>
@@ -46148,7 +46148,7 @@
         </is>
       </c>
       <c r="X557" t="n">
-        <v>0.001890799999955561</v>
+        <v>0.001859299999978248</v>
       </c>
       <c r="Y557" t="n">
         <v>8</v>
@@ -46230,7 +46230,7 @@
         </is>
       </c>
       <c r="X558" t="n">
-        <v>0.002954400000021451</v>
+        <v>0.003192299999966508</v>
       </c>
       <c r="Y558" t="n">
         <v>12</v>
@@ -46312,7 +46312,7 @@
         </is>
       </c>
       <c r="X559" t="n">
-        <v>0.00317229999996016</v>
+        <v>0.003949099999999817</v>
       </c>
       <c r="Y559" t="n">
         <v>11</v>
@@ -46394,7 +46394,7 @@
         </is>
       </c>
       <c r="X560" t="n">
-        <v>0.003023100000007162</v>
+        <v>0.003012999999953081</v>
       </c>
       <c r="Y560" t="n">
         <v>13</v>
@@ -46476,7 +46476,7 @@
         </is>
       </c>
       <c r="X561" t="n">
-        <v>0.003045199999974102</v>
+        <v>0.003122000000018943</v>
       </c>
       <c r="Y561" t="n">
         <v>13</v>
@@ -46558,7 +46558,7 @@
         </is>
       </c>
       <c r="X562" t="n">
-        <v>0.001674999999977445</v>
+        <v>0.001671600000008766</v>
       </c>
       <c r="Y562" t="n">
         <v>7</v>
@@ -46640,7 +46640,7 @@
         </is>
       </c>
       <c r="X563" t="n">
-        <v>0.001957599999968807</v>
+        <v>0.00220510000002605</v>
       </c>
       <c r="Y563" t="n">
         <v>8</v>
@@ -46722,7 +46722,7 @@
         </is>
       </c>
       <c r="X564" t="n">
-        <v>0.002827200000012908</v>
+        <v>0.00383739999995214</v>
       </c>
       <c r="Y564" t="n">
         <v>12</v>
@@ -46804,7 +46804,7 @@
         </is>
       </c>
       <c r="X565" t="n">
-        <v>0.002145700000028228</v>
+        <v>0.002184399999975994</v>
       </c>
       <c r="Y565" t="n">
         <v>9</v>
@@ -46886,7 +46886,7 @@
         </is>
       </c>
       <c r="X566" t="n">
-        <v>0.003124900000045727</v>
+        <v>0.004210199999988617</v>
       </c>
       <c r="Y566" t="n">
         <v>13</v>
@@ -46968,7 +46968,7 @@
         </is>
       </c>
       <c r="X567" t="n">
-        <v>0.002693799999974544</v>
+        <v>0.002695700000003853</v>
       </c>
       <c r="Y567" t="n">
         <v>12</v>
@@ -47050,7 +47050,7 @@
         </is>
       </c>
       <c r="X568" t="n">
-        <v>0.001792600000044331</v>
+        <v>0.002206499999999778</v>
       </c>
       <c r="Y568" t="n">
         <v>8</v>
@@ -47132,7 +47132,7 @@
         </is>
       </c>
       <c r="X569" t="n">
-        <v>0.002892800000040552</v>
+        <v>0.002654000000006818</v>
       </c>
       <c r="Y569" t="n">
         <v>10</v>
@@ -47214,7 +47214,7 @@
         </is>
       </c>
       <c r="X570" t="n">
-        <v>0.003163900000004105</v>
+        <v>0.00243289999997387</v>
       </c>
       <c r="Y570" t="n">
         <v>10</v>
@@ -47296,7 +47296,7 @@
         </is>
       </c>
       <c r="X571" t="n">
-        <v>0.003215499999953408</v>
+        <v>0.003170600000032664</v>
       </c>
       <c r="Y571" t="n">
         <v>11</v>
@@ -47378,7 +47378,7 @@
         </is>
       </c>
       <c r="X572" t="n">
-        <v>0.004259400000023561</v>
+        <v>0.002457100000015089</v>
       </c>
       <c r="Y572" t="n">
         <v>10</v>
@@ -47460,7 +47460,7 @@
         </is>
       </c>
       <c r="X573" t="n">
-        <v>0.003654400000016267</v>
+        <v>0.002930999999989581</v>
       </c>
       <c r="Y573" t="n">
         <v>12</v>
@@ -47542,7 +47542,7 @@
         </is>
       </c>
       <c r="X574" t="n">
-        <v>0.00287980000001653</v>
+        <v>0.002644700000018929</v>
       </c>
       <c r="Y574" t="n">
         <v>11</v>
@@ -47624,7 +47624,7 @@
         </is>
       </c>
       <c r="X575" t="n">
-        <v>0.003109100000017406</v>
+        <v>0.002141999999992095</v>
       </c>
       <c r="Y575" t="n">
         <v>9</v>
@@ -47706,7 +47706,7 @@
         </is>
       </c>
       <c r="X576" t="n">
-        <v>0.002951700000039637</v>
+        <v>0.003873699999985547</v>
       </c>
       <c r="Y576" t="n">
         <v>10</v>
@@ -47788,7 +47788,7 @@
         </is>
       </c>
       <c r="X577" t="n">
-        <v>0.002469399999995403</v>
+        <v>0.002142400000025191</v>
       </c>
       <c r="Y577" t="n">
         <v>9</v>
@@ -47870,7 +47870,7 @@
         </is>
       </c>
       <c r="X578" t="n">
-        <v>0.004346600000019407</v>
+        <v>0.002590300000008483</v>
       </c>
       <c r="Y578" t="n">
         <v>10</v>
@@ -47952,7 +47952,7 @@
         </is>
       </c>
       <c r="X579" t="n">
-        <v>0.002564999999947304</v>
+        <v>0.001958199999990029</v>
       </c>
       <c r="Y579" t="n">
         <v>8</v>
@@ -48034,7 +48034,7 @@
         </is>
       </c>
       <c r="X580" t="n">
-        <v>0.002886199999977634</v>
+        <v>0.003096400000003996</v>
       </c>
       <c r="Y580" t="n">
         <v>12</v>
@@ -48116,7 +48116,7 @@
         </is>
       </c>
       <c r="X581" t="n">
-        <v>0.002261900000007699</v>
+        <v>0.003643599999975322</v>
       </c>
       <c r="Y581" t="n">
         <v>9</v>
@@ -48198,7 +48198,7 @@
         </is>
       </c>
       <c r="X582" t="n">
-        <v>0.002580299999976887</v>
+        <v>0.002163799999948424</v>
       </c>
       <c r="Y582" t="n">
         <v>9</v>
@@ -48280,7 +48280,7 @@
         </is>
       </c>
       <c r="X583" t="n">
-        <v>0.00526609999997163</v>
+        <v>0.002249900000037997</v>
       </c>
       <c r="Y583" t="n">
         <v>9</v>
@@ -48362,7 +48362,7 @@
         </is>
       </c>
       <c r="X584" t="n">
-        <v>0.001959899999974368</v>
+        <v>0.001934899999980644</v>
       </c>
       <c r="Y584" t="n">
         <v>8</v>
@@ -48444,7 +48444,7 @@
         </is>
       </c>
       <c r="X585" t="n">
-        <v>0.002300999999988562</v>
+        <v>0.00222150000001875</v>
       </c>
       <c r="Y585" t="n">
         <v>9</v>
@@ -48526,7 +48526,7 @@
         </is>
       </c>
       <c r="X586" t="n">
-        <v>0.004919200000017554</v>
+        <v>0.001880400000004556</v>
       </c>
       <c r="Y586" t="n">
         <v>8</v>
@@ -48608,7 +48608,7 @@
         </is>
       </c>
       <c r="X587" t="n">
-        <v>0.003233799999975417</v>
+        <v>0.003239399999984016</v>
       </c>
       <c r="Y587" t="n">
         <v>13</v>
@@ -48690,7 +48690,7 @@
         </is>
       </c>
       <c r="X588" t="n">
-        <v>0.003427400000020953</v>
+        <v>0.002432399999975132</v>
       </c>
       <c r="Y588" t="n">
         <v>9</v>
@@ -48772,7 +48772,7 @@
         </is>
       </c>
       <c r="X589" t="n">
-        <v>0.002505099999950744</v>
+        <v>0.002270399999986239</v>
       </c>
       <c r="Y589" t="n">
         <v>10</v>
@@ -48854,7 +48854,7 @@
         </is>
       </c>
       <c r="X590" t="n">
-        <v>0.003284099999973478</v>
+        <v>0.00295130000000654</v>
       </c>
       <c r="Y590" t="n">
         <v>12</v>
@@ -48936,7 +48936,7 @@
         </is>
       </c>
       <c r="X591" t="n">
-        <v>0.00226169999996273</v>
+        <v>0.002090899999984686</v>
       </c>
       <c r="Y591" t="n">
         <v>9</v>
@@ -49018,7 +49018,7 @@
         </is>
       </c>
       <c r="X592" t="n">
-        <v>0.004491800000039348</v>
+        <v>0.001972000000023399</v>
       </c>
       <c r="Y592" t="n">
         <v>8</v>
@@ -49100,7 +49100,7 @@
         </is>
       </c>
       <c r="X593" t="n">
-        <v>0.002293899999983751</v>
+        <v>0.002539300000023559</v>
       </c>
       <c r="Y593" t="n">
         <v>8</v>
@@ -49182,7 +49182,7 @@
         </is>
       </c>
       <c r="X594" t="n">
-        <v>0.003135200000031091</v>
+        <v>0.00220600000000104</v>
       </c>
       <c r="Y594" t="n">
         <v>9</v>
@@ -49264,7 +49264,7 @@
         </is>
       </c>
       <c r="X595" t="n">
-        <v>0.002882400000032703</v>
+        <v>0.004076599999962127</v>
       </c>
       <c r="Y595" t="n">
         <v>12</v>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="X596" t="n">
-        <v>0.002730799999994815</v>
+        <v>0.00240489999998772</v>
       </c>
       <c r="Y596" t="n">
         <v>10</v>
@@ -49428,7 +49428,7 @@
         </is>
       </c>
       <c r="X597" t="n">
-        <v>0.004260100000010425</v>
+        <v>0.002870299999983672</v>
       </c>
       <c r="Y597" t="n">
         <v>12</v>
@@ -49510,7 +49510,7 @@
         </is>
       </c>
       <c r="X598" t="n">
-        <v>0.002079299999991235</v>
+        <v>0.001860199999953238</v>
       </c>
       <c r="Y598" t="n">
         <v>8</v>
@@ -49592,7 +49592,7 @@
         </is>
       </c>
       <c r="X599" t="n">
-        <v>0.003423700000041663</v>
+        <v>0.003012399999988702</v>
       </c>
       <c r="Y599" t="n">
         <v>13</v>
@@ -49674,7 +49674,7 @@
         </is>
       </c>
       <c r="X600" t="n">
-        <v>0.005477700000028562</v>
+        <v>0.004469299999982468</v>
       </c>
       <c r="Y600" t="n">
         <v>13</v>
@@ -49756,7 +49756,7 @@
         </is>
       </c>
       <c r="X601" t="n">
-        <v>0.004476300000021638</v>
+        <v>0.002591300000005958</v>
       </c>
       <c r="Y601" t="n">
         <v>11</v>
@@ -49838,7 +49838,7 @@
         </is>
       </c>
       <c r="X602" t="n">
-        <v>0.009131999999965501</v>
+        <v>0.003099700000007033</v>
       </c>
       <c r="Y602" t="n">
         <v>13</v>
@@ -49920,7 +49920,7 @@
         </is>
       </c>
       <c r="X603" t="n">
-        <v>0.004267900000002101</v>
+        <v>0.00197009999999409</v>
       </c>
       <c r="Y603" t="n">
         <v>8</v>
@@ -50002,7 +50002,7 @@
         </is>
       </c>
       <c r="X604" t="n">
-        <v>0.003537899999969341</v>
+        <v>0.001943099999948572</v>
       </c>
       <c r="Y604" t="n">
         <v>8</v>
@@ -50084,7 +50084,7 @@
         </is>
       </c>
       <c r="X605" t="n">
-        <v>0.002001000000007025</v>
+        <v>0.003101399999991372</v>
       </c>
       <c r="Y605" t="n">
         <v>8</v>
@@ -50166,7 +50166,7 @@
         </is>
       </c>
       <c r="X606" t="n">
-        <v>0.003387199999963286</v>
+        <v>0.00246020000003</v>
       </c>
       <c r="Y606" t="n">
         <v>10</v>
@@ -50248,7 +50248,7 @@
         </is>
       </c>
       <c r="X607" t="n">
-        <v>0.004615300000011757</v>
+        <v>0.00299169999999549</v>
       </c>
       <c r="Y607" t="n">
         <v>12</v>
@@ -50330,7 +50330,7 @@
         </is>
       </c>
       <c r="X608" t="n">
-        <v>0.005235200000015539</v>
+        <v>0.002762899999993351</v>
       </c>
       <c r="Y608" t="n">
         <v>12</v>
@@ -50412,7 +50412,7 @@
         </is>
       </c>
       <c r="X609" t="n">
-        <v>0.002322600000013608</v>
+        <v>0.001995099999987815</v>
       </c>
       <c r="Y609" t="n">
         <v>8</v>
@@ -50494,7 +50494,7 @@
         </is>
       </c>
       <c r="X610" t="n">
-        <v>0.004781699999966804</v>
+        <v>0.00333559999995714</v>
       </c>
       <c r="Y610" t="n">
         <v>10</v>
@@ -50576,7 +50576,7 @@
         </is>
       </c>
       <c r="X611" t="n">
-        <v>0.001997599999981503</v>
+        <v>0.002023799999960829</v>
       </c>
       <c r="Y611" t="n">
         <v>8</v>
@@ -50658,7 +50658,7 @@
         </is>
       </c>
       <c r="X612" t="n">
-        <v>0.00215000000002874</v>
+        <v>0.003858300000047166</v>
       </c>
       <c r="Y612" t="n">
         <v>8</v>
@@ -50740,7 +50740,7 @@
         </is>
       </c>
       <c r="X613" t="n">
-        <v>0.002247199999999339</v>
+        <v>0.002039400000001024</v>
       </c>
       <c r="Y613" t="n">
         <v>8</v>
@@ -50822,7 +50822,7 @@
         </is>
       </c>
       <c r="X614" t="n">
-        <v>0.007125199999961751</v>
+        <v>0.003101000000015119</v>
       </c>
       <c r="Y614" t="n">
         <v>13</v>
@@ -50904,7 +50904,7 @@
         </is>
       </c>
       <c r="X615" t="n">
-        <v>0.001995800000031522</v>
+        <v>0.001999300000022686</v>
       </c>
       <c r="Y615" t="n">
         <v>8</v>
@@ -50986,7 +50986,7 @@
         </is>
       </c>
       <c r="X616" t="n">
-        <v>0.002388900000028116</v>
+        <v>0.002012000000036096</v>
       </c>
       <c r="Y616" t="n">
         <v>8</v>
@@ -51068,7 +51068,7 @@
         </is>
       </c>
       <c r="X617" t="n">
-        <v>0.00253739999999425</v>
+        <v>0.001828600000010283</v>
       </c>
       <c r="Y617" t="n">
         <v>8</v>
@@ -51150,7 +51150,7 @@
         </is>
       </c>
       <c r="X618" t="n">
-        <v>0.00199129999998604</v>
+        <v>0.001951500000018314</v>
       </c>
       <c r="Y618" t="n">
         <v>8</v>
@@ -51232,7 +51232,7 @@
         </is>
       </c>
       <c r="X619" t="n">
-        <v>0.003394600000035553</v>
+        <v>0.004161699999997381</v>
       </c>
       <c r="Y619" t="n">
         <v>11</v>
@@ -51314,7 +51314,7 @@
         </is>
       </c>
       <c r="X620" t="n">
-        <v>0.004478699999992841</v>
+        <v>0.002443500000026688</v>
       </c>
       <c r="Y620" t="n">
         <v>10</v>
@@ -51396,7 +51396,7 @@
         </is>
       </c>
       <c r="X621" t="n">
-        <v>0.002942399999994905</v>
+        <v>0.00245519999998578</v>
       </c>
       <c r="Y621" t="n">
         <v>10</v>
@@ -51478,7 +51478,7 @@
         </is>
       </c>
       <c r="X622" t="n">
-        <v>0.002282600000000912</v>
+        <v>0.002071000000000822</v>
       </c>
       <c r="Y622" t="n">
         <v>9</v>
@@ -51560,7 +51560,7 @@
         </is>
       </c>
       <c r="X623" t="n">
-        <v>0.006259300000010626</v>
+        <v>0.002602599999988797</v>
       </c>
       <c r="Y623" t="n">
         <v>11</v>
@@ -51642,7 +51642,7 @@
         </is>
       </c>
       <c r="X624" t="n">
-        <v>0.002313000000015109</v>
+        <v>0.004406000000017229</v>
       </c>
       <c r="Y624" t="n">
         <v>9</v>
@@ -51724,7 +51724,7 @@
         </is>
       </c>
       <c r="X625" t="n">
-        <v>0.002452300000015839</v>
+        <v>0.002066500000012184</v>
       </c>
       <c r="Y625" t="n">
         <v>9</v>
@@ -51806,7 +51806,7 @@
         </is>
       </c>
       <c r="X626" t="n">
-        <v>0.003950500000030388</v>
+        <v>0.002268200000003162</v>
       </c>
       <c r="Y626" t="n">
         <v>9</v>
@@ -51888,7 +51888,7 @@
         </is>
       </c>
       <c r="X627" t="n">
-        <v>0.00415200000003324</v>
+        <v>0.002112000000010994</v>
       </c>
       <c r="Y627" t="n">
         <v>9</v>
@@ -51970,7 +51970,7 @@
         </is>
       </c>
       <c r="X628" t="n">
-        <v>0.003451799999993455</v>
+        <v>0.002666099999999005</v>
       </c>
       <c r="Y628" t="n">
         <v>11</v>
@@ -52052,7 +52052,7 @@
         </is>
       </c>
       <c r="X629" t="n">
-        <v>0.00313690000001543</v>
+        <v>0.003946800000051098</v>
       </c>
       <c r="Y629" t="n">
         <v>12</v>
@@ -52134,7 +52134,7 @@
         </is>
       </c>
       <c r="X630" t="n">
-        <v>0.001905100000044513</v>
+        <v>0.001907399999993231</v>
       </c>
       <c r="Y630" t="n">
         <v>8</v>
@@ -52216,7 +52216,7 @@
         </is>
       </c>
       <c r="X631" t="n">
-        <v>0.003315000000043256</v>
+        <v>0.002667999999971471</v>
       </c>
       <c r="Y631" t="n">
         <v>9</v>
@@ -52298,7 +52298,7 @@
         </is>
       </c>
       <c r="X632" t="n">
-        <v>0.00542310000002999</v>
+        <v>0.00289509999998927</v>
       </c>
       <c r="Y632" t="n">
         <v>12</v>
@@ -52380,7 +52380,7 @@
         </is>
       </c>
       <c r="X633" t="n">
-        <v>0.00263319999999112</v>
+        <v>0.002687499999979082</v>
       </c>
       <c r="Y633" t="n">
         <v>11</v>
@@ -52462,7 +52462,7 @@
         </is>
       </c>
       <c r="X634" t="n">
-        <v>0.003536199999985001</v>
+        <v>0.004394900000022517</v>
       </c>
       <c r="Y634" t="n">
         <v>13</v>
@@ -52544,7 +52544,7 @@
         </is>
       </c>
       <c r="X635" t="n">
-        <v>0.001933399999984431</v>
+        <v>0.002021000000013373</v>
       </c>
       <c r="Y635" t="n">
         <v>8</v>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="X636" t="n">
-        <v>0.0023110999999858</v>
+        <v>0.002568099999962214</v>
       </c>
       <c r="Y636" t="n">
         <v>10</v>
@@ -52708,7 +52708,7 @@
         </is>
       </c>
       <c r="X637" t="n">
-        <v>0.002190400000017689</v>
+        <v>0.002166799999997693</v>
       </c>
       <c r="Y637" t="n">
         <v>9</v>
@@ -52790,7 +52790,7 @@
         </is>
       </c>
       <c r="X638" t="n">
-        <v>0.001872699999978522</v>
+        <v>0.002075100000013208</v>
       </c>
       <c r="Y638" t="n">
         <v>8</v>
@@ -52872,7 +52872,7 @@
         </is>
       </c>
       <c r="X639" t="n">
-        <v>0.002806000000020958</v>
+        <v>0.002881400000035228</v>
       </c>
       <c r="Y639" t="n">
         <v>12</v>
@@ -52954,7 +52954,7 @@
         </is>
       </c>
       <c r="X640" t="n">
-        <v>0.002525300000002062</v>
+        <v>0.002646500000025753</v>
       </c>
       <c r="Y640" t="n">
         <v>11</v>
@@ -53036,7 +53036,7 @@
         </is>
       </c>
       <c r="X641" t="n">
-        <v>0.003010800000026848</v>
+        <v>0.003282300000023497</v>
       </c>
       <c r="Y641" t="n">
         <v>13</v>
@@ -53118,7 +53118,7 @@
         </is>
       </c>
       <c r="X642" t="n">
-        <v>0.003531000000009499</v>
+        <v>0.002337599999975737</v>
       </c>
       <c r="Y642" t="n">
         <v>10</v>
@@ -53200,7 +53200,7 @@
         </is>
       </c>
       <c r="X643" t="n">
-        <v>0.003026500000032684</v>
+        <v>0.003067199999975401</v>
       </c>
       <c r="Y643" t="n">
         <v>13</v>
@@ -53282,7 +53282,7 @@
         </is>
       </c>
       <c r="X644" t="n">
-        <v>0.002686900000014703</v>
+        <v>0.002123399999959474</v>
       </c>
       <c r="Y644" t="n">
         <v>9</v>
@@ -53364,7 +53364,7 @@
         </is>
       </c>
       <c r="X645" t="n">
-        <v>0.002538600000036695</v>
+        <v>0.00271080000004531</v>
       </c>
       <c r="Y645" t="n">
         <v>11</v>
@@ -53446,7 +53446,7 @@
         </is>
       </c>
       <c r="X646" t="n">
-        <v>0.002221099999985654</v>
+        <v>0.002296300000011797</v>
       </c>
       <c r="Y646" t="n">
         <v>9</v>
@@ -53528,7 +53528,7 @@
         </is>
       </c>
       <c r="X647" t="n">
-        <v>0.00543840000000273</v>
+        <v>0.002722899999980655</v>
       </c>
       <c r="Y647" t="n">
         <v>11</v>
@@ -53610,7 +53610,7 @@
         </is>
       </c>
       <c r="X648" t="n">
-        <v>0.002880199999992783</v>
+        <v>0.002603500000020631</v>
       </c>
       <c r="Y648" t="n">
         <v>11</v>
@@ -53692,7 +53692,7 @@
         </is>
       </c>
       <c r="X649" t="n">
-        <v>0.00250919999996313</v>
+        <v>0.00218960000000834</v>
       </c>
       <c r="Y649" t="n">
         <v>9</v>
@@ -53774,7 +53774,7 @@
         </is>
       </c>
       <c r="X650" t="n">
-        <v>0.002022899999985839</v>
+        <v>0.002017499999965366</v>
       </c>
       <c r="Y650" t="n">
         <v>8</v>
@@ -53856,7 +53856,7 @@
         </is>
       </c>
       <c r="X651" t="n">
-        <v>0.002335799999968913</v>
+        <v>0.002914499999974396</v>
       </c>
       <c r="Y651" t="n">
         <v>9</v>
@@ -53938,7 +53938,7 @@
         </is>
       </c>
       <c r="X652" t="n">
-        <v>0.00433999999995649</v>
+        <v>0.002639699999974709</v>
       </c>
       <c r="Y652" t="n">
         <v>11</v>
@@ -54020,7 +54020,7 @@
         </is>
       </c>
       <c r="X653" t="n">
-        <v>0.003081100000031256</v>
+        <v>0.003154599999959373</v>
       </c>
       <c r="Y653" t="n">
         <v>13</v>
@@ -54102,7 +54102,7 @@
         </is>
       </c>
       <c r="X654" t="n">
-        <v>0.002674800000022515</v>
+        <v>0.002690299999983381</v>
       </c>
       <c r="Y654" t="n">
         <v>11</v>
@@ -54184,7 +54184,7 @@
         </is>
       </c>
       <c r="X655" t="n">
-        <v>0.001896100000010392</v>
+        <v>0.001962100000014289</v>
       </c>
       <c r="Y655" t="n">
         <v>8</v>
@@ -54266,7 +54266,7 @@
         </is>
       </c>
       <c r="X656" t="n">
-        <v>0.002957100000003265</v>
+        <v>0.003857299999992847</v>
       </c>
       <c r="Y656" t="n">
         <v>12</v>
@@ -54348,7 +54348,7 @@
         </is>
       </c>
       <c r="X657" t="n">
-        <v>0.004004000000009</v>
+        <v>0.003325300000028619</v>
       </c>
       <c r="Y657" t="n">
         <v>14</v>
@@ -54430,7 +54430,7 @@
         </is>
       </c>
       <c r="X658" t="n">
-        <v>0.001936399999976857</v>
+        <v>0.002024699999992663</v>
       </c>
       <c r="Y658" t="n">
         <v>8</v>
@@ -54512,7 +54512,7 @@
         </is>
       </c>
       <c r="X659" t="n">
-        <v>0.003600699999992685</v>
+        <v>0.002698000000009415</v>
       </c>
       <c r="Y659" t="n">
         <v>10</v>
@@ -54594,7 +54594,7 @@
         </is>
       </c>
       <c r="X660" t="n">
-        <v>0.002916900000002443</v>
+        <v>0.002857399999982135</v>
       </c>
       <c r="Y660" t="n">
         <v>12</v>
@@ -54676,7 +54676,7 @@
         </is>
       </c>
       <c r="X661" t="n">
-        <v>0.003043900000022859</v>
+        <v>0.003982600000028924</v>
       </c>
       <c r="Y661" t="n">
         <v>12</v>
@@ -54758,7 +54758,7 @@
         </is>
       </c>
       <c r="X662" t="n">
-        <v>0.003129699999988134</v>
+        <v>0.002279799999996612</v>
       </c>
       <c r="Y662" t="n">
         <v>9</v>
@@ -54840,7 +54840,7 @@
         </is>
       </c>
       <c r="X663" t="n">
-        <v>0.002817999999990661</v>
+        <v>0.002014399999950456</v>
       </c>
       <c r="Y663" t="n">
         <v>8</v>
@@ -54922,7 +54922,7 @@
         </is>
       </c>
       <c r="X664" t="n">
-        <v>0.002705100000014227</v>
+        <v>0.002271799999959967</v>
       </c>
       <c r="Y664" t="n">
         <v>10</v>
@@ -55004,7 +55004,7 @@
         </is>
       </c>
       <c r="X665" t="n">
-        <v>0.002719899999988229</v>
+        <v>0.002680699999984881</v>
       </c>
       <c r="Y665" t="n">
         <v>11</v>
@@ -55086,7 +55086,7 @@
         </is>
       </c>
       <c r="X666" t="n">
-        <v>0.002201899999988655</v>
+        <v>0.003009599999984403</v>
       </c>
       <c r="Y666" t="n">
         <v>9</v>
@@ -55168,7 +55168,7 @@
         </is>
       </c>
       <c r="X667" t="n">
-        <v>0.00267249999996011</v>
+        <v>0.001963400000022375</v>
       </c>
       <c r="Y667" t="n">
         <v>8</v>
@@ -55250,7 +55250,7 @@
         </is>
       </c>
       <c r="X668" t="n">
-        <v>0.002602899999999408</v>
+        <v>0.003597700000000259</v>
       </c>
       <c r="Y668" t="n">
         <v>11</v>
@@ -55332,7 +55332,7 @@
         </is>
       </c>
       <c r="X669" t="n">
-        <v>0.002851899999996022</v>
+        <v>0.002315500000008797</v>
       </c>
       <c r="Y669" t="n">
         <v>10</v>
@@ -55414,7 +55414,7 @@
         </is>
       </c>
       <c r="X670" t="n">
-        <v>0.002669200000013916</v>
+        <v>0.002494599999977254</v>
       </c>
       <c r="Y670" t="n">
         <v>10</v>
@@ -55496,7 +55496,7 @@
         </is>
       </c>
       <c r="X671" t="n">
-        <v>0.004695299999980307</v>
+        <v>0.002548200000035195</v>
       </c>
       <c r="Y671" t="n">
         <v>11</v>
@@ -55578,7 +55578,7 @@
         </is>
       </c>
       <c r="X672" t="n">
-        <v>0.002481700000032561</v>
+        <v>0.002002300000015111</v>
       </c>
       <c r="Y672" t="n">
         <v>8</v>
@@ -55660,7 +55660,7 @@
         </is>
       </c>
       <c r="X673" t="n">
-        <v>0.003919999999993706</v>
+        <v>0.004472799999973631</v>
       </c>
       <c r="Y673" t="n">
         <v>13</v>
@@ -55742,7 +55742,7 @@
         </is>
       </c>
       <c r="X674" t="n">
-        <v>0.003089299999999184</v>
+        <v>0.003092400000014095</v>
       </c>
       <c r="Y674" t="n">
         <v>13</v>
@@ -55824,7 +55824,7 @@
         </is>
       </c>
       <c r="X675" t="n">
-        <v>0.002701999999999316</v>
+        <v>0.002011699999968641</v>
       </c>
       <c r="Y675" t="n">
         <v>8</v>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="X676" t="n">
-        <v>0.003537399999970603</v>
+        <v>0.00278990000003887</v>
       </c>
       <c r="Y676" t="n">
         <v>12</v>
@@ -55988,7 +55988,7 @@
         </is>
       </c>
       <c r="X677" t="n">
-        <v>0.00367119999998522</v>
+        <v>0.003146399999991445</v>
       </c>
       <c r="Y677" t="n">
         <v>13</v>
@@ -56070,7 +56070,7 @@
         </is>
       </c>
       <c r="X678" t="n">
-        <v>0.003151400000035665</v>
+        <v>0.004492999999968106</v>
       </c>
       <c r="Y678" t="n">
         <v>13</v>
@@ -56152,7 +56152,7 @@
         </is>
       </c>
       <c r="X679" t="n">
-        <v>0.002222700000004352</v>
+        <v>0.002124500000036278</v>
       </c>
       <c r="Y679" t="n">
         <v>9</v>
@@ -56234,7 +56234,7 @@
         </is>
       </c>
       <c r="X680" t="n">
-        <v>0.004915499999981421</v>
+        <v>0.003197299999953884</v>
       </c>
       <c r="Y680" t="n">
         <v>13</v>
@@ -56316,7 +56316,7 @@
         </is>
       </c>
       <c r="X681" t="n">
-        <v>0.0027992999999924</v>
+        <v>0.002535299999976814</v>
       </c>
       <c r="Y681" t="n">
         <v>11</v>
@@ -56398,7 +56398,7 @@
         </is>
       </c>
       <c r="X682" t="n">
-        <v>0.00215370000000803</v>
+        <v>0.002455999999995129</v>
       </c>
       <c r="Y682" t="n">
         <v>9</v>
@@ -56480,7 +56480,7 @@
         </is>
       </c>
       <c r="X683" t="n">
-        <v>0.002970000000004802</v>
+        <v>0.004470299999979943</v>
       </c>
       <c r="Y683" t="n">
         <v>13</v>
@@ -56562,7 +56562,7 @@
         </is>
       </c>
       <c r="X684" t="n">
-        <v>0.002671999999961372</v>
+        <v>0.002604900000051202</v>
       </c>
       <c r="Y684" t="n">
         <v>11</v>
@@ -56644,7 +56644,7 @@
         </is>
       </c>
       <c r="X685" t="n">
-        <v>0.00245430000001079</v>
+        <v>0.002396999999973559</v>
       </c>
       <c r="Y685" t="n">
         <v>9</v>
@@ -56726,7 +56726,7 @@
         </is>
       </c>
       <c r="X686" t="n">
-        <v>0.0026585000000523</v>
+        <v>0.002862499999991996</v>
       </c>
       <c r="Y686" t="n">
         <v>11</v>
@@ -56808,7 +56808,7 @@
         </is>
       </c>
       <c r="X687" t="n">
-        <v>0.002850200000011682</v>
+        <v>0.002298999999993612</v>
       </c>
       <c r="Y687" t="n">
         <v>9</v>
@@ -56890,7 +56890,7 @@
         </is>
       </c>
       <c r="X688" t="n">
-        <v>0.001745900000003076</v>
+        <v>0.002325399999961064</v>
       </c>
       <c r="Y688" t="n">
         <v>7</v>
@@ -56972,7 +56972,7 @@
         </is>
       </c>
       <c r="X689" t="n">
-        <v>0.002269399999988764</v>
+        <v>0.001908700000001318</v>
       </c>
       <c r="Y689" t="n">
         <v>8</v>
@@ -57054,7 +57054,7 @@
         </is>
       </c>
       <c r="X690" t="n">
-        <v>0.003301499999963653</v>
+        <v>0.002628200000003744</v>
       </c>
       <c r="Y690" t="n">
         <v>9</v>
@@ -57136,7 +57136,7 @@
         </is>
       </c>
       <c r="X691" t="n">
-        <v>0.00211020000000417</v>
+        <v>0.002195499999970707</v>
       </c>
       <c r="Y691" t="n">
         <v>9</v>
@@ -57218,7 +57218,7 @@
         </is>
       </c>
       <c r="X692" t="n">
-        <v>0.004055399999970177</v>
+        <v>0.003125400000044465</v>
       </c>
       <c r="Y692" t="n">
         <v>12</v>
@@ -57300,7 +57300,7 @@
         </is>
       </c>
       <c r="X693" t="n">
-        <v>0.002757099999996626</v>
+        <v>0.002814699999987624</v>
       </c>
       <c r="Y693" t="n">
         <v>12</v>
@@ -57382,7 +57382,7 @@
         </is>
       </c>
       <c r="X694" t="n">
-        <v>0.003116199999965374</v>
+        <v>0.00323329999997668</v>
       </c>
       <c r="Y694" t="n">
         <v>13</v>
@@ -57464,7 +57464,7 @@
         </is>
       </c>
       <c r="X695" t="n">
-        <v>0.003440600000033101</v>
+        <v>0.002880599999969036</v>
       </c>
       <c r="Y695" t="n">
         <v>12</v>
@@ -57546,7 +57546,7 @@
         </is>
       </c>
       <c r="X696" t="n">
-        <v>0.003100599999982023</v>
+        <v>0.003029700000013236</v>
       </c>
       <c r="Y696" t="n">
         <v>13</v>
@@ -57628,7 +57628,7 @@
         </is>
       </c>
       <c r="X697" t="n">
-        <v>0.00289989999998852</v>
+        <v>0.002806399999997211</v>
       </c>
       <c r="Y697" t="n">
         <v>12</v>
@@ -57710,7 +57710,7 @@
         </is>
       </c>
       <c r="X698" t="n">
-        <v>0.002395100000001094</v>
+        <v>0.00206100000002607</v>
       </c>
       <c r="Y698" t="n">
         <v>9</v>
@@ -57792,7 +57792,7 @@
         </is>
       </c>
       <c r="X699" t="n">
-        <v>0.002991599999973005</v>
+        <v>0.002863800000000083</v>
       </c>
       <c r="Y699" t="n">
         <v>12</v>
@@ -57874,7 +57874,7 @@
         </is>
       </c>
       <c r="X700" t="n">
-        <v>0.003446099999962371</v>
+        <v>0.003392499999961274</v>
       </c>
       <c r="Y700" t="n">
         <v>12</v>
@@ -57956,7 +57956,7 @@
         </is>
       </c>
       <c r="X701" t="n">
-        <v>0.003073799999981475</v>
+        <v>0.002958799999987605</v>
       </c>
       <c r="Y701" t="n">
         <v>13</v>
@@ -58038,7 +58038,7 @@
         </is>
       </c>
       <c r="X702" t="n">
-        <v>0.002656800000011117</v>
+        <v>0.00224639999998999</v>
       </c>
       <c r="Y702" t="n">
         <v>9</v>
@@ -58120,7 +58120,7 @@
         </is>
       </c>
       <c r="X703" t="n">
-        <v>0.00264759999998887</v>
+        <v>0.00256450000000541</v>
       </c>
       <c r="Y703" t="n">
         <v>11</v>
@@ -58202,7 +58202,7 @@
         </is>
       </c>
       <c r="X704" t="n">
-        <v>0.002970300000015413</v>
+        <v>0.002846000000033655</v>
       </c>
       <c r="Y704" t="n">
         <v>12</v>
@@ -58284,7 +58284,7 @@
         </is>
       </c>
       <c r="X705" t="n">
-        <v>0.001900500000033389</v>
+        <v>0.001840599999979986</v>
       </c>
       <c r="Y705" t="n">
         <v>8</v>
@@ -58366,7 +58366,7 @@
         </is>
       </c>
       <c r="X706" t="n">
-        <v>0.002316500000006272</v>
+        <v>0.002261599999997088</v>
       </c>
       <c r="Y706" t="n">
         <v>9</v>
@@ -58448,7 +58448,7 @@
         </is>
       </c>
       <c r="X707" t="n">
-        <v>0.002358799999967687</v>
+        <v>0.002119700000037028</v>
       </c>
       <c r="Y707" t="n">
         <v>9</v>
@@ -58530,7 +58530,7 @@
         </is>
       </c>
       <c r="X708" t="n">
-        <v>0.004168600000014067</v>
+        <v>0.003107199999988097</v>
       </c>
       <c r="Y708" t="n">
         <v>13</v>
@@ -58612,7 +58612,7 @@
         </is>
       </c>
       <c r="X709" t="n">
-        <v>0.002799999999979264</v>
+        <v>0.003077799999971376</v>
       </c>
       <c r="Y709" t="n">
         <v>9</v>
@@ -58694,7 +58694,7 @@
         </is>
       </c>
       <c r="X710" t="n">
-        <v>0.0030467999999928</v>
+        <v>0.003137700000024779</v>
       </c>
       <c r="Y710" t="n">
         <v>13</v>
@@ -58776,7 +58776,7 @@
         </is>
       </c>
       <c r="X711" t="n">
-        <v>0.003142799999977797</v>
+        <v>0.003211899999996604</v>
       </c>
       <c r="Y711" t="n">
         <v>13</v>
@@ -58858,7 +58858,7 @@
         </is>
       </c>
       <c r="X712" t="n">
-        <v>0.004009400000029473</v>
+        <v>0.002710299999989729</v>
       </c>
       <c r="Y712" t="n">
         <v>12</v>
@@ -58940,7 +58940,7 @@
         </is>
       </c>
       <c r="X713" t="n">
-        <v>0.002942899999993642</v>
+        <v>0.00286710000000312</v>
       </c>
       <c r="Y713" t="n">
         <v>12</v>
@@ -59022,7 +59022,7 @@
         </is>
       </c>
       <c r="X714" t="n">
-        <v>0.00251989999998159</v>
+        <v>0.002065899999990961</v>
       </c>
       <c r="Y714" t="n">
         <v>9</v>
@@ -59104,7 +59104,7 @@
         </is>
       </c>
       <c r="X715" t="n">
-        <v>0.001824800000008509</v>
+        <v>0.001955699999996341</v>
       </c>
       <c r="Y715" t="n">
         <v>8</v>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="X716" t="n">
-        <v>0.002140499999995882</v>
+        <v>0.002481200000033823</v>
       </c>
       <c r="Y716" t="n">
         <v>9</v>
@@ -59268,7 +59268,7 @@
         </is>
       </c>
       <c r="X717" t="n">
-        <v>0.003960199999994529</v>
+        <v>0.002597400000013295</v>
       </c>
       <c r="Y717" t="n">
         <v>11</v>
@@ -59350,7 +59350,7 @@
         </is>
       </c>
       <c r="X718" t="n">
-        <v>0.002704599999958646</v>
+        <v>0.003668400000037764</v>
       </c>
       <c r="Y718" t="n">
         <v>12</v>
@@ -59432,7 +59432,7 @@
         </is>
       </c>
       <c r="X719" t="n">
-        <v>0.003693199999986518</v>
+        <v>0.002152399999999943</v>
       </c>
       <c r="Y719" t="n">
         <v>9</v>
@@ -59514,7 +59514,7 @@
         </is>
       </c>
       <c r="X720" t="n">
-        <v>0.002049699999986387</v>
+        <v>0.002286900000001424</v>
       </c>
       <c r="Y720" t="n">
         <v>9</v>
@@ -59596,7 +59596,7 @@
         </is>
       </c>
       <c r="X721" t="n">
-        <v>0.001976099999978942</v>
+        <v>0.001856599999996433</v>
       </c>
       <c r="Y721" t="n">
         <v>8</v>
@@ -59678,7 +59678,7 @@
         </is>
       </c>
       <c r="X722" t="n">
-        <v>0.002321700000038618</v>
+        <v>0.002425700000003417</v>
       </c>
       <c r="Y722" t="n">
         <v>10</v>
@@ -59760,7 +59760,7 @@
         </is>
       </c>
       <c r="X723" t="n">
-        <v>0.003037000000006174</v>
+        <v>0.003064400000027945</v>
       </c>
       <c r="Y723" t="n">
         <v>13</v>
@@ -59842,7 +59842,7 @@
         </is>
       </c>
       <c r="X724" t="n">
-        <v>0.004970399999990605</v>
+        <v>0.003106999999999971</v>
       </c>
       <c r="Y724" t="n">
         <v>13</v>
@@ -59924,7 +59924,7 @@
         </is>
       </c>
       <c r="X725" t="n">
-        <v>0.01345739999999296</v>
+        <v>0.003378200000042852</v>
       </c>
       <c r="Y725" t="n">
         <v>12</v>
@@ -60006,7 +60006,7 @@
         </is>
       </c>
       <c r="X726" t="n">
-        <v>0.002896599999985483</v>
+        <v>0.002525600000012673</v>
       </c>
       <c r="Y726" t="n">
         <v>11</v>
@@ -60088,7 +60088,7 @@
         </is>
       </c>
       <c r="X727" t="n">
-        <v>0.003728099999989354</v>
+        <v>0.002632100000028004</v>
       </c>
       <c r="Y727" t="n">
         <v>10</v>
@@ -60170,7 +60170,7 @@
         </is>
       </c>
       <c r="X728" t="n">
-        <v>0.004133500000023105</v>
+        <v>0.002089799999964725</v>
       </c>
       <c r="Y728" t="n">
         <v>8</v>
@@ -60252,7 +60252,7 @@
         </is>
       </c>
       <c r="X729" t="n">
-        <v>0.006147499999997308</v>
+        <v>0.002474500000005264</v>
       </c>
       <c r="Y729" t="n">
         <v>10</v>
@@ -60334,7 +60334,7 @@
         </is>
       </c>
       <c r="X730" t="n">
-        <v>0.007011900000009064</v>
+        <v>0.002094099999965238</v>
       </c>
       <c r="Y730" t="n">
         <v>9</v>
@@ -60416,7 +60416,7 @@
         </is>
       </c>
       <c r="X731" t="n">
-        <v>0.004942700000015066</v>
+        <v>0.002893200000016805</v>
       </c>
       <c r="Y731" t="n">
         <v>12</v>
@@ -60498,7 +60498,7 @@
         </is>
       </c>
       <c r="X732" t="n">
-        <v>0.005200000000002092</v>
+        <v>0.002694099999985156</v>
       </c>
       <c r="Y732" t="n">
         <v>12</v>
@@ -60580,7 +60580,7 @@
         </is>
       </c>
       <c r="X733" t="n">
-        <v>0.001978099999973892</v>
+        <v>0.002046799999959603</v>
       </c>
       <c r="Y733" t="n">
         <v>8</v>
@@ -60662,7 +60662,7 @@
         </is>
       </c>
       <c r="X734" t="n">
-        <v>0.007321900000022197</v>
+        <v>0.003167000000019016</v>
       </c>
       <c r="Y734" t="n">
         <v>10</v>
@@ -60744,7 +60744,7 @@
         </is>
       </c>
       <c r="X735" t="n">
-        <v>0.002730300000052921</v>
+        <v>0.001844100000027993</v>
       </c>
       <c r="Y735" t="n">
         <v>8</v>
@@ -60826,7 +60826,7 @@
         </is>
       </c>
       <c r="X736" t="n">
-        <v>0.005644599999982347</v>
+        <v>0.003449299999999766</v>
       </c>
       <c r="Y736" t="n">
         <v>11</v>
@@ -60908,7 +60908,7 @@
         </is>
       </c>
       <c r="X737" t="n">
-        <v>0.002067500000009659</v>
+        <v>0.00190450000002329</v>
       </c>
       <c r="Y737" t="n">
         <v>8</v>
@@ -60990,7 +60990,7 @@
         </is>
       </c>
       <c r="X738" t="n">
-        <v>0.002340700000047491</v>
+        <v>0.002270899999984977</v>
       </c>
       <c r="Y738" t="n">
         <v>9</v>
@@ -61072,7 +61072,7 @@
         </is>
       </c>
       <c r="X739" t="n">
-        <v>0.002945799999963583</v>
+        <v>0.001875299999994695</v>
       </c>
       <c r="Y739" t="n">
         <v>8</v>
@@ -61154,7 +61154,7 @@
         </is>
       </c>
       <c r="X740" t="n">
-        <v>0.002508799999986877</v>
+        <v>0.001998299999968367</v>
       </c>
       <c r="Y740" t="n">
         <v>8</v>
@@ -61236,7 +61236,7 @@
         </is>
       </c>
       <c r="X741" t="n">
-        <v>0.01085799999998471</v>
+        <v>0.001960999999994328</v>
       </c>
       <c r="Y741" t="n">
         <v>8</v>
@@ -61318,7 +61318,7 @@
         </is>
       </c>
       <c r="X742" t="n">
-        <v>0.004499099999975442</v>
+        <v>0.002860999999995784</v>
       </c>
       <c r="Y742" t="n">
         <v>12</v>
@@ -61400,7 +61400,7 @@
         </is>
       </c>
       <c r="X743" t="n">
-        <v>0.002292399999987538</v>
+        <v>0.002048699999988912</v>
       </c>
       <c r="Y743" t="n">
         <v>9</v>
@@ -61482,7 +61482,7 @@
         </is>
       </c>
       <c r="X744" t="n">
-        <v>0.02859069999999519</v>
+        <v>0.00219589999994696</v>
       </c>
       <c r="Y744" t="n">
         <v>9</v>
@@ -61564,7 +61564,7 @@
         </is>
       </c>
       <c r="X745" t="n">
-        <v>0.008444200000042201</v>
+        <v>0.002928800000006504</v>
       </c>
       <c r="Y745" t="n">
         <v>9</v>
@@ -61646,7 +61646,7 @@
         </is>
       </c>
       <c r="X746" t="n">
-        <v>0.001951399999995829</v>
+        <v>0.00191389999997682</v>
       </c>
       <c r="Y746" t="n">
         <v>8</v>
@@ -61728,7 +61728,7 @@
         </is>
       </c>
       <c r="X747" t="n">
-        <v>0.003187400000001617</v>
+        <v>0.002748700000040571</v>
       </c>
       <c r="Y747" t="n">
         <v>8</v>
@@ -61810,7 +61810,7 @@
         </is>
       </c>
       <c r="X748" t="n">
-        <v>0.001949899999999616</v>
+        <v>0.001952000000017051</v>
       </c>
       <c r="Y748" t="n">
         <v>8</v>
@@ -61892,7 +61892,7 @@
         </is>
       </c>
       <c r="X749" t="n">
-        <v>0.01295310000000427</v>
+        <v>0.002535499999964941</v>
       </c>
       <c r="Y749" t="n">
         <v>10</v>
@@ -61974,7 +61974,7 @@
         </is>
       </c>
       <c r="X750" t="n">
-        <v>0.003216000000008989</v>
+        <v>0.002485500000034335</v>
       </c>
       <c r="Y750" t="n">
         <v>11</v>
@@ -62056,7 +62056,7 @@
         </is>
       </c>
       <c r="X751" t="n">
-        <v>0.004219599999998991</v>
+        <v>0.002617299999997158</v>
       </c>
       <c r="Y751" t="n">
         <v>11</v>
@@ -62138,7 +62138,7 @@
         </is>
       </c>
       <c r="X752" t="n">
-        <v>0.003637599999990471</v>
+        <v>0.002732900000012251</v>
       </c>
       <c r="Y752" t="n">
         <v>12</v>
@@ -62220,7 +62220,7 @@
         </is>
       </c>
       <c r="X753" t="n">
-        <v>0.006351999999992586</v>
+        <v>0.001926000000025851</v>
       </c>
       <c r="Y753" t="n">
         <v>8</v>
@@ -62302,7 +62302,7 @@
         </is>
       </c>
       <c r="X754" t="n">
-        <v>0.003371399999991809</v>
+        <v>0.003753000000017437</v>
       </c>
       <c r="Y754" t="n">
         <v>13</v>
@@ -62384,7 +62384,7 @@
         </is>
       </c>
       <c r="X755" t="n">
-        <v>0.002869400000008682</v>
+        <v>0.002767699999992601</v>
       </c>
       <c r="Y755" t="n">
         <v>12</v>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="X756" t="n">
-        <v>0.004412500000000819</v>
+        <v>0.003259500000012849</v>
       </c>
       <c r="Y756" t="n">
         <v>13</v>
@@ -62548,7 +62548,7 @@
         </is>
       </c>
       <c r="X757" t="n">
-        <v>0.003031799999973828</v>
+        <v>0.002919000000019878</v>
       </c>
       <c r="Y757" t="n">
         <v>13</v>
@@ -62630,7 +62630,7 @@
         </is>
       </c>
       <c r="X758" t="n">
-        <v>0.001944800000046598</v>
+        <v>0.002035299999988638</v>
       </c>
       <c r="Y758" t="n">
         <v>8</v>
@@ -62712,7 +62712,7 @@
         </is>
       </c>
       <c r="X759" t="n">
-        <v>0.002764000000013311</v>
+        <v>0.002602799999976924</v>
       </c>
       <c r="Y759" t="n">
         <v>11</v>
@@ -62794,7 +62794,7 @@
         </is>
       </c>
       <c r="X760" t="n">
-        <v>0.002812500000004547</v>
+        <v>0.002830200000005334</v>
       </c>
       <c r="Y760" t="n">
         <v>12</v>
@@ -62876,7 +62876,7 @@
         </is>
       </c>
       <c r="X761" t="n">
-        <v>0.005146899999999732</v>
+        <v>0.003626199999985147</v>
       </c>
       <c r="Y761" t="n">
         <v>13</v>
@@ -62958,7 +62958,7 @@
         </is>
       </c>
       <c r="X762" t="n">
-        <v>0.001877100000001519</v>
+        <v>0.001872400000024754</v>
       </c>
       <c r="Y762" t="n">
         <v>8</v>
@@ -63040,7 +63040,7 @@
         </is>
       </c>
       <c r="X763" t="n">
-        <v>0.003696999999988293</v>
+        <v>0.003666699999996581</v>
       </c>
       <c r="Y763" t="n">
         <v>12</v>
@@ -63122,7 +63122,7 @@
         </is>
       </c>
       <c r="X764" t="n">
-        <v>0.003940300000010666</v>
+        <v>0.001888600000029328</v>
       </c>
       <c r="Y764" t="n">
         <v>8</v>
@@ -63204,7 +63204,7 @@
         </is>
       </c>
       <c r="X765" t="n">
-        <v>0.002383800000018255</v>
+        <v>0.002225399999986166</v>
       </c>
       <c r="Y765" t="n">
         <v>9</v>
@@ -63286,7 +63286,7 @@
         </is>
       </c>
       <c r="X766" t="n">
-        <v>0.002515600000037921</v>
+        <v>0.002320499999996173</v>
       </c>
       <c r="Y766" t="n">
         <v>10</v>
@@ -63368,7 +63368,7 @@
         </is>
       </c>
       <c r="X767" t="n">
-        <v>0.002595500000040829</v>
+        <v>0.002673700000002555</v>
       </c>
       <c r="Y767" t="n">
         <v>11</v>
@@ -63450,7 +63450,7 @@
         </is>
       </c>
       <c r="X768" t="n">
-        <v>0.003082199999994373</v>
+        <v>0.002694199999950797</v>
       </c>
       <c r="Y768" t="n">
         <v>12</v>
@@ -63532,7 +63532,7 @@
         </is>
       </c>
       <c r="X769" t="n">
-        <v>0.003880499999979747</v>
+        <v>0.00276259999998274</v>
       </c>
       <c r="Y769" t="n">
         <v>12</v>
@@ -63614,7 +63614,7 @@
         </is>
       </c>
       <c r="X770" t="n">
-        <v>0.002512400000000525</v>
+        <v>0.002079799999989973</v>
       </c>
       <c r="Y770" t="n">
         <v>9</v>
@@ -63696,7 +63696,7 @@
         </is>
       </c>
       <c r="X771" t="n">
-        <v>0.002309999999965839</v>
+        <v>0.002238799999986441</v>
       </c>
       <c r="Y771" t="n">
         <v>9</v>
@@ -63778,7 +63778,7 @@
         </is>
       </c>
       <c r="X772" t="n">
-        <v>0.003365999999971336</v>
+        <v>0.003334399999971538</v>
       </c>
       <c r="Y772" t="n">
         <v>11</v>
@@ -63860,7 +63860,7 @@
         </is>
       </c>
       <c r="X773" t="n">
-        <v>0.002310599999987062</v>
+        <v>0.002291800000023159</v>
       </c>
       <c r="Y773" t="n">
         <v>10</v>
@@ -63942,7 +63942,7 @@
         </is>
       </c>
       <c r="X774" t="n">
-        <v>0.004167699999982233</v>
+        <v>0.00337760000002163</v>
       </c>
       <c r="Y774" t="n">
         <v>13</v>
@@ -64024,7 +64024,7 @@
         </is>
       </c>
       <c r="X775" t="n">
-        <v>0.002908800000000156</v>
+        <v>0.002920999999957985</v>
       </c>
       <c r="Y775" t="n">
         <v>13</v>
@@ -64106,7 +64106,7 @@
         </is>
       </c>
       <c r="X776" t="n">
-        <v>0.002847700000017994</v>
+        <v>0.002911900000015066</v>
       </c>
       <c r="Y776" t="n">
         <v>12</v>
@@ -64188,7 +64188,7 @@
         </is>
       </c>
       <c r="X777" t="n">
-        <v>0.00206890000004023</v>
+        <v>0.00212659999999687</v>
       </c>
       <c r="Y777" t="n">
         <v>9</v>
@@ -64270,7 +64270,7 @@
         </is>
       </c>
       <c r="X778" t="n">
-        <v>0.002609800000016094</v>
+        <v>0.002545800000007148</v>
       </c>
       <c r="Y778" t="n">
         <v>10</v>
@@ -64352,7 +64352,7 @@
         </is>
       </c>
       <c r="X779" t="n">
-        <v>0.002086899999994785</v>
+        <v>0.002393700000027366</v>
       </c>
       <c r="Y779" t="n">
         <v>9</v>
@@ -64434,7 +64434,7 @@
         </is>
       </c>
       <c r="X780" t="n">
-        <v>0.002111800000022868</v>
+        <v>0.002143199999977696</v>
       </c>
       <c r="Y780" t="n">
         <v>9</v>
@@ -64516,7 +64516,7 @@
         </is>
       </c>
       <c r="X781" t="n">
-        <v>0.003485699999998815</v>
+        <v>0.003912399999990157</v>
       </c>
       <c r="Y781" t="n">
         <v>13</v>
@@ -64598,7 +64598,7 @@
         </is>
       </c>
       <c r="X782" t="n">
-        <v>0.002125799999987521</v>
+        <v>0.002151900000001206</v>
       </c>
       <c r="Y782" t="n">
         <v>9</v>
@@ -64680,7 +64680,7 @@
         </is>
       </c>
       <c r="X783" t="n">
-        <v>0.004504300000007788</v>
+        <v>0.002664900000013404</v>
       </c>
       <c r="Y783" t="n">
         <v>11</v>
@@ -64762,7 +64762,7 @@
         </is>
       </c>
       <c r="X784" t="n">
-        <v>0.002885100000014518</v>
+        <v>0.002727999999990516</v>
       </c>
       <c r="Y784" t="n">
         <v>12</v>
@@ -64844,7 +64844,7 @@
         </is>
       </c>
       <c r="X785" t="n">
-        <v>0.001947599999994054</v>
+        <v>0.001988899999957994</v>
       </c>
       <c r="Y785" t="n">
         <v>8</v>
@@ -64926,7 +64926,7 @@
         </is>
       </c>
       <c r="X786" t="n">
-        <v>0.00189770000002909</v>
+        <v>0.001869999999996708</v>
       </c>
       <c r="Y786" t="n">
         <v>8</v>
@@ -65008,7 +65008,7 @@
         </is>
       </c>
       <c r="X787" t="n">
-        <v>0.003017699999986689</v>
+        <v>0.00282839999999851</v>
       </c>
       <c r="Y787" t="n">
         <v>12</v>
@@ -65090,7 +65090,7 @@
         </is>
       </c>
       <c r="X788" t="n">
-        <v>0.003290199999980814</v>
+        <v>0.002914799999985007</v>
       </c>
       <c r="Y788" t="n">
         <v>12</v>
@@ -65172,7 +65172,7 @@
         </is>
       </c>
       <c r="X789" t="n">
-        <v>0.003606699999977536</v>
+        <v>0.003271499999982552</v>
       </c>
       <c r="Y789" t="n">
         <v>14</v>
@@ -65254,7 +65254,7 @@
         </is>
       </c>
       <c r="X790" t="n">
-        <v>0.002091500000005908</v>
+        <v>0.002524300000004587</v>
       </c>
       <c r="Y790" t="n">
         <v>8</v>
@@ -65336,7 +65336,7 @@
         </is>
       </c>
       <c r="X791" t="n">
-        <v>0.002669400000002042</v>
+        <v>0.00267100000002074</v>
       </c>
       <c r="Y791" t="n">
         <v>11</v>
@@ -65418,7 +65418,7 @@
         </is>
       </c>
       <c r="X792" t="n">
-        <v>0.002934899999956997</v>
+        <v>0.002891900000008718</v>
       </c>
       <c r="Y792" t="n">
         <v>12</v>
@@ -65500,7 +65500,7 @@
         </is>
       </c>
       <c r="X793" t="n">
-        <v>0.003936899999985144</v>
+        <v>0.003020100000014736</v>
       </c>
       <c r="Y793" t="n">
         <v>13</v>
@@ -65582,7 +65582,7 @@
         </is>
       </c>
       <c r="X794" t="n">
-        <v>0.002603799999974399</v>
+        <v>0.002425099999982194</v>
       </c>
       <c r="Y794" t="n">
         <v>10</v>
@@ -65664,7 +65664,7 @@
         </is>
       </c>
       <c r="X795" t="n">
-        <v>0.002339500000005046</v>
+        <v>0.002233699999976579</v>
       </c>
       <c r="Y795" t="n">
         <v>9</v>
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="X796" t="n">
-        <v>0.002385200000048826</v>
+        <v>0.002025199999991401</v>
       </c>
       <c r="Y796" t="n">
         <v>8</v>
@@ -65828,7 +65828,7 @@
         </is>
       </c>
       <c r="X797" t="n">
-        <v>0.002616100000011556</v>
+        <v>0.003653200000030665</v>
       </c>
       <c r="Y797" t="n">
         <v>11</v>
@@ -65910,7 +65910,7 @@
         </is>
       </c>
       <c r="X798" t="n">
-        <v>0.003530300000022635</v>
+        <v>0.003004799999985153</v>
       </c>
       <c r="Y798" t="n">
         <v>11</v>
@@ -65992,7 +65992,7 @@
         </is>
       </c>
       <c r="X799" t="n">
-        <v>0.001995799999974679</v>
+        <v>0.001990000000034797</v>
       </c>
       <c r="Y799" t="n">
         <v>8</v>
@@ -66074,7 +66074,7 @@
         </is>
       </c>
       <c r="X800" t="n">
-        <v>0.002930399999968358</v>
+        <v>0.002074099999958889</v>
       </c>
       <c r="Y800" t="n">
         <v>9</v>
@@ -66156,7 +66156,7 @@
         </is>
       </c>
       <c r="X801" t="n">
-        <v>0.003716199999985292</v>
+        <v>0.002195700000015677</v>
       </c>
       <c r="Y801" t="n">
         <v>9</v>
@@ -66238,7 +66238,7 @@
         </is>
       </c>
       <c r="X802" t="n">
-        <v>0.004164899999977933</v>
+        <v>0.002550299999995786</v>
       </c>
       <c r="Y802" t="n">
         <v>11</v>
@@ -66320,7 +66320,7 @@
         </is>
       </c>
       <c r="X803" t="n">
-        <v>0.003390400000000682</v>
+        <v>0.002585300000021107</v>
       </c>
       <c r="Y803" t="n">
         <v>11</v>
@@ -66402,7 +66402,7 @@
         </is>
       </c>
       <c r="X804" t="n">
-        <v>0.003199800000004416</v>
+        <v>0.003633300000046802</v>
       </c>
       <c r="Y804" t="n">
         <v>13</v>
@@ -66484,7 +66484,7 @@
         </is>
       </c>
       <c r="X805" t="n">
-        <v>0.002912100000003193</v>
+        <v>0.00210429999998496</v>
       </c>
       <c r="Y805" t="n">
         <v>9</v>
@@ -66566,7 +66566,7 @@
         </is>
       </c>
       <c r="X806" t="n">
-        <v>0.002823699999964902</v>
+        <v>0.003187400000001617</v>
       </c>
       <c r="Y806" t="n">
         <v>10</v>
@@ -66648,7 +66648,7 @@
         </is>
       </c>
       <c r="X807" t="n">
-        <v>0.002950800000007803</v>
+        <v>0.002769199999988814</v>
       </c>
       <c r="Y807" t="n">
         <v>12</v>
@@ -66730,7 +66730,7 @@
         </is>
       </c>
       <c r="X808" t="n">
-        <v>0.002271399999983714</v>
+        <v>0.002260599999999613</v>
       </c>
       <c r="Y808" t="n">
         <v>9</v>
@@ -66812,7 +66812,7 @@
         </is>
       </c>
       <c r="X809" t="n">
-        <v>0.002635100000020429</v>
+        <v>0.002511799999979303</v>
       </c>
       <c r="Y809" t="n">
         <v>11</v>
@@ -66894,7 +66894,7 @@
         </is>
       </c>
       <c r="X810" t="n">
-        <v>0.00195059999998648</v>
+        <v>0.00205990000000611</v>
       </c>
       <c r="Y810" t="n">
         <v>8</v>
@@ -66976,7 +66976,7 @@
         </is>
       </c>
       <c r="X811" t="n">
-        <v>0.004072300000018458</v>
+        <v>0.00272240000003876</v>
       </c>
       <c r="Y811" t="n">
         <v>12</v>
@@ -67058,7 +67058,7 @@
         </is>
       </c>
       <c r="X812" t="n">
-        <v>0.005113900000026206</v>
+        <v>0.00326129999996283</v>
       </c>
       <c r="Y812" t="n">
         <v>14</v>
@@ -67140,7 +67140,7 @@
         </is>
       </c>
       <c r="X813" t="n">
-        <v>0.00308749999999236</v>
+        <v>0.003730800000028012</v>
       </c>
       <c r="Y813" t="n">
         <v>13</v>
@@ -67222,7 +67222,7 @@
         </is>
       </c>
       <c r="X814" t="n">
-        <v>0.003003100000000813</v>
+        <v>0.002744600000028186</v>
       </c>
       <c r="Y814" t="n">
         <v>12</v>
@@ -67304,7 +67304,7 @@
         </is>
       </c>
       <c r="X815" t="n">
-        <v>0.00465919999999187</v>
+        <v>0.002278699999976652</v>
       </c>
       <c r="Y815" t="n">
         <v>9</v>
@@ -67386,7 +67386,7 @@
         </is>
       </c>
       <c r="X816" t="n">
-        <v>0.003062300000010509</v>
+        <v>0.003006099999993239</v>
       </c>
       <c r="Y816" t="n">
         <v>13</v>
@@ -67468,7 +67468,7 @@
         </is>
       </c>
       <c r="X817" t="n">
-        <v>0.001988699999969867</v>
+        <v>0.001976799999965806</v>
       </c>
       <c r="Y817" t="n">
         <v>8</v>
@@ -67550,7 +67550,7 @@
         </is>
       </c>
       <c r="X818" t="n">
-        <v>0.003630299999997533</v>
+        <v>0.002524399999970228</v>
       </c>
       <c r="Y818" t="n">
         <v>11</v>
@@ -67632,7 +67632,7 @@
         </is>
       </c>
       <c r="X819" t="n">
-        <v>0.002125199999966298</v>
+        <v>0.001925400000004629</v>
       </c>
       <c r="Y819" t="n">
         <v>8</v>
@@ -67714,7 +67714,7 @@
         </is>
       </c>
       <c r="X820" t="n">
-        <v>0.002817199999981312</v>
+        <v>0.002503799999999501</v>
       </c>
       <c r="Y820" t="n">
         <v>9</v>
@@ -67796,7 +67796,7 @@
         </is>
       </c>
       <c r="X821" t="n">
-        <v>0.002623899999946389</v>
+        <v>0.002653899999984333</v>
       </c>
       <c r="Y821" t="n">
         <v>11</v>
@@ -67878,7 +67878,7 @@
         </is>
       </c>
       <c r="X822" t="n">
-        <v>0.003127199999994446</v>
+        <v>0.003653499999984433</v>
       </c>
       <c r="Y822" t="n">
         <v>12</v>
@@ -67960,7 +67960,7 @@
         </is>
       </c>
       <c r="X823" t="n">
-        <v>0.003425199999981032</v>
+        <v>0.002957699999967645</v>
       </c>
       <c r="Y823" t="n">
         <v>12</v>
@@ -68042,7 +68042,7 @@
         </is>
       </c>
       <c r="X824" t="n">
-        <v>0.003523000000029697</v>
+        <v>0.002858399999979611</v>
       </c>
       <c r="Y824" t="n">
         <v>12</v>
@@ -68124,7 +68124,7 @@
         </is>
       </c>
       <c r="X825" t="n">
-        <v>0.003334899999970276</v>
+        <v>0.003433799999982057</v>
       </c>
       <c r="Y825" t="n">
         <v>14</v>
@@ -68206,7 +68206,7 @@
         </is>
       </c>
       <c r="X826" t="n">
-        <v>0.002691500000025826</v>
+        <v>0.002628599999979997</v>
       </c>
       <c r="Y826" t="n">
         <v>11</v>
@@ -68288,7 +68288,7 @@
         </is>
       </c>
       <c r="X827" t="n">
-        <v>0.002927999999997155</v>
+        <v>0.003639599999985421</v>
       </c>
       <c r="Y827" t="n">
         <v>12</v>
@@ -68370,7 +68370,7 @@
         </is>
       </c>
       <c r="X828" t="n">
-        <v>0.002795200000036857</v>
+        <v>0.00274819999998499</v>
       </c>
       <c r="Y828" t="n">
         <v>12</v>
@@ -68452,7 +68452,7 @@
         </is>
       </c>
       <c r="X829" t="n">
-        <v>0.004764700000009725</v>
+        <v>0.002706100000011702</v>
       </c>
       <c r="Y829" t="n">
         <v>11</v>
@@ -68534,7 +68534,7 @@
         </is>
       </c>
       <c r="X830" t="n">
-        <v>0.001894700000036664</v>
+        <v>0.00197990000003756</v>
       </c>
       <c r="Y830" t="n">
         <v>8</v>
@@ -68616,7 +68616,7 @@
         </is>
       </c>
       <c r="X831" t="n">
-        <v>0.002435500000046886</v>
+        <v>0.002272899999979927</v>
       </c>
       <c r="Y831" t="n">
         <v>9</v>
@@ -68698,7 +68698,7 @@
         </is>
       </c>
       <c r="X832" t="n">
-        <v>0.002060700000015458</v>
+        <v>0.00184719999998606</v>
       </c>
       <c r="Y832" t="n">
         <v>8</v>
@@ -68780,7 +68780,7 @@
         </is>
       </c>
       <c r="X833" t="n">
-        <v>0.003261899999984053</v>
+        <v>0.002841500000045016</v>
       </c>
       <c r="Y833" t="n">
         <v>12</v>
@@ -68862,7 +68862,7 @@
         </is>
       </c>
       <c r="X834" t="n">
-        <v>0.003255899999999201</v>
+        <v>0.002573799999993298</v>
       </c>
       <c r="Y834" t="n">
         <v>11</v>
@@ -68944,7 +68944,7 @@
         </is>
       </c>
       <c r="X835" t="n">
-        <v>0.002928899999972145</v>
+        <v>0.002814499999999498</v>
       </c>
       <c r="Y835" t="n">
         <v>12</v>
@@ -69026,7 +69026,7 @@
         </is>
       </c>
       <c r="X836" t="n">
-        <v>0.00237210000000232</v>
+        <v>0.003056899999990037</v>
       </c>
       <c r="Y836" t="n">
         <v>10</v>
@@ -69108,7 +69108,7 @@
         </is>
       </c>
       <c r="X837" t="n">
-        <v>0.001980599999967581</v>
+        <v>0.001910600000030627</v>
       </c>
       <c r="Y837" t="n">
         <v>8</v>
@@ -69190,7 +69190,7 @@
         </is>
       </c>
       <c r="X838" t="n">
-        <v>0.002255699999977878</v>
+        <v>0.002478499999995165</v>
       </c>
       <c r="Y838" t="n">
         <v>8</v>
@@ -69272,7 +69272,7 @@
         </is>
       </c>
       <c r="X839" t="n">
-        <v>0.002914200000020628</v>
+        <v>0.002782700000011573</v>
       </c>
       <c r="Y839" t="n">
         <v>12</v>
@@ -69354,7 +69354,7 @@
         </is>
       </c>
       <c r="X840" t="n">
-        <v>0.003667400000040288</v>
+        <v>0.003112899999962337</v>
       </c>
       <c r="Y840" t="n">
         <v>13</v>
@@ -69436,7 +69436,7 @@
         </is>
       </c>
       <c r="X841" t="n">
-        <v>0.006520399999999427</v>
+        <v>0.002942699999948672</v>
       </c>
       <c r="Y841" t="n">
         <v>13</v>
@@ -69518,7 +69518,7 @@
         </is>
       </c>
       <c r="X842" t="n">
-        <v>0.003840900000000147</v>
+        <v>0.002884099999960199</v>
       </c>
       <c r="Y842" t="n">
         <v>11</v>
@@ -69600,7 +69600,7 @@
         </is>
       </c>
       <c r="X843" t="n">
-        <v>0.0032942999999932</v>
+        <v>0.003886500000021442</v>
       </c>
       <c r="Y843" t="n">
         <v>13</v>
@@ -69682,7 +69682,7 @@
         </is>
       </c>
       <c r="X844" t="n">
-        <v>0.003401499999995394</v>
+        <v>0.002977499999985866</v>
       </c>
       <c r="Y844" t="n">
         <v>13</v>
@@ -69764,7 +69764,7 @@
         </is>
       </c>
       <c r="X845" t="n">
-        <v>0.003945499999986168</v>
+        <v>0.002443699999957971</v>
       </c>
       <c r="Y845" t="n">
         <v>10</v>
@@ -69846,7 +69846,7 @@
         </is>
       </c>
       <c r="X846" t="n">
-        <v>0.002165200000035838</v>
+        <v>0.001896799999997256</v>
       </c>
       <c r="Y846" t="n">
         <v>8</v>
@@ -69928,7 +69928,7 @@
         </is>
       </c>
       <c r="X847" t="n">
-        <v>0.002252999999996064</v>
+        <v>0.001911099999972521</v>
       </c>
       <c r="Y847" t="n">
         <v>8</v>
@@ -70010,7 +70010,7 @@
         </is>
       </c>
       <c r="X848" t="n">
-        <v>0.003054799999972602</v>
+        <v>0.002735799999982191</v>
       </c>
       <c r="Y848" t="n">
         <v>12</v>
@@ -70092,7 +70092,7 @@
         </is>
       </c>
       <c r="X849" t="n">
-        <v>0.005573700000013559</v>
+        <v>0.003001600000004601</v>
       </c>
       <c r="Y849" t="n">
         <v>11</v>
@@ -70174,7 +70174,7 @@
         </is>
       </c>
       <c r="X850" t="n">
-        <v>0.003837499999974625</v>
+        <v>0.003777300000024297</v>
       </c>
       <c r="Y850" t="n">
         <v>12</v>
@@ -70256,7 +70256,7 @@
         </is>
       </c>
       <c r="X851" t="n">
-        <v>0.004821999999990112</v>
+        <v>0.0025557999999819</v>
       </c>
       <c r="Y851" t="n">
         <v>11</v>
@@ -70338,7 +70338,7 @@
         </is>
       </c>
       <c r="X852" t="n">
-        <v>0.002743299999963256</v>
+        <v>0.002110799999968549</v>
       </c>
       <c r="Y852" t="n">
         <v>8</v>
@@ -70420,7 +70420,7 @@
         </is>
       </c>
       <c r="X853" t="n">
-        <v>0.001974500000017088</v>
+        <v>0.00205990000000611</v>
       </c>
       <c r="Y853" t="n">
         <v>8</v>
@@ -70502,7 +70502,7 @@
         </is>
       </c>
       <c r="X854" t="n">
-        <v>0.003891300000020692</v>
+        <v>0.002273399999978665</v>
       </c>
       <c r="Y854" t="n">
         <v>9</v>
@@ -70584,7 +70584,7 @@
         </is>
       </c>
       <c r="X855" t="n">
-        <v>0.002241600000047583</v>
+        <v>0.001823100000024169</v>
       </c>
       <c r="Y855" t="n">
         <v>8</v>
@@ -70666,7 +70666,7 @@
         </is>
       </c>
       <c r="X856" t="n">
-        <v>0.00256560000002537</v>
+        <v>0.002197099999989405</v>
       </c>
       <c r="Y856" t="n">
         <v>9</v>
@@ -70748,7 +70748,7 @@
         </is>
       </c>
       <c r="X857" t="n">
-        <v>0.002483700000027511</v>
+        <v>0.002386500000000069</v>
       </c>
       <c r="Y857" t="n">
         <v>10</v>
@@ -70830,7 +70830,7 @@
         </is>
       </c>
       <c r="X858" t="n">
-        <v>0.003870899999981248</v>
+        <v>0.002897800000027928</v>
       </c>
       <c r="Y858" t="n">
         <v>12</v>
@@ -70912,7 +70912,7 @@
         </is>
       </c>
       <c r="X859" t="n">
-        <v>0.002167900000017653</v>
+        <v>0.002106800000035491</v>
       </c>
       <c r="Y859" t="n">
         <v>8</v>
@@ -70994,7 +70994,7 @@
         </is>
       </c>
       <c r="X860" t="n">
-        <v>0.002277900000024147</v>
+        <v>0.002125899999953162</v>
       </c>
       <c r="Y860" t="n">
         <v>9</v>
@@ -71076,7 +71076,7 @@
         </is>
       </c>
       <c r="X861" t="n">
-        <v>0.004548800000009123</v>
+        <v>0.003976700000009714</v>
       </c>
       <c r="Y861" t="n">
         <v>13</v>
@@ -71158,7 +71158,7 @@
         </is>
       </c>
       <c r="X862" t="n">
-        <v>0.005133999999998196</v>
+        <v>0.00291519999996126</v>
       </c>
       <c r="Y862" t="n">
         <v>13</v>
@@ -71240,7 +71240,7 @@
         </is>
       </c>
       <c r="X863" t="n">
-        <v>0.002781700000014098</v>
+        <v>0.002620600000000195</v>
       </c>
       <c r="Y863" t="n">
         <v>11</v>
@@ -71322,7 +71322,7 @@
         </is>
       </c>
       <c r="X864" t="n">
-        <v>0.003063300000007985</v>
+        <v>0.002909899999963272</v>
       </c>
       <c r="Y864" t="n">
         <v>13</v>
@@ -71404,7 +71404,7 @@
         </is>
       </c>
       <c r="X865" t="n">
-        <v>0.002914000000032502</v>
+        <v>0.002838800000006358</v>
       </c>
       <c r="Y865" t="n">
         <v>12</v>
@@ -71486,7 +71486,7 @@
         </is>
       </c>
       <c r="X866" t="n">
-        <v>0.001701500000024225</v>
+        <v>0.00166070000000218</v>
       </c>
       <c r="Y866" t="n">
         <v>7</v>
@@ -71568,7 +71568,7 @@
         </is>
       </c>
       <c r="X867" t="n">
-        <v>0.004323300000010022</v>
+        <v>0.002804900000000998</v>
       </c>
       <c r="Y867" t="n">
         <v>12</v>
@@ -71650,7 +71650,7 @@
         </is>
       </c>
       <c r="X868" t="n">
-        <v>0.001943799999992279</v>
+        <v>0.002690999999970245</v>
       </c>
       <c r="Y868" t="n">
         <v>8</v>
@@ -71732,7 +71732,7 @@
         </is>
       </c>
       <c r="X869" t="n">
-        <v>0.003123600000037641</v>
+        <v>0.002708999999981643</v>
       </c>
       <c r="Y869" t="n">
         <v>12</v>
@@ -71814,7 +71814,7 @@
         </is>
       </c>
       <c r="X870" t="n">
-        <v>0.002186300000005303</v>
+        <v>0.002241499999968255</v>
       </c>
       <c r="Y870" t="n">
         <v>9</v>
@@ -71896,7 +71896,7 @@
         </is>
       </c>
       <c r="X871" t="n">
-        <v>0.002613999999994121</v>
+        <v>0.002632400000038615</v>
       </c>
       <c r="Y871" t="n">
         <v>11</v>
@@ -71978,7 +71978,7 @@
         </is>
       </c>
       <c r="X872" t="n">
-        <v>0.003689699999995355</v>
+        <v>0.002450199999998404</v>
       </c>
       <c r="Y872" t="n">
         <v>10</v>
@@ -72060,7 +72060,7 @@
         </is>
       </c>
       <c r="X873" t="n">
-        <v>0.002376000000026579</v>
+        <v>0.002407000000005155</v>
       </c>
       <c r="Y873" t="n">
         <v>10</v>
@@ -72142,7 +72142,7 @@
         </is>
       </c>
       <c r="X874" t="n">
-        <v>0.002271100000029946</v>
+        <v>0.002059200000019246</v>
       </c>
       <c r="Y874" t="n">
         <v>8</v>
@@ -72224,7 +72224,7 @@
         </is>
       </c>
       <c r="X875" t="n">
-        <v>0.002298999999993612</v>
+        <v>0.002618800000050214</v>
       </c>
       <c r="Y875" t="n">
         <v>9</v>
@@ -72306,7 +72306,7 @@
         </is>
       </c>
       <c r="X876" t="n">
-        <v>0.002914099999998143</v>
+        <v>0.002853700000002846</v>
       </c>
       <c r="Y876" t="n">
         <v>12</v>
@@ -72388,7 +72388,7 @@
         </is>
       </c>
       <c r="X877" t="n">
-        <v>0.002110899999991034</v>
+        <v>0.002118199999983972</v>
       </c>
       <c r="Y877" t="n">
         <v>8</v>
@@ -72470,7 +72470,7 @@
         </is>
       </c>
       <c r="X878" t="n">
-        <v>0.0020607999999811</v>
+        <v>0.001887300000021241</v>
       </c>
       <c r="Y878" t="n">
         <v>8</v>
@@ -72552,7 +72552,7 @@
         </is>
       </c>
       <c r="X879" t="n">
-        <v>0.003306500000007873</v>
+        <v>0.002032199999973727</v>
       </c>
       <c r="Y879" t="n">
         <v>8</v>
@@ -72634,7 +72634,7 @@
         </is>
       </c>
       <c r="X880" t="n">
-        <v>0.00281310000002577</v>
+        <v>0.00248930000003611</v>
       </c>
       <c r="Y880" t="n">
         <v>11</v>
@@ -72716,7 +72716,7 @@
         </is>
       </c>
       <c r="X881" t="n">
-        <v>0.002504199999975754</v>
+        <v>0.002253200000041033</v>
       </c>
       <c r="Y881" t="n">
         <v>9</v>
@@ -72798,7 +72798,7 @@
         </is>
       </c>
       <c r="X882" t="n">
-        <v>0.002103700000020581</v>
+        <v>0.002056299999992461</v>
       </c>
       <c r="Y882" t="n">
         <v>9</v>
@@ -72880,7 +72880,7 @@
         </is>
       </c>
       <c r="X883" t="n">
-        <v>0.002839899999969475</v>
+        <v>0.002927699999986544</v>
       </c>
       <c r="Y883" t="n">
         <v>12</v>
@@ -72962,7 +72962,7 @@
         </is>
       </c>
       <c r="X884" t="n">
-        <v>0.002977400000020225</v>
+        <v>0.002798600000005536</v>
       </c>
       <c r="Y884" t="n">
         <v>12</v>
@@ -73044,7 +73044,7 @@
         </is>
       </c>
       <c r="X885" t="n">
-        <v>0.002788999999950192</v>
+        <v>0.002711099999999078</v>
       </c>
       <c r="Y885" t="n">
         <v>11</v>
@@ -73126,7 +73126,7 @@
         </is>
       </c>
       <c r="X886" t="n">
-        <v>0.004420600000003105</v>
+        <v>0.004033100000015111</v>
       </c>
       <c r="Y886" t="n">
         <v>14</v>
@@ -73208,7 +73208,7 @@
         </is>
       </c>
       <c r="X887" t="n">
-        <v>0.002266500000018823</v>
+        <v>0.002153800000030515</v>
       </c>
       <c r="Y887" t="n">
         <v>9</v>
@@ -73290,7 +73290,7 @@
         </is>
       </c>
       <c r="X888" t="n">
-        <v>0.002187499999990905</v>
+        <v>0.002221099999985654</v>
       </c>
       <c r="Y888" t="n">
         <v>9</v>
@@ -73372,7 +73372,7 @@
         </is>
       </c>
       <c r="X889" t="n">
-        <v>0.002073099999961414</v>
+        <v>0.002070100000025832</v>
       </c>
       <c r="Y889" t="n">
         <v>8</v>
@@ -73454,7 +73454,7 @@
         </is>
       </c>
       <c r="X890" t="n">
-        <v>0.002154099999984282</v>
+        <v>0.002265700000009474</v>
       </c>
       <c r="Y890" t="n">
         <v>9</v>
@@ -73536,7 +73536,7 @@
         </is>
       </c>
       <c r="X891" t="n">
-        <v>0.002821900000014921</v>
+        <v>0.002705599999956121</v>
       </c>
       <c r="Y891" t="n">
         <v>12</v>
@@ -73618,7 +73618,7 @@
         </is>
       </c>
       <c r="X892" t="n">
-        <v>0.002844100000004346</v>
+        <v>0.002858500000002095</v>
       </c>
       <c r="Y892" t="n">
         <v>12</v>
@@ -73700,7 +73700,7 @@
         </is>
       </c>
       <c r="X893" t="n">
-        <v>0.00248540000001185</v>
+        <v>0.002444400000001679</v>
       </c>
       <c r="Y893" t="n">
         <v>10</v>
@@ -73782,7 +73782,7 @@
         </is>
       </c>
       <c r="X894" t="n">
-        <v>0.001884300000028816</v>
+        <v>0.001868999999999232</v>
       </c>
       <c r="Y894" t="n">
         <v>8</v>
@@ -73864,7 +73864,7 @@
         </is>
       </c>
       <c r="X895" t="n">
-        <v>0.002288999999962016</v>
+        <v>0.002252600000019811</v>
       </c>
       <c r="Y895" t="n">
         <v>9</v>
@@ -73946,7 +73946,7 @@
         </is>
       </c>
       <c r="X896" t="n">
-        <v>0.002778000000034808</v>
+        <v>0.002057000000036169</v>
       </c>
       <c r="Y896" t="n">
         <v>9</v>
@@ -74028,7 +74028,7 @@
         </is>
       </c>
       <c r="X897" t="n">
-        <v>0.002424300000029689</v>
+        <v>0.002444500000024163</v>
       </c>
       <c r="Y897" t="n">
         <v>10</v>
@@ -74110,7 +74110,7 @@
         </is>
       </c>
       <c r="X898" t="n">
-        <v>0.00330220000000736</v>
+        <v>0.002508799999986877</v>
       </c>
       <c r="Y898" t="n">
         <v>10</v>
@@ -74192,7 +74192,7 @@
         </is>
       </c>
       <c r="X899" t="n">
-        <v>0.004442100000005667</v>
+        <v>0.003056700000001911</v>
       </c>
       <c r="Y899" t="n">
         <v>13</v>
@@ -74274,7 +74274,7 @@
         </is>
       </c>
       <c r="X900" t="n">
-        <v>0.003003599999999551</v>
+        <v>0.003599899999983336</v>
       </c>
       <c r="Y900" t="n">
         <v>11</v>
@@ -74356,7 +74356,7 @@
         </is>
       </c>
       <c r="X901" t="n">
-        <v>0.002844500000037442</v>
+        <v>0.002722000000005664</v>
       </c>
       <c r="Y901" t="n">
         <v>12</v>
@@ -74438,7 +74438,7 @@
         </is>
       </c>
       <c r="X902" t="n">
-        <v>0.002654800000016166</v>
+        <v>0.002620299999989584</v>
       </c>
       <c r="Y902" t="n">
         <v>11</v>
@@ -74520,7 +74520,7 @@
         </is>
       </c>
       <c r="X903" t="n">
-        <v>0.003519100000005437</v>
+        <v>0.002147999999976946</v>
       </c>
       <c r="Y903" t="n">
         <v>8</v>
@@ -74602,7 +74602,7 @@
         </is>
       </c>
       <c r="X904" t="n">
-        <v>0.002382399999987683</v>
+        <v>0.0025162000000023</v>
       </c>
       <c r="Y904" t="n">
         <v>10</v>
@@ -74684,7 +74684,7 @@
         </is>
       </c>
       <c r="X905" t="n">
-        <v>0.002258500000039021</v>
+        <v>0.003113999999982298</v>
       </c>
       <c r="Y905" t="n">
         <v>9</v>
@@ -74766,7 +74766,7 @@
         </is>
       </c>
       <c r="X906" t="n">
-        <v>0.003043199999979151</v>
+        <v>0.003518199999973604</v>
       </c>
       <c r="Y906" t="n">
         <v>13</v>
@@ -74848,7 +74848,7 @@
         </is>
       </c>
       <c r="X907" t="n">
-        <v>0.003066100000012284</v>
+        <v>0.003155400000025566</v>
       </c>
       <c r="Y907" t="n">
         <v>13</v>
@@ -74930,7 +74930,7 @@
         </is>
       </c>
       <c r="X908" t="n">
-        <v>0.004398600000001807</v>
+        <v>0.002914800000041851</v>
       </c>
       <c r="Y908" t="n">
         <v>13</v>
@@ -75012,7 +75012,7 @@
         </is>
       </c>
       <c r="X909" t="n">
-        <v>0.002355399999999008</v>
+        <v>0.002673300000026302</v>
       </c>
       <c r="Y909" t="n">
         <v>10</v>
@@ -75094,7 +75094,7 @@
         </is>
       </c>
       <c r="X910" t="n">
-        <v>0.003189200000008441</v>
+        <v>0.0038384999999721</v>
       </c>
       <c r="Y910" t="n">
         <v>12</v>
@@ -75176,7 +75176,7 @@
         </is>
       </c>
       <c r="X911" t="n">
-        <v>0.001870900000028541</v>
+        <v>0.001843400000041129</v>
       </c>
       <c r="Y911" t="n">
         <v>8</v>
@@ -75258,7 +75258,7 @@
         </is>
       </c>
       <c r="X912" t="n">
-        <v>0.002157500000009804</v>
+        <v>0.002684799999997267</v>
       </c>
       <c r="Y912" t="n">
         <v>9</v>
@@ -75340,7 +75340,7 @@
         </is>
       </c>
       <c r="X913" t="n">
-        <v>0.001863799999966886</v>
+        <v>0.001874899999961599</v>
       </c>
       <c r="Y913" t="n">
         <v>8</v>
@@ -75422,7 +75422,7 @@
         </is>
       </c>
       <c r="X914" t="n">
-        <v>0.003090600000007271</v>
+        <v>0.002915299999983745</v>
       </c>
       <c r="Y914" t="n">
         <v>12</v>
@@ -75504,7 +75504,7 @@
         </is>
       </c>
       <c r="X915" t="n">
-        <v>0.004218400000013389</v>
+        <v>0.003014299999961167</v>
       </c>
       <c r="Y915" t="n">
         <v>13</v>
@@ -75586,7 +75586,7 @@
         </is>
       </c>
       <c r="X916" t="n">
-        <v>0.002013799999986077</v>
+        <v>0.001932199999998829</v>
       </c>
       <c r="Y916" t="n">
         <v>8</v>
@@ -75668,7 +75668,7 @@
         </is>
       </c>
       <c r="X917" t="n">
-        <v>0.002198700000008103</v>
+        <v>0.002038800000036645</v>
       </c>
       <c r="Y917" t="n">
         <v>9</v>
@@ -75750,7 +75750,7 @@
         </is>
       </c>
       <c r="X918" t="n">
-        <v>0.002655799999956798</v>
+        <v>0.002815099999963877</v>
       </c>
       <c r="Y918" t="n">
         <v>12</v>
@@ -75832,7 +75832,7 @@
         </is>
       </c>
       <c r="X919" t="n">
-        <v>0.002872899999999845</v>
+        <v>0.003652900000020054</v>
       </c>
       <c r="Y919" t="n">
         <v>12</v>
@@ -75914,7 +75914,7 @@
         </is>
       </c>
       <c r="X920" t="n">
-        <v>0.002357000000017706</v>
+        <v>0.002332799999976487</v>
       </c>
       <c r="Y920" t="n">
         <v>10</v>
@@ -75996,7 +75996,7 @@
         </is>
       </c>
       <c r="X921" t="n">
-        <v>0.002651599999978771</v>
+        <v>0.00286799999997811</v>
       </c>
       <c r="Y921" t="n">
         <v>11</v>
@@ -76078,7 +76078,7 @@
         </is>
       </c>
       <c r="X922" t="n">
-        <v>0.003165400000000318</v>
+        <v>0.002073100000018258</v>
       </c>
       <c r="Y922" t="n">
         <v>9</v>
@@ -76160,7 +76160,7 @@
         </is>
       </c>
       <c r="X923" t="n">
-        <v>0.002098500000045078</v>
+        <v>0.001974299999972118</v>
       </c>
       <c r="Y923" t="n">
         <v>8</v>
@@ -76242,7 +76242,7 @@
         </is>
       </c>
       <c r="X924" t="n">
-        <v>0.002962000000025</v>
+        <v>0.002819700000031844</v>
       </c>
       <c r="Y924" t="n">
         <v>12</v>
@@ -76324,7 +76324,7 @@
         </is>
       </c>
       <c r="X925" t="n">
-        <v>0.002059299999984887</v>
+        <v>0.002202500000009877</v>
       </c>
       <c r="Y925" t="n">
         <v>9</v>
@@ -76406,7 +76406,7 @@
         </is>
       </c>
       <c r="X926" t="n">
-        <v>0.003260899999986577</v>
+        <v>0.003951999999969757</v>
       </c>
       <c r="Y926" t="n">
         <v>13</v>
@@ -76488,7 +76488,7 @@
         </is>
       </c>
       <c r="X927" t="n">
-        <v>0.004107599999997547</v>
+        <v>0.002971199999990404</v>
       </c>
       <c r="Y927" t="n">
         <v>13</v>
@@ -76570,7 +76570,7 @@
         </is>
       </c>
       <c r="X928" t="n">
-        <v>0.002213299999993978</v>
+        <v>0.00225710000000845</v>
       </c>
       <c r="Y928" t="n">
         <v>9</v>
@@ -76652,7 +76652,7 @@
         </is>
       </c>
       <c r="X929" t="n">
-        <v>0.002442400000006728</v>
+        <v>0.002076100000010683</v>
       </c>
       <c r="Y929" t="n">
         <v>9</v>
@@ -76734,7 +76734,7 @@
         </is>
       </c>
       <c r="X930" t="n">
-        <v>0.002598900000009507</v>
+        <v>0.002235799999994015</v>
       </c>
       <c r="Y930" t="n">
         <v>9</v>
@@ -76816,7 +76816,7 @@
         </is>
       </c>
       <c r="X931" t="n">
-        <v>0.003162400000007892</v>
+        <v>0.002377499999965949</v>
       </c>
       <c r="Y931" t="n">
         <v>10</v>
@@ -76898,7 +76898,7 @@
         </is>
       </c>
       <c r="X932" t="n">
-        <v>0.003172000000006392</v>
+        <v>0.002179299999966133</v>
       </c>
       <c r="Y932" t="n">
         <v>9</v>
@@ -76980,7 +76980,7 @@
         </is>
       </c>
       <c r="X933" t="n">
-        <v>0.00194210000000794</v>
+        <v>0.002009900000018661</v>
       </c>
       <c r="Y933" t="n">
         <v>8</v>
@@ -77062,7 +77062,7 @@
         </is>
       </c>
       <c r="X934" t="n">
-        <v>0.005902999999989333</v>
+        <v>0.003052799999977651</v>
       </c>
       <c r="Y934" t="n">
         <v>13</v>
@@ -77144,7 +77144,7 @@
         </is>
       </c>
       <c r="X935" t="n">
-        <v>0.004057900000020709</v>
+        <v>0.003851199999985511</v>
       </c>
       <c r="Y935" t="n">
         <v>12</v>
@@ -77226,7 +77226,7 @@
         </is>
       </c>
       <c r="X936" t="n">
-        <v>0.003431100000000242</v>
+        <v>0.003329299999961677</v>
       </c>
       <c r="Y936" t="n">
         <v>14</v>
@@ -77308,7 +77308,7 @@
         </is>
       </c>
       <c r="X937" t="n">
-        <v>0.003287000000000262</v>
+        <v>0.002441099999998642</v>
       </c>
       <c r="Y937" t="n">
         <v>10</v>
@@ -77390,7 +77390,7 @@
         </is>
       </c>
       <c r="X938" t="n">
-        <v>0.002828500000020995</v>
+        <v>0.004471000000023651</v>
       </c>
       <c r="Y938" t="n">
         <v>12</v>
@@ -77472,7 +77472,7 @@
         </is>
       </c>
       <c r="X939" t="n">
-        <v>0.002001300000017636</v>
+        <v>0.002094999999997071</v>
       </c>
       <c r="Y939" t="n">
         <v>8</v>
@@ -77554,7 +77554,7 @@
         </is>
       </c>
       <c r="X940" t="n">
-        <v>0.00339489999998932</v>
+        <v>0.002051600000015696</v>
       </c>
       <c r="Y940" t="n">
         <v>8</v>
@@ -77636,7 +77636,7 @@
         </is>
       </c>
       <c r="X941" t="n">
-        <v>0.002670099999988906</v>
+        <v>0.002748499999995602</v>
       </c>
       <c r="Y941" t="n">
         <v>11</v>
@@ -77718,7 +77718,7 @@
         </is>
       </c>
       <c r="X942" t="n">
-        <v>0.00219830000003185</v>
+        <v>0.002273999999999887</v>
       </c>
       <c r="Y942" t="n">
         <v>8</v>
@@ -77800,7 +77800,7 @@
         </is>
       </c>
       <c r="X943" t="n">
-        <v>0.002480300000001989</v>
+        <v>0.003479400000003352</v>
       </c>
       <c r="Y943" t="n">
         <v>10</v>
@@ -77882,7 +77882,7 @@
         </is>
       </c>
       <c r="X944" t="n">
-        <v>0.002211200000033386</v>
+        <v>0.002406100000030165</v>
       </c>
       <c r="Y944" t="n">
         <v>9</v>
@@ -77964,7 +77964,7 @@
         </is>
       </c>
       <c r="X945" t="n">
-        <v>0.004906300000016017</v>
+        <v>0.003114200000027267</v>
       </c>
       <c r="Y945" t="n">
         <v>13</v>
@@ -78046,7 +78046,7 @@
         </is>
       </c>
       <c r="X946" t="n">
-        <v>0.002089399999988473</v>
+        <v>0.001906700000006367</v>
       </c>
       <c r="Y946" t="n">
         <v>8</v>
@@ -78128,7 +78128,7 @@
         </is>
       </c>
       <c r="X947" t="n">
-        <v>0.002697699999998804</v>
+        <v>0.002646900000002006</v>
       </c>
       <c r="Y947" t="n">
         <v>11</v>
@@ -78210,7 +78210,7 @@
         </is>
       </c>
       <c r="X948" t="n">
-        <v>0.002014400000007299</v>
+        <v>0.001899199999968459</v>
       </c>
       <c r="Y948" t="n">
         <v>8</v>
@@ -78292,7 +78292,7 @@
         </is>
       </c>
       <c r="X949" t="n">
-        <v>0.002136000000007243</v>
+        <v>0.002029600000014398</v>
       </c>
       <c r="Y949" t="n">
         <v>8</v>
@@ -78374,7 +78374,7 @@
         </is>
       </c>
       <c r="X950" t="n">
-        <v>0.002173500000026252</v>
+        <v>0.003023400000017773</v>
       </c>
       <c r="Y950" t="n">
         <v>9</v>
@@ -78456,7 +78456,7 @@
         </is>
       </c>
       <c r="X951" t="n">
-        <v>0.001730400000042209</v>
+        <v>0.001699900000005528</v>
       </c>
       <c r="Y951" t="n">
         <v>7</v>
@@ -78538,7 +78538,7 @@
         </is>
       </c>
       <c r="X952" t="n">
-        <v>0.002656199999989894</v>
+        <v>0.001932300000021314</v>
       </c>
       <c r="Y952" t="n">
         <v>8</v>
@@ -78620,7 +78620,7 @@
         </is>
       </c>
       <c r="X953" t="n">
-        <v>0.00194010000001299</v>
+        <v>0.001939499999991767</v>
       </c>
       <c r="Y953" t="n">
         <v>8</v>
@@ -78702,7 +78702,7 @@
         </is>
       </c>
       <c r="X954" t="n">
-        <v>0.003623300000015206</v>
+        <v>0.002402299999971547</v>
       </c>
       <c r="Y954" t="n">
         <v>10</v>
@@ -78784,7 +78784,7 @@
         </is>
       </c>
       <c r="X955" t="n">
-        <v>0.003153499999996257</v>
+        <v>0.003023799999994026</v>
       </c>
       <c r="Y955" t="n">
         <v>13</v>
@@ -78866,7 +78866,7 @@
         </is>
       </c>
       <c r="X956" t="n">
-        <v>0.002828500000020995</v>
+        <v>0.002849700000012945</v>
       </c>
       <c r="Y956" t="n">
         <v>12</v>
@@ -78948,7 +78948,7 @@
         </is>
       </c>
       <c r="X957" t="n">
-        <v>0.001891399999976784</v>
+        <v>0.0021427999999446</v>
       </c>
       <c r="Y957" t="n">
         <v>8</v>
@@ -79030,7 +79030,7 @@
         </is>
       </c>
       <c r="X958" t="n">
-        <v>0.002881599999966511</v>
+        <v>0.002765000000010787</v>
       </c>
       <c r="Y958" t="n">
         <v>12</v>
@@ -79112,7 +79112,7 @@
         </is>
       </c>
       <c r="X959" t="n">
-        <v>0.004108799999983148</v>
+        <v>0.003163099999994756</v>
       </c>
       <c r="Y959" t="n">
         <v>13</v>
@@ -79194,7 +79194,7 @@
         </is>
       </c>
       <c r="X960" t="n">
-        <v>0.002169800000046962</v>
+        <v>0.00214499999998452</v>
       </c>
       <c r="Y960" t="n">
         <v>9</v>
@@ -79276,7 +79276,7 @@
         </is>
       </c>
       <c r="X961" t="n">
-        <v>0.00267079999997577</v>
+        <v>0.0026145999999585</v>
       </c>
       <c r="Y961" t="n">
         <v>11</v>
@@ -79358,7 +79358,7 @@
         </is>
       </c>
       <c r="X962" t="n">
-        <v>0.002779099999997925</v>
+        <v>0.003581499999995685</v>
       </c>
       <c r="Y962" t="n">
         <v>12</v>
@@ -79440,7 +79440,7 @@
         </is>
       </c>
       <c r="X963" t="n">
-        <v>0.002125799999987521</v>
+        <v>0.001832299999989573</v>
       </c>
       <c r="Y963" t="n">
         <v>8</v>
@@ -79522,7 +79522,7 @@
         </is>
       </c>
       <c r="X964" t="n">
-        <v>0.001857299999983297</v>
+        <v>0.001970499999970343</v>
       </c>
       <c r="Y964" t="n">
         <v>8</v>
@@ -79604,7 +79604,7 @@
         </is>
       </c>
       <c r="X965" t="n">
-        <v>0.002363699999989421</v>
+        <v>0.001912300000014966</v>
       </c>
       <c r="Y965" t="n">
         <v>8</v>
@@ -79686,7 +79686,7 @@
         </is>
       </c>
       <c r="X966" t="n">
-        <v>0.00253629999997429</v>
+        <v>0.002673399999991943</v>
       </c>
       <c r="Y966" t="n">
         <v>11</v>
@@ -79768,7 +79768,7 @@
         </is>
       </c>
       <c r="X967" t="n">
-        <v>0.00254989999996269</v>
+        <v>0.002306099999998423</v>
       </c>
       <c r="Y967" t="n">
         <v>10</v>
@@ -79850,7 +79850,7 @@
         </is>
       </c>
       <c r="X968" t="n">
-        <v>0.00339289999999437</v>
+        <v>0.002438299999994342</v>
       </c>
       <c r="Y968" t="n">
         <v>10</v>
@@ -79932,7 +79932,7 @@
         </is>
       </c>
       <c r="X969" t="n">
-        <v>0.002751999999986765</v>
+        <v>0.002724199999988741</v>
       </c>
       <c r="Y969" t="n">
         <v>12</v>
@@ -80014,7 +80014,7 @@
         </is>
       </c>
       <c r="X970" t="n">
-        <v>0.002826500000026044</v>
+        <v>0.002354900000000271</v>
       </c>
       <c r="Y970" t="n">
         <v>10</v>
@@ -80096,7 +80096,7 @@
         </is>
       </c>
       <c r="X971" t="n">
-        <v>0.002242099999989478</v>
+        <v>0.003073700000015833</v>
       </c>
       <c r="Y971" t="n">
         <v>9</v>
@@ -80178,7 +80178,7 @@
         </is>
       </c>
       <c r="X972" t="n">
-        <v>0.002358200000003308</v>
+        <v>0.002271299999961229</v>
       </c>
       <c r="Y972" t="n">
         <v>10</v>
@@ -80260,7 +80260,7 @@
         </is>
       </c>
       <c r="X973" t="n">
-        <v>0.002496400000040921</v>
+        <v>0.002506300000050032</v>
       </c>
       <c r="Y973" t="n">
         <v>10</v>
@@ -80342,7 +80342,7 @@
         </is>
       </c>
       <c r="X974" t="n">
-        <v>0.002260599999999613</v>
+        <v>0.00229100000001381</v>
       </c>
       <c r="Y974" t="n">
         <v>9</v>
@@ -80424,7 +80424,7 @@
         </is>
       </c>
       <c r="X975" t="n">
-        <v>0.00413340000000062</v>
+        <v>0.002626899999995658</v>
       </c>
       <c r="Y975" t="n">
         <v>11</v>
@@ -80506,7 +80506,7 @@
         </is>
       </c>
       <c r="X976" t="n">
-        <v>0.002611300000012307</v>
+        <v>0.002551400000015747</v>
       </c>
       <c r="Y976" t="n">
         <v>11</v>
@@ -80588,7 +80588,7 @@
         </is>
       </c>
       <c r="X977" t="n">
-        <v>0.003611700000021756</v>
+        <v>0.00241280000000188</v>
       </c>
       <c r="Y977" t="n">
         <v>10</v>
@@ -80670,7 +80670,7 @@
         </is>
       </c>
       <c r="X978" t="n">
-        <v>0.002540900000042257</v>
+        <v>0.002848500000027343</v>
       </c>
       <c r="Y978" t="n">
         <v>10</v>
@@ -80752,7 +80752,7 @@
         </is>
       </c>
       <c r="X979" t="n">
-        <v>0.002323700000033568</v>
+        <v>0.00217579999997497</v>
       </c>
       <c r="Y979" t="n">
         <v>9</v>
@@ -80834,7 +80834,7 @@
         </is>
       </c>
       <c r="X980" t="n">
-        <v>0.002039200000012897</v>
+        <v>0.003136500000039177</v>
       </c>
       <c r="Y980" t="n">
         <v>8</v>
@@ -80916,7 +80916,7 @@
         </is>
       </c>
       <c r="X981" t="n">
-        <v>0.002678000000003067</v>
+        <v>0.002689900000007128</v>
       </c>
       <c r="Y981" t="n">
         <v>11</v>
@@ -80998,7 +80998,7 @@
         </is>
       </c>
       <c r="X982" t="n">
-        <v>0.003699600000004466</v>
+        <v>0.002464700000018638</v>
       </c>
       <c r="Y982" t="n">
         <v>10</v>
@@ -81080,7 +81080,7 @@
         </is>
       </c>
       <c r="X983" t="n">
-        <v>0.003945600000008653</v>
+        <v>0.003107299999953739</v>
       </c>
       <c r="Y983" t="n">
         <v>13</v>
@@ -81162,7 +81162,7 @@
         </is>
       </c>
       <c r="X984" t="n">
-        <v>0.002208199999984117</v>
+        <v>0.002263700000014524</v>
       </c>
       <c r="Y984" t="n">
         <v>9</v>
@@ -81244,7 +81244,7 @@
         </is>
       </c>
       <c r="X985" t="n">
-        <v>0.004807900000002974</v>
+        <v>0.002938000000028751</v>
       </c>
       <c r="Y985" t="n">
         <v>13</v>
@@ -81326,7 +81326,7 @@
         </is>
       </c>
       <c r="X986" t="n">
-        <v>0.00303239999999505</v>
+        <v>0.002811399999984587</v>
       </c>
       <c r="Y986" t="n">
         <v>12</v>
@@ -81408,7 +81408,7 @@
         </is>
       </c>
       <c r="X987" t="n">
-        <v>0.002710999999976593</v>
+        <v>0.00319939999997132</v>
       </c>
       <c r="Y987" t="n">
         <v>9</v>
@@ -81490,7 +81490,7 @@
         </is>
       </c>
       <c r="X988" t="n">
-        <v>0.004218100000002778</v>
+        <v>0.002925600000025952</v>
       </c>
       <c r="Y988" t="n">
         <v>13</v>
@@ -81572,7 +81572,7 @@
         </is>
       </c>
       <c r="X989" t="n">
-        <v>0.003254699999956756</v>
+        <v>0.00306060000002617</v>
       </c>
       <c r="Y989" t="n">
         <v>13</v>
@@ -81654,7 +81654,7 @@
         </is>
       </c>
       <c r="X990" t="n">
-        <v>0.002604800000028717</v>
+        <v>0.002048500000000786</v>
       </c>
       <c r="Y990" t="n">
         <v>8</v>
@@ -81736,7 +81736,7 @@
         </is>
       </c>
       <c r="X991" t="n">
-        <v>0.002192900000011377</v>
+        <v>0.002210300000001553</v>
       </c>
       <c r="Y991" t="n">
         <v>9</v>
@@ -81818,7 +81818,7 @@
         </is>
       </c>
       <c r="X992" t="n">
-        <v>0.002332599999988361</v>
+        <v>0.001852500000040891</v>
       </c>
       <c r="Y992" t="n">
         <v>8</v>
@@ -81900,7 +81900,7 @@
         </is>
       </c>
       <c r="X993" t="n">
-        <v>0.004419400000017504</v>
+        <v>0.002823499999976775</v>
       </c>
       <c r="Y993" t="n">
         <v>12</v>
@@ -81982,7 +81982,7 @@
         </is>
       </c>
       <c r="X994" t="n">
-        <v>0.003388700000016343</v>
+        <v>0.003856700000028468</v>
       </c>
       <c r="Y994" t="n">
         <v>12</v>
@@ -82064,7 +82064,7 @@
         </is>
       </c>
       <c r="X995" t="n">
-        <v>0.002564699999993536</v>
+        <v>0.002059799999983625</v>
       </c>
       <c r="Y995" t="n">
         <v>9</v>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="X996" t="n">
-        <v>0.006310399999961191</v>
+        <v>0.002715200000011464</v>
       </c>
       <c r="Y996" t="n">
         <v>11</v>
@@ -82228,7 +82228,7 @@
         </is>
       </c>
       <c r="X997" t="n">
-        <v>0.001917300000002342</v>
+        <v>0.001858800000036354</v>
       </c>
       <c r="Y997" t="n">
         <v>8</v>
@@ -82310,7 +82310,7 @@
         </is>
       </c>
       <c r="X998" t="n">
-        <v>0.003114700000026005</v>
+        <v>0.002896299999974872</v>
       </c>
       <c r="Y998" t="n">
         <v>12</v>
@@ -82392,7 +82392,7 @@
         </is>
       </c>
       <c r="X999" t="n">
-        <v>0.002010800000050494</v>
+        <v>0.001959100000021863</v>
       </c>
       <c r="Y999" t="n">
         <v>8</v>
@@ -82474,7 +82474,7 @@
         </is>
       </c>
       <c r="X1000" t="n">
-        <v>0.002658700000040426</v>
+        <v>0.002705800000001091</v>
       </c>
       <c r="Y1000" t="n">
         <v>11</v>
@@ -82556,7 +82556,7 @@
         </is>
       </c>
       <c r="X1001" t="n">
-        <v>0.002411499999993794</v>
+        <v>0.002614600000015344</v>
       </c>
       <c r="Y1001" t="n">
         <v>10</v>
